--- a/KTB.xlsx
+++ b/KTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D6CC34-5801-4506-9976-B2C681E3CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81515807-2E3A-4E7E-B7A4-AA75394BEBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{9A2B2DB6-AD04-431A-A93E-08AB5EE56C6D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{9A2B2DB6-AD04-431A-A93E-08AB5EE56C6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>numbers in mio USD</t>
   </si>
@@ -200,6 +200,27 @@
   <si>
     <t>FY24</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Helly Hansen</t>
+  </si>
+  <si>
+    <t>Helly Hansen Growth</t>
+  </si>
+  <si>
+    <t>19-02-2025: Acquisition of Workwear Brand Helly Hansen for 900$ million -&gt; 11x EBITDA</t>
+  </si>
 </sst>
 </file>
 
@@ -208,13 +229,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -278,22 +305,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -633,7 +667,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -655,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>74.06</v>
+        <v>78.680000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -663,10 +697,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="4">
-        <v>55.326048</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>55.574233999999997</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -678,8 +712,9 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>4097.4471148800003</v>
-      </c>
+        <v>4372.5807311200006</v>
+      </c>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -689,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="I5" s="4">
-        <v>344.06599999999997</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>107.482</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -700,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="I6" s="4">
-        <v>740.31500000000005</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
+        <v>1366.51</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -712,7 +747,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>4493.6961148800001</v>
+        <v>5631.6087311200008</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -723,6 +758,11 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
@@ -735,13 +775,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93450575-8904-4424-9428-65A88B29CCAC}">
-  <dimension ref="A1:BN483"/>
+  <dimension ref="A1:BR485"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -751,12 +791,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -781,26 +821,38 @@
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -810,27 +862,35 @@
         <v>460.971</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4">
+        <v>449.964</v>
+      </c>
+      <c r="H3" s="4">
+        <v>452.15100000000001</v>
+      </c>
       <c r="I3" s="4">
         <v>482.56200000000001</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="4">
+        <v>446.87700000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>477.863</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>1868.941</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1885.105</v>
-      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="T3" s="4">
+        <v>1868.941</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1885.105</v>
+      </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -866,8 +926,12 @@
       <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
@@ -877,27 +941,35 @@
         <v>125.077</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4">
+        <v>108.056</v>
+      </c>
+      <c r="H4" s="4">
+        <v>81.956000000000003</v>
+      </c>
       <c r="I4" s="4">
         <v>116.867</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4">
+        <v>99.058999999999997</v>
+      </c>
+      <c r="L4" s="4">
+        <v>93.266000000000005</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4">
-        <v>428.649</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>399.41500000000002</v>
-      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="T4" s="4">
+        <v>428.649</v>
+      </c>
+      <c r="U4" s="4">
+        <v>399.41500000000002</v>
+      </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
@@ -933,8 +1005,12 @@
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
@@ -944,27 +1020,35 @@
         <v>68.492000000000004</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4">
+        <v>73.182000000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <v>72.790999999999997</v>
+      </c>
       <c r="I5" s="4">
         <v>70.765000000000001</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="4">
+        <v>76.965000000000003</v>
+      </c>
+      <c r="L5" s="4">
+        <v>87.13</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <v>309.88200000000001</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>323.05799999999999</v>
-      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="T5" s="4">
+        <v>309.88200000000001</v>
+      </c>
+      <c r="U5" s="4">
+        <v>323.05799999999999</v>
+      </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -1000,8 +1084,12 @@
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1011,27 +1099,35 @@
         <v>505.827</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4">
+        <v>492.01100000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>496.23</v>
+      </c>
       <c r="I6" s="4">
         <v>529.654</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4">
+        <v>493.36</v>
+      </c>
+      <c r="L6" s="4">
+        <v>529.38199999999995</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4">
-        <v>2060.6790000000001</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2087.049</v>
-      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="T6" s="4">
+        <v>2060.6790000000001</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2087.049</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
@@ -1067,8 +1163,12 @@
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1078,27 +1178,35 @@
         <v>148.71299999999999</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>139.191</v>
+      </c>
+      <c r="H7" s="4">
+        <v>110.66800000000001</v>
+      </c>
       <c r="I7" s="4">
         <v>140.54</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="4">
+        <v>129.541</v>
+      </c>
+      <c r="L7" s="4">
+        <v>128.87700000000001</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4">
-        <v>546.79300000000001</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>520.529</v>
-      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="T7" s="4">
+        <v>546.79300000000001</v>
+      </c>
+      <c r="U7" s="4">
+        <v>520.529</v>
+      </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
@@ -1134,8 +1242,12 @@
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1145,27 +1257,35 @@
         <v>444.53899999999999</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4">
+        <v>409.49400000000003</v>
+      </c>
+      <c r="H8" s="4">
+        <v>429.245</v>
+      </c>
       <c r="I8" s="4">
         <v>464.10700000000003</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="4">
+        <v>420.24599999999998</v>
+      </c>
+      <c r="L8" s="4">
+        <v>461.279</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4">
-        <v>1754.1</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>1806</v>
-      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="T8" s="4">
+        <v>1754.1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>1806</v>
+      </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -1201,8 +1321,12 @@
       <c r="BB8" s="4"/>
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1212,27 +1336,35 @@
         <v>208.02699999999999</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4">
+        <v>219.44300000000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>175.29900000000001</v>
+      </c>
       <c r="I9" s="4">
         <v>202.34299999999999</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4">
+        <v>199.9</v>
+      </c>
+      <c r="L9" s="4">
+        <v>165.62700000000001</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4">
-        <v>842.5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>790.6</v>
-      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="T9" s="4">
+        <v>842.5</v>
+      </c>
+      <c r="U9" s="4">
+        <v>790.6</v>
+      </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -1278,36 +1410,48 @@
       <c r="BL9" s="4"/>
       <c r="BM9" s="4"/>
       <c r="BN9" s="4"/>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>654.54</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
-        <v>670.19399999999996</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6">
-        <v>2631.444</v>
-      </c>
-      <c r="P10" s="6">
-        <v>2607.4720000000002</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>2607.578</v>
-      </c>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="BR9" s="4"/>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>26.672000000000001</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1357,40 +1501,52 @@
       <c r="BL10" s="4"/>
       <c r="BM10" s="4"/>
       <c r="BN10" s="4"/>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>383.07499999999999</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>370.68400000000003</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4">
-        <v>1497.076</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1519.635</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>1446.008</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="4"/>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>654.54</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>631.202</v>
+      </c>
+      <c r="H11" s="6">
+        <v>606.89800000000002</v>
+      </c>
+      <c r="I11" s="6">
+        <v>670.19399999999996</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
+        <v>622.90099999999995</v>
+      </c>
+      <c r="L11" s="6">
+        <v>658.25900000000001</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6">
+        <v>2631.444</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2607.4720000000002</v>
+      </c>
+      <c r="U11" s="6">
+        <v>2607.578</v>
+      </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -1436,72 +1592,52 @@
       <c r="BL11" s="4"/>
       <c r="BM11" s="4"/>
       <c r="BN11" s="4"/>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="BR11" s="4"/>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:H12" si="0">+C10-C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>271.46499999999997</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>383.07499999999999</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>346.05799999999999</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>335.53800000000001</v>
       </c>
       <c r="I12" s="4">
-        <f>+I10-I11</f>
-        <v>299.50999999999993</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" ref="J12" si="1">+J10-J11</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4"/>
+        <v>370.68400000000003</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>327.26499999999999</v>
+      </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12:P12" si="2">+L10-L11</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="2"/>
-        <v>1134.3679999999999</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="2"/>
-        <v>1087.8370000000002</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>+Q10-Q11</f>
-        <v>1161.57</v>
-      </c>
+        <v>353.42200000000003</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="S12" s="4">
+        <v>1497.076</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1519.635</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1446.008</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -1547,40 +1683,88 @@
       <c r="BL12" s="4"/>
       <c r="BM12" s="4"/>
       <c r="BN12" s="4"/>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO12" s="4"/>
+      <c r="BP12" s="4"/>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:H13" si="0">+C11-C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E13" s="4">
-        <v>185.983</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <f t="shared" si="0"/>
+        <v>271.46499999999997</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>285.14400000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>271.36</v>
+      </c>
       <c r="I13" s="4">
-        <v>201.18899999999999</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4">
-        <v>777.70299999999997</v>
-      </c>
+        <f>+I11-I12</f>
+        <v>299.50999999999993</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" ref="J13:N13" si="1">+J11-J12</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>295.63599999999997</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>304.83699999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4">
-        <v>768.56799999999998</v>
+        <f t="shared" ref="P13:T13" si="2">+P11-P12</f>
+        <v>0</v>
       </c>
       <c r="Q13" s="4">
-        <v>819.28099999999995</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="2"/>
+        <v>1134.3679999999999</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="2"/>
+        <v>1087.8370000000002</v>
+      </c>
+      <c r="U13" s="4">
+        <f>+U11-U12</f>
+        <v>1161.57</v>
+      </c>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -1626,72 +1810,52 @@
       <c r="BL13" s="4"/>
       <c r="BM13" s="4"/>
       <c r="BN13" s="4"/>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" ref="C14:H14" si="3">+C12-C13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4">
-        <f t="shared" si="3"/>
-        <v>85.481999999999971</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>185.983</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>200.714</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>196.11699999999999</v>
       </c>
       <c r="I14" s="4">
-        <f>+I12-I13</f>
-        <v>98.320999999999941</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" ref="J14" si="4">+J12-J13</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4"/>
+        <v>201.18899999999999</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>222.33699999999999</v>
+      </c>
       <c r="L14" s="4">
-        <f t="shared" ref="L14:P14" si="5">+L12-L13</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="5"/>
-        <v>356.66499999999996</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="5"/>
-        <v>319.26900000000023</v>
-      </c>
-      <c r="Q14" s="4">
-        <f>+Q12-Q13</f>
-        <v>342.28899999999999</v>
-      </c>
+        <v>226.3</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="S14" s="4">
+        <v>777.70299999999997</v>
+      </c>
+      <c r="T14" s="4">
+        <v>768.56799999999998</v>
+      </c>
+      <c r="U14" s="4">
+        <v>819.28099999999995</v>
+      </c>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -1737,40 +1901,88 @@
       <c r="BL14" s="4"/>
       <c r="BM14" s="4"/>
       <c r="BN14" s="4"/>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:H15" si="3">+C13-C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E15" s="4">
-        <v>10.454000000000001</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+        <f t="shared" si="3"/>
+        <v>85.481999999999971</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>84.43</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>75.243000000000023</v>
+      </c>
       <c r="I15" s="4">
-        <v>11.178000000000001</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4">
-        <v>34.918999999999997</v>
-      </c>
+        <f>+I13-I14</f>
+        <v>98.320999999999941</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" ref="J15:N15" si="4">+J13-J14</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="4"/>
+        <v>73.298999999999978</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="4"/>
+        <v>78.536999999999978</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="4"/>
       <c r="P15" s="4">
-        <v>40.408000000000001</v>
+        <f t="shared" ref="P15:T15" si="5">+P13-P14</f>
+        <v>0</v>
       </c>
       <c r="Q15" s="4">
-        <v>40.823999999999998</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="5"/>
+        <v>356.66499999999996</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="5"/>
+        <v>319.26900000000023</v>
+      </c>
+      <c r="U15" s="4">
+        <f>+U13-U14</f>
+        <v>342.28899999999999</v>
+      </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
@@ -1816,40 +2028,52 @@
       <c r="BL15" s="4"/>
       <c r="BM15" s="4"/>
       <c r="BN15" s="4"/>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BO15" s="4"/>
+      <c r="BP15" s="4"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="4"/>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <v>0.96399999999999997</v>
+        <v>10.454000000000001</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4">
+        <v>9.2919999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10.382</v>
+      </c>
       <c r="I16" s="4">
-        <v>2.9649999999999999</v>
+        <v>11.178000000000001</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="4">
+        <v>9.8079999999999998</v>
+      </c>
+      <c r="L16" s="4">
+        <v>13.484999999999999</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="P16" s="4">
-        <v>3.7909999999999999</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>11.148999999999999</v>
-      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="S16" s="4">
+        <v>34.918999999999997</v>
+      </c>
+      <c r="T16" s="4">
+        <v>40.408000000000001</v>
+      </c>
+      <c r="U16" s="4">
+        <v>40.823999999999998</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
@@ -1895,40 +2119,52 @@
       <c r="BL16" s="4"/>
       <c r="BM16" s="4"/>
       <c r="BN16" s="4"/>
-    </row>
-    <row r="17" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+    </row>
+    <row r="17" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <v>-3.7639999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.6160000000000001</v>
+      </c>
       <c r="I17" s="4">
-        <v>-3.335</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="4">
+        <v>3.44</v>
+      </c>
+      <c r="L17" s="4">
+        <v>2.8969999999999998</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4">
-        <v>-3.9620000000000002</v>
-      </c>
-      <c r="P17" s="4">
-        <v>-10.753</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>-11.191000000000001</v>
-      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="S17" s="4">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="U17" s="4">
+        <v>11.148999999999999</v>
+      </c>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -1974,72 +2210,52 @@
       <c r="BL17" s="4"/>
       <c r="BM17" s="4"/>
       <c r="BN17" s="4"/>
-    </row>
-    <row r="18" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+    </row>
+    <row r="18" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" ref="C18:H18" si="6">+C14-C15+SUM(C16:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <f t="shared" si="6"/>
-        <v>72.227999999999966</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+        <v>-3.7639999999999998</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.883</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.0209999999999999</v>
       </c>
       <c r="I18" s="4">
-        <f>+I14-I15+SUM(I16:I17)</f>
-        <v>86.772999999999939</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" ref="J18:Q18" si="7">+J14-J15+SUM(J16:J17)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="4"/>
+        <v>-3.335</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4">
+        <v>-11</v>
+      </c>
       <c r="L18" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="7"/>
-        <v>319.13599999999997</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="7"/>
-        <v>271.89900000000023</v>
-      </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="7"/>
-        <v>301.423</v>
-      </c>
+        <v>29.760999999999999</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="S18" s="4">
+        <v>-3.9620000000000002</v>
+      </c>
+      <c r="T18" s="4">
+        <v>-10.753</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-11.191000000000001</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -2085,40 +2301,88 @@
       <c r="BL18" s="4"/>
       <c r="BM18" s="4"/>
       <c r="BN18" s="4"/>
-    </row>
-    <row r="19" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+    </row>
+    <row r="19" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:H19" si="6">+C15-C16+SUM(C17:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E19" s="4">
-        <v>12.696999999999999</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+        <f t="shared" si="6"/>
+        <v>72.227999999999966</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="6"/>
+        <v>74.680000000000007</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="6"/>
+        <v>64.456000000000017</v>
+      </c>
       <c r="I19" s="4">
-        <v>16.225000000000001</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
-        <v>73.643000000000001</v>
-      </c>
+        <f>+I15-I16+SUM(I17:I18)</f>
+        <v>86.772999999999939</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" ref="J19:U19" si="7">+J15-J16+SUM(J17:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="7"/>
+        <v>55.930999999999976</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="7"/>
+        <v>97.70999999999998</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="4"/>
       <c r="P19" s="4">
-        <v>40.905000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <v>55.621000000000002</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="7"/>
+        <v>319.13599999999997</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="7"/>
+        <v>271.89900000000023</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="7"/>
+        <v>301.423</v>
+      </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
@@ -2164,72 +2428,53 @@
       <c r="BL19" s="4"/>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4"/>
-    </row>
-    <row r="20" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO19" s="4"/>
+      <c r="BP19" s="4"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="4"/>
+    </row>
+    <row r="20" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" ref="C20:H20" si="8">+C18-C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <f t="shared" si="8"/>
-        <v>59.530999999999963</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>12.696999999999999</v>
+      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15.173</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12.686999999999999</v>
       </c>
       <c r="I20" s="4">
-        <f>+I18-I19</f>
-        <v>70.547999999999945</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" ref="J20" si="9">+J18-J19</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4">
-        <f t="shared" ref="L20:N20" si="10">+L18-L19</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <f>+O18-O19</f>
-        <v>245.49299999999997</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" ref="P20:Q20" si="11">+P18-P19</f>
-        <v>230.99400000000023</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="11"/>
-        <v>245.80199999999999</v>
-      </c>
+        <v>16.225000000000001</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
+        <v>13.048999999999999</v>
+      </c>
+      <c r="L20" s="11">
+        <f>24.105-0.264</f>
+        <v>23.841000000000001</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="S20" s="4">
+        <v>73.643000000000001</v>
+      </c>
+      <c r="T20" s="4">
+        <v>40.905000000000001</v>
+      </c>
+      <c r="U20" s="4">
+        <v>55.621000000000002</v>
+      </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -2275,27 +2520,88 @@
       <c r="BL20" s="4"/>
       <c r="BM20" s="4"/>
       <c r="BN20" s="4"/>
-    </row>
-    <row r="21" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="BO20" s="4"/>
+      <c r="BP20" s="4"/>
+      <c r="BQ20" s="4"/>
+      <c r="BR20" s="4"/>
+    </row>
+    <row r="21" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:H21" si="8">+C19-C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="8"/>
+        <v>59.530999999999963</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="8"/>
+        <v>59.507000000000005</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="8"/>
+        <v>51.76900000000002</v>
+      </c>
+      <c r="I21" s="4">
+        <f>+I19-I20</f>
+        <v>70.547999999999945</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" ref="J21:N21" si="9">+J19-J20</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="9"/>
+        <v>42.881999999999977</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="9"/>
+        <v>73.868999999999971</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="P21" s="4">
+        <f t="shared" ref="P21:R21" si="10">+P19-P20</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <f>+S19-S20</f>
+        <v>245.49299999999997</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" ref="T21:U21" si="11">+T19-T20</f>
+        <v>230.99400000000023</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="11"/>
+        <v>245.80199999999999</v>
+      </c>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
@@ -2341,68 +2647,27 @@
       <c r="BL21" s="4"/>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4"/>
-    </row>
-    <row r="22" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="7" t="e">
-        <f t="shared" ref="C22:H22" si="12">+C20/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" si="12"/>
-        <v>1.0601948317928436</v>
-      </c>
-      <c r="F22" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="7">
-        <f>+I20/I23</f>
-        <v>1.2729470778224852</v>
-      </c>
-      <c r="J22" s="7" t="e">
-        <f t="shared" ref="J22" si="13">+J20/J23</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="BO21" s="4"/>
+      <c r="BP21" s="4"/>
+      <c r="BQ21" s="4"/>
+      <c r="BR21" s="4"/>
+    </row>
+    <row r="22" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4" t="e">
-        <f t="shared" ref="L22:P22" si="14">+L20/L23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="14"/>
-        <v>4.4039358495981622</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="14"/>
-        <v>4.1277675524025703</v>
-      </c>
-      <c r="Q22" s="4">
-        <f>+Q20/Q23</f>
-        <v>4.4249581450611171</v>
-      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -2452,40 +2717,88 @@
       <c r="BL22" s="4"/>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4"/>
-    </row>
-    <row r="23" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO22" s="4"/>
+      <c r="BP22" s="4"/>
+      <c r="BQ22" s="4"/>
+      <c r="BR22" s="4"/>
+    </row>
+    <row r="23" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
-        <v>56.151000000000003</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
-        <v>55.420999999999999</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4">
-        <v>55.744</v>
-      </c>
-      <c r="P23" s="4">
-        <v>55.960999999999999</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>55.548999999999999</v>
-      </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="e">
+        <f t="shared" ref="C23:H23" si="12">+C21/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0601948317928436</v>
+      </c>
+      <c r="F23" s="7" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0676774019915674</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="12"/>
+        <v>0.92759362121483635</v>
+      </c>
+      <c r="I23" s="7">
+        <f>+I21/I24</f>
+        <v>1.2729470778224852</v>
+      </c>
+      <c r="J23" s="7" t="e">
+        <f t="shared" ref="J23:N23" si="13">+J21/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="13"/>
+        <v>0.77467256797037265</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="13"/>
+        <v>1.3295356371490274</v>
+      </c>
+      <c r="M23" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="e">
+        <f t="shared" ref="P23:T23" si="14">+P21/P24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="14"/>
+        <v>4.4039358495981622</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="14"/>
+        <v>4.1277675524025703</v>
+      </c>
+      <c r="U23" s="4">
+        <f>+U21/U24</f>
+        <v>4.4249581450611171</v>
+      </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2531,27 +2844,52 @@
       <c r="BL23" s="4"/>
       <c r="BM23" s="4"/>
       <c r="BN23" s="4"/>
-    </row>
-    <row r="24" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+    </row>
+    <row r="24" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>56.151000000000003</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="4">
+        <v>55.734999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>55.81</v>
+      </c>
+      <c r="I24" s="4">
+        <v>55.420999999999999</v>
+      </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="K24" s="4">
+        <v>55.354999999999997</v>
+      </c>
+      <c r="L24" s="4">
+        <v>55.56</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="S24" s="4">
+        <v>55.744</v>
+      </c>
+      <c r="T24" s="4">
+        <v>55.960999999999999</v>
+      </c>
+      <c r="U24" s="4">
+        <v>55.548999999999999</v>
+      </c>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
@@ -2597,31 +2935,20 @@
       <c r="BL24" s="4"/>
       <c r="BM24" s="4"/>
       <c r="BN24" s="4"/>
-    </row>
-    <row r="25" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="BO24" s="4"/>
+      <c r="BP24" s="4"/>
+      <c r="BQ24" s="4"/>
+      <c r="BR24" s="4"/>
+    </row>
+    <row r="25" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="8" t="e">
-        <f t="shared" ref="G25:J29" si="15">+G6/C6-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="8">
-        <f>+I6/E6-1</f>
-        <v>4.7105037888448109E-2</v>
-      </c>
-      <c r="J25" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -2678,35 +3005,51 @@
       <c r="BL25" s="4"/>
       <c r="BM25" s="4"/>
       <c r="BN25" s="4"/>
-    </row>
-    <row r="26" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO25" s="4"/>
+      <c r="BP25" s="4"/>
+      <c r="BQ25" s="4"/>
+      <c r="BR25" s="4"/>
+    </row>
+    <row r="26" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="8" t="e">
+        <f>+G6/C6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="8" t="e">
+        <f>+H6/D6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="8">
+        <f>+I6/E6-1</f>
+        <v>4.7105037888448109E-2</v>
+      </c>
+      <c r="J26" s="8" t="e">
+        <f>+J6/F6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" ref="K26:N26" si="15">+K6/G6-1</f>
+        <v>2.7418086180999168E-3</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="15"/>
+        <v>6.6807730286359002E-2</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="N26" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" ref="I26:I29" si="16">+I7/E7-1</f>
-        <v>-5.4958208092096839E-2</v>
-      </c>
-      <c r="J26" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2759,35 +3102,51 @@
       <c r="BL26" s="4"/>
       <c r="BM26" s="4"/>
       <c r="BN26" s="4"/>
-    </row>
-    <row r="27" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO26" s="4"/>
+      <c r="BP26" s="4"/>
+      <c r="BQ26" s="4"/>
+      <c r="BR26" s="4"/>
+    </row>
+    <row r="27" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+G7/C7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+H7/D7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="8">
+        <f>+I7/E7-1</f>
+        <v>-5.4958208092096839E-2</v>
+      </c>
+      <c r="J27" s="8" t="e">
+        <f>+J7/F7-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" ref="K27:N27" si="16">+K7/G7-1</f>
+        <v>-6.9329195134742894E-2</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" si="16"/>
-        <v>4.4018635035396381E-2</v>
-      </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" si="15"/>
+        <v>0.16453717425091274</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N27" s="8" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2840,35 +3199,51 @@
       <c r="BL27" s="4"/>
       <c r="BM27" s="4"/>
       <c r="BN27" s="4"/>
-    </row>
-    <row r="28" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO27" s="4"/>
+      <c r="BP27" s="4"/>
+      <c r="BQ27" s="4"/>
+      <c r="BR27" s="4"/>
+    </row>
+    <row r="28" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+G8/C8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+H8/D8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="16"/>
-        <v>-2.7323376292500479E-2</v>
+        <f>+I8/E8-1</f>
+        <v>4.4018635035396381E-2</v>
       </c>
       <c r="J28" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+J8/F8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="K28" s="8">
+        <f t="shared" ref="K28:N28" si="17">+K8/G8-1</f>
+        <v>2.6256794971354802E-2</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="17"/>
+        <v>7.4628708546401246E-2</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N28" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2921,35 +3296,51 @@
       <c r="BL28" s="4"/>
       <c r="BM28" s="4"/>
       <c r="BN28" s="4"/>
-    </row>
-    <row r="29" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO28" s="4"/>
+      <c r="BP28" s="4"/>
+      <c r="BQ28" s="4"/>
+      <c r="BR28" s="4"/>
+    </row>
+    <row r="29" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+G9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+H9/D9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="16"/>
-        <v>2.39160326336052E-2</v>
+        <f>+I9/E9-1</f>
+        <v>-2.7323376292500479E-2</v>
       </c>
       <c r="J29" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+J9/F9-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="K29" s="8">
+        <f t="shared" ref="K29:N31" si="18">+K9/G9-1</f>
+        <v>-8.9057295060676389E-2</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="18"/>
+        <v>-5.5174302192254387E-2</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="N29" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -3002,47 +3393,51 @@
       <c r="BL29" s="4"/>
       <c r="BM29" s="4"/>
       <c r="BN29" s="4"/>
-    </row>
-    <row r="30" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="8" t="e">
-        <f t="shared" ref="C30:H30" si="17">+C12/C10</f>
+      <c r="BO29" s="4"/>
+      <c r="BP29" s="4"/>
+      <c r="BQ29" s="4"/>
+      <c r="BR29" s="4"/>
+    </row>
+    <row r="30" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="14" t="e">
+        <f t="shared" ref="G30:J31" si="19">+G10/C10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="8" t="e">
-        <f t="shared" si="17"/>
+      <c r="H30" s="14" t="e">
+        <f t="shared" ref="H30" si="20">+H10/D10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="8">
-        <f t="shared" si="17"/>
-        <v>0.41474165062486629</v>
-      </c>
-      <c r="F30" s="8" t="e">
-        <f t="shared" si="17"/>
+      <c r="I30" s="14" t="e">
+        <f t="shared" ref="I30" si="21">+I10/E10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="17"/>
+      <c r="J30" s="14" t="e">
+        <f t="shared" ref="J30" si="22">+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="17"/>
+      <c r="K30" s="14" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="8">
-        <f>+I12/I10</f>
-        <v>0.44690044972052861</v>
-      </c>
-      <c r="J30" s="8" t="e">
-        <f>+J12/J10</f>
+      <c r="L30" s="14" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="14" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="14" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -3095,47 +3490,51 @@
       <c r="BL30" s="4"/>
       <c r="BM30" s="4"/>
       <c r="BN30" s="4"/>
-    </row>
-    <row r="31" spans="2:66" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="8" t="e">
-        <f t="shared" ref="C31:H31" si="18">+C14/C10</f>
+      <c r="BO30" s="4"/>
+      <c r="BP30" s="4"/>
+      <c r="BQ30" s="4"/>
+      <c r="BR30" s="4"/>
+    </row>
+    <row r="31" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="13" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="8" t="e">
+      <c r="H31" s="13" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" ref="I31" si="23">+I11/E11-1</f>
+        <v>2.39160326336052E-2</v>
+      </c>
+      <c r="J31" s="13" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="18"/>
+        <v>-1.3151099014261702E-2</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="18"/>
+        <v>8.4628718499649036E-2</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="13" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" si="18"/>
-        <v>0.13059858832156931</v>
-      </c>
-      <c r="F31" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="8">
-        <f>+I14/I10</f>
-        <v>0.14670528235108035</v>
-      </c>
-      <c r="J31" s="8" t="e">
-        <f>+J14/J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -3188,47 +3587,63 @@
       <c r="BL31" s="4"/>
       <c r="BM31" s="4"/>
       <c r="BN31" s="4"/>
-    </row>
-    <row r="32" spans="2:66" x14ac:dyDescent="0.2">
+      <c r="BO31" s="4"/>
+      <c r="BP31" s="4"/>
+      <c r="BQ31" s="4"/>
+      <c r="BR31" s="4"/>
+    </row>
+    <row r="32" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="8" t="e">
-        <f t="shared" ref="C32:H32" si="19">+C19/C18</f>
+        <f t="shared" ref="C32:H32" si="24">+C13/C11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="19"/>
-        <v>0.17579055214044423</v>
+        <f t="shared" si="24"/>
+        <v>0.41474165062486629</v>
       </c>
       <c r="F32" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="19"/>
+      <c r="G32" s="8">
+        <f t="shared" si="24"/>
+        <v>0.45174761803669827</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="24"/>
+        <v>0.44712620572155454</v>
+      </c>
+      <c r="I32" s="8">
+        <f>+I13/I11</f>
+        <v>0.44690044972052861</v>
+      </c>
+      <c r="J32" s="8" t="e">
+        <f>+J13/J11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="8" t="e">
-        <f t="shared" si="19"/>
+      <c r="K32" s="8">
+        <f t="shared" ref="K32:N32" si="25">+K13/K11</f>
+        <v>0.47461153538042161</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="25"/>
+        <v>0.46309583309912966</v>
+      </c>
+      <c r="M32" s="8" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="8">
-        <f>+I19/I18</f>
-        <v>0.18698212577645135</v>
-      </c>
-      <c r="J32" s="8" t="e">
-        <f>+J19/J18</f>
+      <c r="N32" s="8" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -3281,20 +3696,63 @@
       <c r="BL32" s="4"/>
       <c r="BM32" s="4"/>
       <c r="BN32" s="4"/>
-    </row>
-    <row r="33" spans="3:66" x14ac:dyDescent="0.2">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="4"/>
+      <c r="BQ32" s="4"/>
+      <c r="BR32" s="4"/>
+    </row>
+    <row r="33" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="8" t="e">
+        <f t="shared" ref="C33:H33" si="26">+C15/C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="26"/>
+        <v>0.13059858832156931</v>
+      </c>
+      <c r="F33" s="8" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="26"/>
+        <v>0.13376066615758506</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="26"/>
+        <v>0.1239796473212962</v>
+      </c>
+      <c r="I33" s="8">
+        <f>+I15/I11</f>
+        <v>0.14670528235108035</v>
+      </c>
+      <c r="J33" s="8" t="e">
+        <f>+J15/J11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" ref="K33:N33" si="27">+K15/K11</f>
+        <v>0.11767359500145286</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="27"/>
+        <v>0.11931018033934968</v>
+      </c>
+      <c r="M33" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -3347,20 +3805,63 @@
       <c r="BL33" s="4"/>
       <c r="BM33" s="4"/>
       <c r="BN33" s="4"/>
-    </row>
-    <row r="34" spans="3:66" x14ac:dyDescent="0.2">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="BO33" s="4"/>
+      <c r="BP33" s="4"/>
+      <c r="BQ33" s="4"/>
+      <c r="BR33" s="4"/>
+    </row>
+    <row r="34" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="8" t="e">
+        <f t="shared" ref="C34:H34" si="28">+C20/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="28"/>
+        <v>0.17579055214044423</v>
+      </c>
+      <c r="F34" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="28"/>
+        <v>0.20317354043920727</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="28"/>
+        <v>0.19683194737495338</v>
+      </c>
+      <c r="I34" s="8">
+        <f>+I20/I19</f>
+        <v>0.18698212577645135</v>
+      </c>
+      <c r="J34" s="8" t="e">
+        <f>+J20/J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" ref="K34:N34" si="29">+K20/K19</f>
+        <v>0.2333053226296688</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="29"/>
+        <v>0.24399754375191901</v>
+      </c>
+      <c r="M34" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -3413,8 +3914,12 @@
       <c r="BL34" s="4"/>
       <c r="BM34" s="4"/>
       <c r="BN34" s="4"/>
-    </row>
-    <row r="35" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO34" s="4"/>
+      <c r="BP34" s="4"/>
+      <c r="BQ34" s="4"/>
+      <c r="BR34" s="4"/>
+    </row>
+    <row r="35" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3479,8 +3984,12 @@
       <c r="BL35" s="4"/>
       <c r="BM35" s="4"/>
       <c r="BN35" s="4"/>
-    </row>
-    <row r="36" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="4"/>
+      <c r="BR35" s="4"/>
+    </row>
+    <row r="36" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3545,8 +4054,12 @@
       <c r="BL36" s="4"/>
       <c r="BM36" s="4"/>
       <c r="BN36" s="4"/>
-    </row>
-    <row r="37" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="4"/>
+      <c r="BR36" s="4"/>
+    </row>
+    <row r="37" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3611,8 +4124,12 @@
       <c r="BL37" s="4"/>
       <c r="BM37" s="4"/>
       <c r="BN37" s="4"/>
-    </row>
-    <row r="38" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="4"/>
+      <c r="BR37" s="4"/>
+    </row>
+    <row r="38" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3677,8 +4194,12 @@
       <c r="BL38" s="4"/>
       <c r="BM38" s="4"/>
       <c r="BN38" s="4"/>
-    </row>
-    <row r="39" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO38" s="4"/>
+      <c r="BP38" s="4"/>
+      <c r="BQ38" s="4"/>
+      <c r="BR38" s="4"/>
+    </row>
+    <row r="39" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -3743,8 +4264,12 @@
       <c r="BL39" s="4"/>
       <c r="BM39" s="4"/>
       <c r="BN39" s="4"/>
-    </row>
-    <row r="40" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="4"/>
+      <c r="BR39" s="4"/>
+    </row>
+    <row r="40" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3809,8 +4334,12 @@
       <c r="BL40" s="4"/>
       <c r="BM40" s="4"/>
       <c r="BN40" s="4"/>
-    </row>
-    <row r="41" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO40" s="4"/>
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="4"/>
+      <c r="BR40" s="4"/>
+    </row>
+    <row r="41" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3875,8 +4404,12 @@
       <c r="BL41" s="4"/>
       <c r="BM41" s="4"/>
       <c r="BN41" s="4"/>
-    </row>
-    <row r="42" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO41" s="4"/>
+      <c r="BP41" s="4"/>
+      <c r="BQ41" s="4"/>
+      <c r="BR41" s="4"/>
+    </row>
+    <row r="42" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3941,8 +4474,12 @@
       <c r="BL42" s="4"/>
       <c r="BM42" s="4"/>
       <c r="BN42" s="4"/>
-    </row>
-    <row r="43" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO42" s="4"/>
+      <c r="BP42" s="4"/>
+      <c r="BQ42" s="4"/>
+      <c r="BR42" s="4"/>
+    </row>
+    <row r="43" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4007,8 +4544,12 @@
       <c r="BL43" s="4"/>
       <c r="BM43" s="4"/>
       <c r="BN43" s="4"/>
-    </row>
-    <row r="44" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO43" s="4"/>
+      <c r="BP43" s="4"/>
+      <c r="BQ43" s="4"/>
+      <c r="BR43" s="4"/>
+    </row>
+    <row r="44" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4073,8 +4614,12 @@
       <c r="BL44" s="4"/>
       <c r="BM44" s="4"/>
       <c r="BN44" s="4"/>
-    </row>
-    <row r="45" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO44" s="4"/>
+      <c r="BP44" s="4"/>
+      <c r="BQ44" s="4"/>
+      <c r="BR44" s="4"/>
+    </row>
+    <row r="45" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4139,8 +4684,12 @@
       <c r="BL45" s="4"/>
       <c r="BM45" s="4"/>
       <c r="BN45" s="4"/>
-    </row>
-    <row r="46" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO45" s="4"/>
+      <c r="BP45" s="4"/>
+      <c r="BQ45" s="4"/>
+      <c r="BR45" s="4"/>
+    </row>
+    <row r="46" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4205,8 +4754,12 @@
       <c r="BL46" s="4"/>
       <c r="BM46" s="4"/>
       <c r="BN46" s="4"/>
-    </row>
-    <row r="47" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO46" s="4"/>
+      <c r="BP46" s="4"/>
+      <c r="BQ46" s="4"/>
+      <c r="BR46" s="4"/>
+    </row>
+    <row r="47" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4271,8 +4824,12 @@
       <c r="BL47" s="4"/>
       <c r="BM47" s="4"/>
       <c r="BN47" s="4"/>
-    </row>
-    <row r="48" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO47" s="4"/>
+      <c r="BP47" s="4"/>
+      <c r="BQ47" s="4"/>
+      <c r="BR47" s="4"/>
+    </row>
+    <row r="48" spans="2:70" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4337,8 +4894,12 @@
       <c r="BL48" s="4"/>
       <c r="BM48" s="4"/>
       <c r="BN48" s="4"/>
-    </row>
-    <row r="49" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO48" s="4"/>
+      <c r="BP48" s="4"/>
+      <c r="BQ48" s="4"/>
+      <c r="BR48" s="4"/>
+    </row>
+    <row r="49" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4403,8 +4964,12 @@
       <c r="BL49" s="4"/>
       <c r="BM49" s="4"/>
       <c r="BN49" s="4"/>
-    </row>
-    <row r="50" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO49" s="4"/>
+      <c r="BP49" s="4"/>
+      <c r="BQ49" s="4"/>
+      <c r="BR49" s="4"/>
+    </row>
+    <row r="50" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4469,8 +5034,12 @@
       <c r="BL50" s="4"/>
       <c r="BM50" s="4"/>
       <c r="BN50" s="4"/>
-    </row>
-    <row r="51" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO50" s="4"/>
+      <c r="BP50" s="4"/>
+      <c r="BQ50" s="4"/>
+      <c r="BR50" s="4"/>
+    </row>
+    <row r="51" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4535,8 +5104,12 @@
       <c r="BL51" s="4"/>
       <c r="BM51" s="4"/>
       <c r="BN51" s="4"/>
-    </row>
-    <row r="52" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO51" s="4"/>
+      <c r="BP51" s="4"/>
+      <c r="BQ51" s="4"/>
+      <c r="BR51" s="4"/>
+    </row>
+    <row r="52" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4601,8 +5174,12 @@
       <c r="BL52" s="4"/>
       <c r="BM52" s="4"/>
       <c r="BN52" s="4"/>
-    </row>
-    <row r="53" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO52" s="4"/>
+      <c r="BP52" s="4"/>
+      <c r="BQ52" s="4"/>
+      <c r="BR52" s="4"/>
+    </row>
+    <row r="53" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4667,8 +5244,12 @@
       <c r="BL53" s="4"/>
       <c r="BM53" s="4"/>
       <c r="BN53" s="4"/>
-    </row>
-    <row r="54" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO53" s="4"/>
+      <c r="BP53" s="4"/>
+      <c r="BQ53" s="4"/>
+      <c r="BR53" s="4"/>
+    </row>
+    <row r="54" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4733,8 +5314,12 @@
       <c r="BL54" s="4"/>
       <c r="BM54" s="4"/>
       <c r="BN54" s="4"/>
-    </row>
-    <row r="55" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO54" s="4"/>
+      <c r="BP54" s="4"/>
+      <c r="BQ54" s="4"/>
+      <c r="BR54" s="4"/>
+    </row>
+    <row r="55" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4799,8 +5384,12 @@
       <c r="BL55" s="4"/>
       <c r="BM55" s="4"/>
       <c r="BN55" s="4"/>
-    </row>
-    <row r="56" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO55" s="4"/>
+      <c r="BP55" s="4"/>
+      <c r="BQ55" s="4"/>
+      <c r="BR55" s="4"/>
+    </row>
+    <row r="56" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4865,8 +5454,12 @@
       <c r="BL56" s="4"/>
       <c r="BM56" s="4"/>
       <c r="BN56" s="4"/>
-    </row>
-    <row r="57" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
+    </row>
+    <row r="57" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4931,8 +5524,12 @@
       <c r="BL57" s="4"/>
       <c r="BM57" s="4"/>
       <c r="BN57" s="4"/>
-    </row>
-    <row r="58" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO57" s="4"/>
+      <c r="BP57" s="4"/>
+      <c r="BQ57" s="4"/>
+      <c r="BR57" s="4"/>
+    </row>
+    <row r="58" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4997,8 +5594,12 @@
       <c r="BL58" s="4"/>
       <c r="BM58" s="4"/>
       <c r="BN58" s="4"/>
-    </row>
-    <row r="59" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO58" s="4"/>
+      <c r="BP58" s="4"/>
+      <c r="BQ58" s="4"/>
+      <c r="BR58" s="4"/>
+    </row>
+    <row r="59" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5063,8 +5664,12 @@
       <c r="BL59" s="4"/>
       <c r="BM59" s="4"/>
       <c r="BN59" s="4"/>
-    </row>
-    <row r="60" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO59" s="4"/>
+      <c r="BP59" s="4"/>
+      <c r="BQ59" s="4"/>
+      <c r="BR59" s="4"/>
+    </row>
+    <row r="60" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -5129,8 +5734,12 @@
       <c r="BL60" s="4"/>
       <c r="BM60" s="4"/>
       <c r="BN60" s="4"/>
-    </row>
-    <row r="61" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO60" s="4"/>
+      <c r="BP60" s="4"/>
+      <c r="BQ60" s="4"/>
+      <c r="BR60" s="4"/>
+    </row>
+    <row r="61" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5195,8 +5804,12 @@
       <c r="BL61" s="4"/>
       <c r="BM61" s="4"/>
       <c r="BN61" s="4"/>
-    </row>
-    <row r="62" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO61" s="4"/>
+      <c r="BP61" s="4"/>
+      <c r="BQ61" s="4"/>
+      <c r="BR61" s="4"/>
+    </row>
+    <row r="62" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5261,8 +5874,12 @@
       <c r="BL62" s="4"/>
       <c r="BM62" s="4"/>
       <c r="BN62" s="4"/>
-    </row>
-    <row r="63" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO62" s="4"/>
+      <c r="BP62" s="4"/>
+      <c r="BQ62" s="4"/>
+      <c r="BR62" s="4"/>
+    </row>
+    <row r="63" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5327,8 +5944,12 @@
       <c r="BL63" s="4"/>
       <c r="BM63" s="4"/>
       <c r="BN63" s="4"/>
-    </row>
-    <row r="64" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO63" s="4"/>
+      <c r="BP63" s="4"/>
+      <c r="BQ63" s="4"/>
+      <c r="BR63" s="4"/>
+    </row>
+    <row r="64" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -5393,8 +6014,12 @@
       <c r="BL64" s="4"/>
       <c r="BM64" s="4"/>
       <c r="BN64" s="4"/>
-    </row>
-    <row r="65" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO64" s="4"/>
+      <c r="BP64" s="4"/>
+      <c r="BQ64" s="4"/>
+      <c r="BR64" s="4"/>
+    </row>
+    <row r="65" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5459,8 +6084,12 @@
       <c r="BL65" s="4"/>
       <c r="BM65" s="4"/>
       <c r="BN65" s="4"/>
-    </row>
-    <row r="66" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO65" s="4"/>
+      <c r="BP65" s="4"/>
+      <c r="BQ65" s="4"/>
+      <c r="BR65" s="4"/>
+    </row>
+    <row r="66" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5525,8 +6154,12 @@
       <c r="BL66" s="4"/>
       <c r="BM66" s="4"/>
       <c r="BN66" s="4"/>
-    </row>
-    <row r="67" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO66" s="4"/>
+      <c r="BP66" s="4"/>
+      <c r="BQ66" s="4"/>
+      <c r="BR66" s="4"/>
+    </row>
+    <row r="67" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5591,8 +6224,12 @@
       <c r="BL67" s="4"/>
       <c r="BM67" s="4"/>
       <c r="BN67" s="4"/>
-    </row>
-    <row r="68" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO67" s="4"/>
+      <c r="BP67" s="4"/>
+      <c r="BQ67" s="4"/>
+      <c r="BR67" s="4"/>
+    </row>
+    <row r="68" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5657,8 +6294,12 @@
       <c r="BL68" s="4"/>
       <c r="BM68" s="4"/>
       <c r="BN68" s="4"/>
-    </row>
-    <row r="69" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO68" s="4"/>
+      <c r="BP68" s="4"/>
+      <c r="BQ68" s="4"/>
+      <c r="BR68" s="4"/>
+    </row>
+    <row r="69" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5723,8 +6364,12 @@
       <c r="BL69" s="4"/>
       <c r="BM69" s="4"/>
       <c r="BN69" s="4"/>
-    </row>
-    <row r="70" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO69" s="4"/>
+      <c r="BP69" s="4"/>
+      <c r="BQ69" s="4"/>
+      <c r="BR69" s="4"/>
+    </row>
+    <row r="70" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5789,8 +6434,12 @@
       <c r="BL70" s="4"/>
       <c r="BM70" s="4"/>
       <c r="BN70" s="4"/>
-    </row>
-    <row r="71" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO70" s="4"/>
+      <c r="BP70" s="4"/>
+      <c r="BQ70" s="4"/>
+      <c r="BR70" s="4"/>
+    </row>
+    <row r="71" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -5855,8 +6504,12 @@
       <c r="BL71" s="4"/>
       <c r="BM71" s="4"/>
       <c r="BN71" s="4"/>
-    </row>
-    <row r="72" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO71" s="4"/>
+      <c r="BP71" s="4"/>
+      <c r="BQ71" s="4"/>
+      <c r="BR71" s="4"/>
+    </row>
+    <row r="72" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -5921,8 +6574,12 @@
       <c r="BL72" s="4"/>
       <c r="BM72" s="4"/>
       <c r="BN72" s="4"/>
-    </row>
-    <row r="73" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO72" s="4"/>
+      <c r="BP72" s="4"/>
+      <c r="BQ72" s="4"/>
+      <c r="BR72" s="4"/>
+    </row>
+    <row r="73" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -5987,8 +6644,12 @@
       <c r="BL73" s="4"/>
       <c r="BM73" s="4"/>
       <c r="BN73" s="4"/>
-    </row>
-    <row r="74" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO73" s="4"/>
+      <c r="BP73" s="4"/>
+      <c r="BQ73" s="4"/>
+      <c r="BR73" s="4"/>
+    </row>
+    <row r="74" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -6053,8 +6714,12 @@
       <c r="BL74" s="4"/>
       <c r="BM74" s="4"/>
       <c r="BN74" s="4"/>
-    </row>
-    <row r="75" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO74" s="4"/>
+      <c r="BP74" s="4"/>
+      <c r="BQ74" s="4"/>
+      <c r="BR74" s="4"/>
+    </row>
+    <row r="75" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -6119,8 +6784,12 @@
       <c r="BL75" s="4"/>
       <c r="BM75" s="4"/>
       <c r="BN75" s="4"/>
-    </row>
-    <row r="76" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO75" s="4"/>
+      <c r="BP75" s="4"/>
+      <c r="BQ75" s="4"/>
+      <c r="BR75" s="4"/>
+    </row>
+    <row r="76" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -6185,8 +6854,12 @@
       <c r="BL76" s="4"/>
       <c r="BM76" s="4"/>
       <c r="BN76" s="4"/>
-    </row>
-    <row r="77" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO76" s="4"/>
+      <c r="BP76" s="4"/>
+      <c r="BQ76" s="4"/>
+      <c r="BR76" s="4"/>
+    </row>
+    <row r="77" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -6251,8 +6924,12 @@
       <c r="BL77" s="4"/>
       <c r="BM77" s="4"/>
       <c r="BN77" s="4"/>
-    </row>
-    <row r="78" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO77" s="4"/>
+      <c r="BP77" s="4"/>
+      <c r="BQ77" s="4"/>
+      <c r="BR77" s="4"/>
+    </row>
+    <row r="78" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -6317,8 +6994,12 @@
       <c r="BL78" s="4"/>
       <c r="BM78" s="4"/>
       <c r="BN78" s="4"/>
-    </row>
-    <row r="79" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO78" s="4"/>
+      <c r="BP78" s="4"/>
+      <c r="BQ78" s="4"/>
+      <c r="BR78" s="4"/>
+    </row>
+    <row r="79" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -6383,8 +7064,12 @@
       <c r="BL79" s="4"/>
       <c r="BM79" s="4"/>
       <c r="BN79" s="4"/>
-    </row>
-    <row r="80" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO79" s="4"/>
+      <c r="BP79" s="4"/>
+      <c r="BQ79" s="4"/>
+      <c r="BR79" s="4"/>
+    </row>
+    <row r="80" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -6449,8 +7134,12 @@
       <c r="BL80" s="4"/>
       <c r="BM80" s="4"/>
       <c r="BN80" s="4"/>
-    </row>
-    <row r="81" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO80" s="4"/>
+      <c r="BP80" s="4"/>
+      <c r="BQ80" s="4"/>
+      <c r="BR80" s="4"/>
+    </row>
+    <row r="81" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -6515,8 +7204,12 @@
       <c r="BL81" s="4"/>
       <c r="BM81" s="4"/>
       <c r="BN81" s="4"/>
-    </row>
-    <row r="82" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO81" s="4"/>
+      <c r="BP81" s="4"/>
+      <c r="BQ81" s="4"/>
+      <c r="BR81" s="4"/>
+    </row>
+    <row r="82" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -6581,8 +7274,12 @@
       <c r="BL82" s="4"/>
       <c r="BM82" s="4"/>
       <c r="BN82" s="4"/>
-    </row>
-    <row r="83" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO82" s="4"/>
+      <c r="BP82" s="4"/>
+      <c r="BQ82" s="4"/>
+      <c r="BR82" s="4"/>
+    </row>
+    <row r="83" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -6647,8 +7344,12 @@
       <c r="BL83" s="4"/>
       <c r="BM83" s="4"/>
       <c r="BN83" s="4"/>
-    </row>
-    <row r="84" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO83" s="4"/>
+      <c r="BP83" s="4"/>
+      <c r="BQ83" s="4"/>
+      <c r="BR83" s="4"/>
+    </row>
+    <row r="84" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -6713,8 +7414,12 @@
       <c r="BL84" s="4"/>
       <c r="BM84" s="4"/>
       <c r="BN84" s="4"/>
-    </row>
-    <row r="85" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO84" s="4"/>
+      <c r="BP84" s="4"/>
+      <c r="BQ84" s="4"/>
+      <c r="BR84" s="4"/>
+    </row>
+    <row r="85" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6779,8 +7484,12 @@
       <c r="BL85" s="4"/>
       <c r="BM85" s="4"/>
       <c r="BN85" s="4"/>
-    </row>
-    <row r="86" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO85" s="4"/>
+      <c r="BP85" s="4"/>
+      <c r="BQ85" s="4"/>
+      <c r="BR85" s="4"/>
+    </row>
+    <row r="86" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -6845,8 +7554,12 @@
       <c r="BL86" s="4"/>
       <c r="BM86" s="4"/>
       <c r="BN86" s="4"/>
-    </row>
-    <row r="87" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO86" s="4"/>
+      <c r="BP86" s="4"/>
+      <c r="BQ86" s="4"/>
+      <c r="BR86" s="4"/>
+    </row>
+    <row r="87" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6911,8 +7624,12 @@
       <c r="BL87" s="4"/>
       <c r="BM87" s="4"/>
       <c r="BN87" s="4"/>
-    </row>
-    <row r="88" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO87" s="4"/>
+      <c r="BP87" s="4"/>
+      <c r="BQ87" s="4"/>
+      <c r="BR87" s="4"/>
+    </row>
+    <row r="88" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -6977,8 +7694,12 @@
       <c r="BL88" s="4"/>
       <c r="BM88" s="4"/>
       <c r="BN88" s="4"/>
-    </row>
-    <row r="89" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO88" s="4"/>
+      <c r="BP88" s="4"/>
+      <c r="BQ88" s="4"/>
+      <c r="BR88" s="4"/>
+    </row>
+    <row r="89" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -7043,8 +7764,12 @@
       <c r="BL89" s="4"/>
       <c r="BM89" s="4"/>
       <c r="BN89" s="4"/>
-    </row>
-    <row r="90" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO89" s="4"/>
+      <c r="BP89" s="4"/>
+      <c r="BQ89" s="4"/>
+      <c r="BR89" s="4"/>
+    </row>
+    <row r="90" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -7109,8 +7834,12 @@
       <c r="BL90" s="4"/>
       <c r="BM90" s="4"/>
       <c r="BN90" s="4"/>
-    </row>
-    <row r="91" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO90" s="4"/>
+      <c r="BP90" s="4"/>
+      <c r="BQ90" s="4"/>
+      <c r="BR90" s="4"/>
+    </row>
+    <row r="91" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -7175,8 +7904,12 @@
       <c r="BL91" s="4"/>
       <c r="BM91" s="4"/>
       <c r="BN91" s="4"/>
-    </row>
-    <row r="92" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO91" s="4"/>
+      <c r="BP91" s="4"/>
+      <c r="BQ91" s="4"/>
+      <c r="BR91" s="4"/>
+    </row>
+    <row r="92" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -7241,8 +7974,12 @@
       <c r="BL92" s="4"/>
       <c r="BM92" s="4"/>
       <c r="BN92" s="4"/>
-    </row>
-    <row r="93" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO92" s="4"/>
+      <c r="BP92" s="4"/>
+      <c r="BQ92" s="4"/>
+      <c r="BR92" s="4"/>
+    </row>
+    <row r="93" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -7307,8 +8044,12 @@
       <c r="BL93" s="4"/>
       <c r="BM93" s="4"/>
       <c r="BN93" s="4"/>
-    </row>
-    <row r="94" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO93" s="4"/>
+      <c r="BP93" s="4"/>
+      <c r="BQ93" s="4"/>
+      <c r="BR93" s="4"/>
+    </row>
+    <row r="94" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -7373,8 +8114,12 @@
       <c r="BL94" s="4"/>
       <c r="BM94" s="4"/>
       <c r="BN94" s="4"/>
-    </row>
-    <row r="95" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO94" s="4"/>
+      <c r="BP94" s="4"/>
+      <c r="BQ94" s="4"/>
+      <c r="BR94" s="4"/>
+    </row>
+    <row r="95" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -7439,8 +8184,12 @@
       <c r="BL95" s="4"/>
       <c r="BM95" s="4"/>
       <c r="BN95" s="4"/>
-    </row>
-    <row r="96" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO95" s="4"/>
+      <c r="BP95" s="4"/>
+      <c r="BQ95" s="4"/>
+      <c r="BR95" s="4"/>
+    </row>
+    <row r="96" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -7505,8 +8254,12 @@
       <c r="BL96" s="4"/>
       <c r="BM96" s="4"/>
       <c r="BN96" s="4"/>
-    </row>
-    <row r="97" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO96" s="4"/>
+      <c r="BP96" s="4"/>
+      <c r="BQ96" s="4"/>
+      <c r="BR96" s="4"/>
+    </row>
+    <row r="97" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -7571,8 +8324,12 @@
       <c r="BL97" s="4"/>
       <c r="BM97" s="4"/>
       <c r="BN97" s="4"/>
-    </row>
-    <row r="98" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO97" s="4"/>
+      <c r="BP97" s="4"/>
+      <c r="BQ97" s="4"/>
+      <c r="BR97" s="4"/>
+    </row>
+    <row r="98" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -7637,8 +8394,12 @@
       <c r="BL98" s="4"/>
       <c r="BM98" s="4"/>
       <c r="BN98" s="4"/>
-    </row>
-    <row r="99" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO98" s="4"/>
+      <c r="BP98" s="4"/>
+      <c r="BQ98" s="4"/>
+      <c r="BR98" s="4"/>
+    </row>
+    <row r="99" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -7703,8 +8464,12 @@
       <c r="BL99" s="4"/>
       <c r="BM99" s="4"/>
       <c r="BN99" s="4"/>
-    </row>
-    <row r="100" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO99" s="4"/>
+      <c r="BP99" s="4"/>
+      <c r="BQ99" s="4"/>
+      <c r="BR99" s="4"/>
+    </row>
+    <row r="100" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -7769,8 +8534,12 @@
       <c r="BL100" s="4"/>
       <c r="BM100" s="4"/>
       <c r="BN100" s="4"/>
-    </row>
-    <row r="101" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO100" s="4"/>
+      <c r="BP100" s="4"/>
+      <c r="BQ100" s="4"/>
+      <c r="BR100" s="4"/>
+    </row>
+    <row r="101" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -7835,8 +8604,12 @@
       <c r="BL101" s="4"/>
       <c r="BM101" s="4"/>
       <c r="BN101" s="4"/>
-    </row>
-    <row r="102" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO101" s="4"/>
+      <c r="BP101" s="4"/>
+      <c r="BQ101" s="4"/>
+      <c r="BR101" s="4"/>
+    </row>
+    <row r="102" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -7901,8 +8674,12 @@
       <c r="BL102" s="4"/>
       <c r="BM102" s="4"/>
       <c r="BN102" s="4"/>
-    </row>
-    <row r="103" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO102" s="4"/>
+      <c r="BP102" s="4"/>
+      <c r="BQ102" s="4"/>
+      <c r="BR102" s="4"/>
+    </row>
+    <row r="103" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -7967,8 +8744,12 @@
       <c r="BL103" s="4"/>
       <c r="BM103" s="4"/>
       <c r="BN103" s="4"/>
-    </row>
-    <row r="104" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO103" s="4"/>
+      <c r="BP103" s="4"/>
+      <c r="BQ103" s="4"/>
+      <c r="BR103" s="4"/>
+    </row>
+    <row r="104" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -8033,8 +8814,12 @@
       <c r="BL104" s="4"/>
       <c r="BM104" s="4"/>
       <c r="BN104" s="4"/>
-    </row>
-    <row r="105" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO104" s="4"/>
+      <c r="BP104" s="4"/>
+      <c r="BQ104" s="4"/>
+      <c r="BR104" s="4"/>
+    </row>
+    <row r="105" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -8099,8 +8884,12 @@
       <c r="BL105" s="4"/>
       <c r="BM105" s="4"/>
       <c r="BN105" s="4"/>
-    </row>
-    <row r="106" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO105" s="4"/>
+      <c r="BP105" s="4"/>
+      <c r="BQ105" s="4"/>
+      <c r="BR105" s="4"/>
+    </row>
+    <row r="106" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -8165,8 +8954,12 @@
       <c r="BL106" s="4"/>
       <c r="BM106" s="4"/>
       <c r="BN106" s="4"/>
-    </row>
-    <row r="107" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO106" s="4"/>
+      <c r="BP106" s="4"/>
+      <c r="BQ106" s="4"/>
+      <c r="BR106" s="4"/>
+    </row>
+    <row r="107" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -8231,8 +9024,12 @@
       <c r="BL107" s="4"/>
       <c r="BM107" s="4"/>
       <c r="BN107" s="4"/>
-    </row>
-    <row r="108" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO107" s="4"/>
+      <c r="BP107" s="4"/>
+      <c r="BQ107" s="4"/>
+      <c r="BR107" s="4"/>
+    </row>
+    <row r="108" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -8297,8 +9094,12 @@
       <c r="BL108" s="4"/>
       <c r="BM108" s="4"/>
       <c r="BN108" s="4"/>
-    </row>
-    <row r="109" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO108" s="4"/>
+      <c r="BP108" s="4"/>
+      <c r="BQ108" s="4"/>
+      <c r="BR108" s="4"/>
+    </row>
+    <row r="109" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -8363,8 +9164,12 @@
       <c r="BL109" s="4"/>
       <c r="BM109" s="4"/>
       <c r="BN109" s="4"/>
-    </row>
-    <row r="110" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO109" s="4"/>
+      <c r="BP109" s="4"/>
+      <c r="BQ109" s="4"/>
+      <c r="BR109" s="4"/>
+    </row>
+    <row r="110" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -8429,8 +9234,12 @@
       <c r="BL110" s="4"/>
       <c r="BM110" s="4"/>
       <c r="BN110" s="4"/>
-    </row>
-    <row r="111" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO110" s="4"/>
+      <c r="BP110" s="4"/>
+      <c r="BQ110" s="4"/>
+      <c r="BR110" s="4"/>
+    </row>
+    <row r="111" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -8495,8 +9304,12 @@
       <c r="BL111" s="4"/>
       <c r="BM111" s="4"/>
       <c r="BN111" s="4"/>
-    </row>
-    <row r="112" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO111" s="4"/>
+      <c r="BP111" s="4"/>
+      <c r="BQ111" s="4"/>
+      <c r="BR111" s="4"/>
+    </row>
+    <row r="112" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -8561,8 +9374,12 @@
       <c r="BL112" s="4"/>
       <c r="BM112" s="4"/>
       <c r="BN112" s="4"/>
-    </row>
-    <row r="113" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO112" s="4"/>
+      <c r="BP112" s="4"/>
+      <c r="BQ112" s="4"/>
+      <c r="BR112" s="4"/>
+    </row>
+    <row r="113" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -8627,8 +9444,12 @@
       <c r="BL113" s="4"/>
       <c r="BM113" s="4"/>
       <c r="BN113" s="4"/>
-    </row>
-    <row r="114" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO113" s="4"/>
+      <c r="BP113" s="4"/>
+      <c r="BQ113" s="4"/>
+      <c r="BR113" s="4"/>
+    </row>
+    <row r="114" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -8693,8 +9514,12 @@
       <c r="BL114" s="4"/>
       <c r="BM114" s="4"/>
       <c r="BN114" s="4"/>
-    </row>
-    <row r="115" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO114" s="4"/>
+      <c r="BP114" s="4"/>
+      <c r="BQ114" s="4"/>
+      <c r="BR114" s="4"/>
+    </row>
+    <row r="115" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -8759,8 +9584,12 @@
       <c r="BL115" s="4"/>
       <c r="BM115" s="4"/>
       <c r="BN115" s="4"/>
-    </row>
-    <row r="116" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO115" s="4"/>
+      <c r="BP115" s="4"/>
+      <c r="BQ115" s="4"/>
+      <c r="BR115" s="4"/>
+    </row>
+    <row r="116" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -8825,8 +9654,12 @@
       <c r="BL116" s="4"/>
       <c r="BM116" s="4"/>
       <c r="BN116" s="4"/>
-    </row>
-    <row r="117" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO116" s="4"/>
+      <c r="BP116" s="4"/>
+      <c r="BQ116" s="4"/>
+      <c r="BR116" s="4"/>
+    </row>
+    <row r="117" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -8891,8 +9724,12 @@
       <c r="BL117" s="4"/>
       <c r="BM117" s="4"/>
       <c r="BN117" s="4"/>
-    </row>
-    <row r="118" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO117" s="4"/>
+      <c r="BP117" s="4"/>
+      <c r="BQ117" s="4"/>
+      <c r="BR117" s="4"/>
+    </row>
+    <row r="118" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -8957,8 +9794,12 @@
       <c r="BL118" s="4"/>
       <c r="BM118" s="4"/>
       <c r="BN118" s="4"/>
-    </row>
-    <row r="119" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO118" s="4"/>
+      <c r="BP118" s="4"/>
+      <c r="BQ118" s="4"/>
+      <c r="BR118" s="4"/>
+    </row>
+    <row r="119" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -9023,8 +9864,12 @@
       <c r="BL119" s="4"/>
       <c r="BM119" s="4"/>
       <c r="BN119" s="4"/>
-    </row>
-    <row r="120" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO119" s="4"/>
+      <c r="BP119" s="4"/>
+      <c r="BQ119" s="4"/>
+      <c r="BR119" s="4"/>
+    </row>
+    <row r="120" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -9089,8 +9934,12 @@
       <c r="BL120" s="4"/>
       <c r="BM120" s="4"/>
       <c r="BN120" s="4"/>
-    </row>
-    <row r="121" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO120" s="4"/>
+      <c r="BP120" s="4"/>
+      <c r="BQ120" s="4"/>
+      <c r="BR120" s="4"/>
+    </row>
+    <row r="121" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -9155,8 +10004,12 @@
       <c r="BL121" s="4"/>
       <c r="BM121" s="4"/>
       <c r="BN121" s="4"/>
-    </row>
-    <row r="122" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO121" s="4"/>
+      <c r="BP121" s="4"/>
+      <c r="BQ121" s="4"/>
+      <c r="BR121" s="4"/>
+    </row>
+    <row r="122" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -9221,8 +10074,12 @@
       <c r="BL122" s="4"/>
       <c r="BM122" s="4"/>
       <c r="BN122" s="4"/>
-    </row>
-    <row r="123" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO122" s="4"/>
+      <c r="BP122" s="4"/>
+      <c r="BQ122" s="4"/>
+      <c r="BR122" s="4"/>
+    </row>
+    <row r="123" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -9287,8 +10144,12 @@
       <c r="BL123" s="4"/>
       <c r="BM123" s="4"/>
       <c r="BN123" s="4"/>
-    </row>
-    <row r="124" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO123" s="4"/>
+      <c r="BP123" s="4"/>
+      <c r="BQ123" s="4"/>
+      <c r="BR123" s="4"/>
+    </row>
+    <row r="124" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -9353,8 +10214,12 @@
       <c r="BL124" s="4"/>
       <c r="BM124" s="4"/>
       <c r="BN124" s="4"/>
-    </row>
-    <row r="125" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO124" s="4"/>
+      <c r="BP124" s="4"/>
+      <c r="BQ124" s="4"/>
+      <c r="BR124" s="4"/>
+    </row>
+    <row r="125" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -9419,8 +10284,12 @@
       <c r="BL125" s="4"/>
       <c r="BM125" s="4"/>
       <c r="BN125" s="4"/>
-    </row>
-    <row r="126" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO125" s="4"/>
+      <c r="BP125" s="4"/>
+      <c r="BQ125" s="4"/>
+      <c r="BR125" s="4"/>
+    </row>
+    <row r="126" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -9485,8 +10354,12 @@
       <c r="BL126" s="4"/>
       <c r="BM126" s="4"/>
       <c r="BN126" s="4"/>
-    </row>
-    <row r="127" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO126" s="4"/>
+      <c r="BP126" s="4"/>
+      <c r="BQ126" s="4"/>
+      <c r="BR126" s="4"/>
+    </row>
+    <row r="127" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -9551,8 +10424,12 @@
       <c r="BL127" s="4"/>
       <c r="BM127" s="4"/>
       <c r="BN127" s="4"/>
-    </row>
-    <row r="128" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO127" s="4"/>
+      <c r="BP127" s="4"/>
+      <c r="BQ127" s="4"/>
+      <c r="BR127" s="4"/>
+    </row>
+    <row r="128" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -9617,8 +10494,12 @@
       <c r="BL128" s="4"/>
       <c r="BM128" s="4"/>
       <c r="BN128" s="4"/>
-    </row>
-    <row r="129" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO128" s="4"/>
+      <c r="BP128" s="4"/>
+      <c r="BQ128" s="4"/>
+      <c r="BR128" s="4"/>
+    </row>
+    <row r="129" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -9683,8 +10564,12 @@
       <c r="BL129" s="4"/>
       <c r="BM129" s="4"/>
       <c r="BN129" s="4"/>
-    </row>
-    <row r="130" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO129" s="4"/>
+      <c r="BP129" s="4"/>
+      <c r="BQ129" s="4"/>
+      <c r="BR129" s="4"/>
+    </row>
+    <row r="130" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -9749,8 +10634,12 @@
       <c r="BL130" s="4"/>
       <c r="BM130" s="4"/>
       <c r="BN130" s="4"/>
-    </row>
-    <row r="131" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO130" s="4"/>
+      <c r="BP130" s="4"/>
+      <c r="BQ130" s="4"/>
+      <c r="BR130" s="4"/>
+    </row>
+    <row r="131" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -9815,8 +10704,12 @@
       <c r="BL131" s="4"/>
       <c r="BM131" s="4"/>
       <c r="BN131" s="4"/>
-    </row>
-    <row r="132" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO131" s="4"/>
+      <c r="BP131" s="4"/>
+      <c r="BQ131" s="4"/>
+      <c r="BR131" s="4"/>
+    </row>
+    <row r="132" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -9881,8 +10774,12 @@
       <c r="BL132" s="4"/>
       <c r="BM132" s="4"/>
       <c r="BN132" s="4"/>
-    </row>
-    <row r="133" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO132" s="4"/>
+      <c r="BP132" s="4"/>
+      <c r="BQ132" s="4"/>
+      <c r="BR132" s="4"/>
+    </row>
+    <row r="133" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -9947,8 +10844,12 @@
       <c r="BL133" s="4"/>
       <c r="BM133" s="4"/>
       <c r="BN133" s="4"/>
-    </row>
-    <row r="134" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO133" s="4"/>
+      <c r="BP133" s="4"/>
+      <c r="BQ133" s="4"/>
+      <c r="BR133" s="4"/>
+    </row>
+    <row r="134" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -10013,8 +10914,12 @@
       <c r="BL134" s="4"/>
       <c r="BM134" s="4"/>
       <c r="BN134" s="4"/>
-    </row>
-    <row r="135" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO134" s="4"/>
+      <c r="BP134" s="4"/>
+      <c r="BQ134" s="4"/>
+      <c r="BR134" s="4"/>
+    </row>
+    <row r="135" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -10079,8 +10984,12 @@
       <c r="BL135" s="4"/>
       <c r="BM135" s="4"/>
       <c r="BN135" s="4"/>
-    </row>
-    <row r="136" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO135" s="4"/>
+      <c r="BP135" s="4"/>
+      <c r="BQ135" s="4"/>
+      <c r="BR135" s="4"/>
+    </row>
+    <row r="136" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -10145,8 +11054,12 @@
       <c r="BL136" s="4"/>
       <c r="BM136" s="4"/>
       <c r="BN136" s="4"/>
-    </row>
-    <row r="137" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO136" s="4"/>
+      <c r="BP136" s="4"/>
+      <c r="BQ136" s="4"/>
+      <c r="BR136" s="4"/>
+    </row>
+    <row r="137" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -10211,8 +11124,12 @@
       <c r="BL137" s="4"/>
       <c r="BM137" s="4"/>
       <c r="BN137" s="4"/>
-    </row>
-    <row r="138" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO137" s="4"/>
+      <c r="BP137" s="4"/>
+      <c r="BQ137" s="4"/>
+      <c r="BR137" s="4"/>
+    </row>
+    <row r="138" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -10277,8 +11194,12 @@
       <c r="BL138" s="4"/>
       <c r="BM138" s="4"/>
       <c r="BN138" s="4"/>
-    </row>
-    <row r="139" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO138" s="4"/>
+      <c r="BP138" s="4"/>
+      <c r="BQ138" s="4"/>
+      <c r="BR138" s="4"/>
+    </row>
+    <row r="139" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -10343,8 +11264,12 @@
       <c r="BL139" s="4"/>
       <c r="BM139" s="4"/>
       <c r="BN139" s="4"/>
-    </row>
-    <row r="140" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO139" s="4"/>
+      <c r="BP139" s="4"/>
+      <c r="BQ139" s="4"/>
+      <c r="BR139" s="4"/>
+    </row>
+    <row r="140" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -10409,8 +11334,12 @@
       <c r="BL140" s="4"/>
       <c r="BM140" s="4"/>
       <c r="BN140" s="4"/>
-    </row>
-    <row r="141" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO140" s="4"/>
+      <c r="BP140" s="4"/>
+      <c r="BQ140" s="4"/>
+      <c r="BR140" s="4"/>
+    </row>
+    <row r="141" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -10475,8 +11404,12 @@
       <c r="BL141" s="4"/>
       <c r="BM141" s="4"/>
       <c r="BN141" s="4"/>
-    </row>
-    <row r="142" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO141" s="4"/>
+      <c r="BP141" s="4"/>
+      <c r="BQ141" s="4"/>
+      <c r="BR141" s="4"/>
+    </row>
+    <row r="142" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -10541,8 +11474,12 @@
       <c r="BL142" s="4"/>
       <c r="BM142" s="4"/>
       <c r="BN142" s="4"/>
-    </row>
-    <row r="143" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO142" s="4"/>
+      <c r="BP142" s="4"/>
+      <c r="BQ142" s="4"/>
+      <c r="BR142" s="4"/>
+    </row>
+    <row r="143" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -10607,8 +11544,12 @@
       <c r="BL143" s="4"/>
       <c r="BM143" s="4"/>
       <c r="BN143" s="4"/>
-    </row>
-    <row r="144" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO143" s="4"/>
+      <c r="BP143" s="4"/>
+      <c r="BQ143" s="4"/>
+      <c r="BR143" s="4"/>
+    </row>
+    <row r="144" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -10673,8 +11614,12 @@
       <c r="BL144" s="4"/>
       <c r="BM144" s="4"/>
       <c r="BN144" s="4"/>
-    </row>
-    <row r="145" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO144" s="4"/>
+      <c r="BP144" s="4"/>
+      <c r="BQ144" s="4"/>
+      <c r="BR144" s="4"/>
+    </row>
+    <row r="145" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -10739,8 +11684,12 @@
       <c r="BL145" s="4"/>
       <c r="BM145" s="4"/>
       <c r="BN145" s="4"/>
-    </row>
-    <row r="146" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO145" s="4"/>
+      <c r="BP145" s="4"/>
+      <c r="BQ145" s="4"/>
+      <c r="BR145" s="4"/>
+    </row>
+    <row r="146" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -10805,8 +11754,12 @@
       <c r="BL146" s="4"/>
       <c r="BM146" s="4"/>
       <c r="BN146" s="4"/>
-    </row>
-    <row r="147" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO146" s="4"/>
+      <c r="BP146" s="4"/>
+      <c r="BQ146" s="4"/>
+      <c r="BR146" s="4"/>
+    </row>
+    <row r="147" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -10871,8 +11824,12 @@
       <c r="BL147" s="4"/>
       <c r="BM147" s="4"/>
       <c r="BN147" s="4"/>
-    </row>
-    <row r="148" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO147" s="4"/>
+      <c r="BP147" s="4"/>
+      <c r="BQ147" s="4"/>
+      <c r="BR147" s="4"/>
+    </row>
+    <row r="148" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -10937,8 +11894,12 @@
       <c r="BL148" s="4"/>
       <c r="BM148" s="4"/>
       <c r="BN148" s="4"/>
-    </row>
-    <row r="149" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO148" s="4"/>
+      <c r="BP148" s="4"/>
+      <c r="BQ148" s="4"/>
+      <c r="BR148" s="4"/>
+    </row>
+    <row r="149" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -11003,8 +11964,12 @@
       <c r="BL149" s="4"/>
       <c r="BM149" s="4"/>
       <c r="BN149" s="4"/>
-    </row>
-    <row r="150" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO149" s="4"/>
+      <c r="BP149" s="4"/>
+      <c r="BQ149" s="4"/>
+      <c r="BR149" s="4"/>
+    </row>
+    <row r="150" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -11069,8 +12034,12 @@
       <c r="BL150" s="4"/>
       <c r="BM150" s="4"/>
       <c r="BN150" s="4"/>
-    </row>
-    <row r="151" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO150" s="4"/>
+      <c r="BP150" s="4"/>
+      <c r="BQ150" s="4"/>
+      <c r="BR150" s="4"/>
+    </row>
+    <row r="151" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -11135,8 +12104,12 @@
       <c r="BL151" s="4"/>
       <c r="BM151" s="4"/>
       <c r="BN151" s="4"/>
-    </row>
-    <row r="152" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO151" s="4"/>
+      <c r="BP151" s="4"/>
+      <c r="BQ151" s="4"/>
+      <c r="BR151" s="4"/>
+    </row>
+    <row r="152" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -11201,8 +12174,12 @@
       <c r="BL152" s="4"/>
       <c r="BM152" s="4"/>
       <c r="BN152" s="4"/>
-    </row>
-    <row r="153" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO152" s="4"/>
+      <c r="BP152" s="4"/>
+      <c r="BQ152" s="4"/>
+      <c r="BR152" s="4"/>
+    </row>
+    <row r="153" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -11267,8 +12244,12 @@
       <c r="BL153" s="4"/>
       <c r="BM153" s="4"/>
       <c r="BN153" s="4"/>
-    </row>
-    <row r="154" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO153" s="4"/>
+      <c r="BP153" s="4"/>
+      <c r="BQ153" s="4"/>
+      <c r="BR153" s="4"/>
+    </row>
+    <row r="154" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -11333,8 +12314,12 @@
       <c r="BL154" s="4"/>
       <c r="BM154" s="4"/>
       <c r="BN154" s="4"/>
-    </row>
-    <row r="155" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO154" s="4"/>
+      <c r="BP154" s="4"/>
+      <c r="BQ154" s="4"/>
+      <c r="BR154" s="4"/>
+    </row>
+    <row r="155" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -11399,8 +12384,12 @@
       <c r="BL155" s="4"/>
       <c r="BM155" s="4"/>
       <c r="BN155" s="4"/>
-    </row>
-    <row r="156" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO155" s="4"/>
+      <c r="BP155" s="4"/>
+      <c r="BQ155" s="4"/>
+      <c r="BR155" s="4"/>
+    </row>
+    <row r="156" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -11465,8 +12454,12 @@
       <c r="BL156" s="4"/>
       <c r="BM156" s="4"/>
       <c r="BN156" s="4"/>
-    </row>
-    <row r="157" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO156" s="4"/>
+      <c r="BP156" s="4"/>
+      <c r="BQ156" s="4"/>
+      <c r="BR156" s="4"/>
+    </row>
+    <row r="157" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -11531,8 +12524,12 @@
       <c r="BL157" s="4"/>
       <c r="BM157" s="4"/>
       <c r="BN157" s="4"/>
-    </row>
-    <row r="158" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO157" s="4"/>
+      <c r="BP157" s="4"/>
+      <c r="BQ157" s="4"/>
+      <c r="BR157" s="4"/>
+    </row>
+    <row r="158" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -11597,8 +12594,12 @@
       <c r="BL158" s="4"/>
       <c r="BM158" s="4"/>
       <c r="BN158" s="4"/>
-    </row>
-    <row r="159" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO158" s="4"/>
+      <c r="BP158" s="4"/>
+      <c r="BQ158" s="4"/>
+      <c r="BR158" s="4"/>
+    </row>
+    <row r="159" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -11663,8 +12664,12 @@
       <c r="BL159" s="4"/>
       <c r="BM159" s="4"/>
       <c r="BN159" s="4"/>
-    </row>
-    <row r="160" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO159" s="4"/>
+      <c r="BP159" s="4"/>
+      <c r="BQ159" s="4"/>
+      <c r="BR159" s="4"/>
+    </row>
+    <row r="160" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -11729,8 +12734,12 @@
       <c r="BL160" s="4"/>
       <c r="BM160" s="4"/>
       <c r="BN160" s="4"/>
-    </row>
-    <row r="161" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO160" s="4"/>
+      <c r="BP160" s="4"/>
+      <c r="BQ160" s="4"/>
+      <c r="BR160" s="4"/>
+    </row>
+    <row r="161" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -11795,8 +12804,12 @@
       <c r="BL161" s="4"/>
       <c r="BM161" s="4"/>
       <c r="BN161" s="4"/>
-    </row>
-    <row r="162" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO161" s="4"/>
+      <c r="BP161" s="4"/>
+      <c r="BQ161" s="4"/>
+      <c r="BR161" s="4"/>
+    </row>
+    <row r="162" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -11861,8 +12874,12 @@
       <c r="BL162" s="4"/>
       <c r="BM162" s="4"/>
       <c r="BN162" s="4"/>
-    </row>
-    <row r="163" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO162" s="4"/>
+      <c r="BP162" s="4"/>
+      <c r="BQ162" s="4"/>
+      <c r="BR162" s="4"/>
+    </row>
+    <row r="163" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -11927,8 +12944,12 @@
       <c r="BL163" s="4"/>
       <c r="BM163" s="4"/>
       <c r="BN163" s="4"/>
-    </row>
-    <row r="164" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO163" s="4"/>
+      <c r="BP163" s="4"/>
+      <c r="BQ163" s="4"/>
+      <c r="BR163" s="4"/>
+    </row>
+    <row r="164" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -11993,8 +13014,12 @@
       <c r="BL164" s="4"/>
       <c r="BM164" s="4"/>
       <c r="BN164" s="4"/>
-    </row>
-    <row r="165" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO164" s="4"/>
+      <c r="BP164" s="4"/>
+      <c r="BQ164" s="4"/>
+      <c r="BR164" s="4"/>
+    </row>
+    <row r="165" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -12059,8 +13084,12 @@
       <c r="BL165" s="4"/>
       <c r="BM165" s="4"/>
       <c r="BN165" s="4"/>
-    </row>
-    <row r="166" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO165" s="4"/>
+      <c r="BP165" s="4"/>
+      <c r="BQ165" s="4"/>
+      <c r="BR165" s="4"/>
+    </row>
+    <row r="166" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -12125,8 +13154,12 @@
       <c r="BL166" s="4"/>
       <c r="BM166" s="4"/>
       <c r="BN166" s="4"/>
-    </row>
-    <row r="167" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO166" s="4"/>
+      <c r="BP166" s="4"/>
+      <c r="BQ166" s="4"/>
+      <c r="BR166" s="4"/>
+    </row>
+    <row r="167" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -12191,8 +13224,12 @@
       <c r="BL167" s="4"/>
       <c r="BM167" s="4"/>
       <c r="BN167" s="4"/>
-    </row>
-    <row r="168" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO167" s="4"/>
+      <c r="BP167" s="4"/>
+      <c r="BQ167" s="4"/>
+      <c r="BR167" s="4"/>
+    </row>
+    <row r="168" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -12257,8 +13294,12 @@
       <c r="BL168" s="4"/>
       <c r="BM168" s="4"/>
       <c r="BN168" s="4"/>
-    </row>
-    <row r="169" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO168" s="4"/>
+      <c r="BP168" s="4"/>
+      <c r="BQ168" s="4"/>
+      <c r="BR168" s="4"/>
+    </row>
+    <row r="169" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -12323,8 +13364,12 @@
       <c r="BL169" s="4"/>
       <c r="BM169" s="4"/>
       <c r="BN169" s="4"/>
-    </row>
-    <row r="170" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO169" s="4"/>
+      <c r="BP169" s="4"/>
+      <c r="BQ169" s="4"/>
+      <c r="BR169" s="4"/>
+    </row>
+    <row r="170" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -12389,8 +13434,12 @@
       <c r="BL170" s="4"/>
       <c r="BM170" s="4"/>
       <c r="BN170" s="4"/>
-    </row>
-    <row r="171" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO170" s="4"/>
+      <c r="BP170" s="4"/>
+      <c r="BQ170" s="4"/>
+      <c r="BR170" s="4"/>
+    </row>
+    <row r="171" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -12455,8 +13504,12 @@
       <c r="BL171" s="4"/>
       <c r="BM171" s="4"/>
       <c r="BN171" s="4"/>
-    </row>
-    <row r="172" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO171" s="4"/>
+      <c r="BP171" s="4"/>
+      <c r="BQ171" s="4"/>
+      <c r="BR171" s="4"/>
+    </row>
+    <row r="172" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -12521,8 +13574,12 @@
       <c r="BL172" s="4"/>
       <c r="BM172" s="4"/>
       <c r="BN172" s="4"/>
-    </row>
-    <row r="173" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO172" s="4"/>
+      <c r="BP172" s="4"/>
+      <c r="BQ172" s="4"/>
+      <c r="BR172" s="4"/>
+    </row>
+    <row r="173" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -12587,8 +13644,12 @@
       <c r="BL173" s="4"/>
       <c r="BM173" s="4"/>
       <c r="BN173" s="4"/>
-    </row>
-    <row r="174" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO173" s="4"/>
+      <c r="BP173" s="4"/>
+      <c r="BQ173" s="4"/>
+      <c r="BR173" s="4"/>
+    </row>
+    <row r="174" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -12653,8 +13714,12 @@
       <c r="BL174" s="4"/>
       <c r="BM174" s="4"/>
       <c r="BN174" s="4"/>
-    </row>
-    <row r="175" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO174" s="4"/>
+      <c r="BP174" s="4"/>
+      <c r="BQ174" s="4"/>
+      <c r="BR174" s="4"/>
+    </row>
+    <row r="175" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -12719,8 +13784,12 @@
       <c r="BL175" s="4"/>
       <c r="BM175" s="4"/>
       <c r="BN175" s="4"/>
-    </row>
-    <row r="176" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO175" s="4"/>
+      <c r="BP175" s="4"/>
+      <c r="BQ175" s="4"/>
+      <c r="BR175" s="4"/>
+    </row>
+    <row r="176" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -12785,8 +13854,12 @@
       <c r="BL176" s="4"/>
       <c r="BM176" s="4"/>
       <c r="BN176" s="4"/>
-    </row>
-    <row r="177" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO176" s="4"/>
+      <c r="BP176" s="4"/>
+      <c r="BQ176" s="4"/>
+      <c r="BR176" s="4"/>
+    </row>
+    <row r="177" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -12851,8 +13924,12 @@
       <c r="BL177" s="4"/>
       <c r="BM177" s="4"/>
       <c r="BN177" s="4"/>
-    </row>
-    <row r="178" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO177" s="4"/>
+      <c r="BP177" s="4"/>
+      <c r="BQ177" s="4"/>
+      <c r="BR177" s="4"/>
+    </row>
+    <row r="178" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -12917,8 +13994,12 @@
       <c r="BL178" s="4"/>
       <c r="BM178" s="4"/>
       <c r="BN178" s="4"/>
-    </row>
-    <row r="179" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO178" s="4"/>
+      <c r="BP178" s="4"/>
+      <c r="BQ178" s="4"/>
+      <c r="BR178" s="4"/>
+    </row>
+    <row r="179" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -12983,8 +14064,12 @@
       <c r="BL179" s="4"/>
       <c r="BM179" s="4"/>
       <c r="BN179" s="4"/>
-    </row>
-    <row r="180" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO179" s="4"/>
+      <c r="BP179" s="4"/>
+      <c r="BQ179" s="4"/>
+      <c r="BR179" s="4"/>
+    </row>
+    <row r="180" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -13049,8 +14134,12 @@
       <c r="BL180" s="4"/>
       <c r="BM180" s="4"/>
       <c r="BN180" s="4"/>
-    </row>
-    <row r="181" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO180" s="4"/>
+      <c r="BP180" s="4"/>
+      <c r="BQ180" s="4"/>
+      <c r="BR180" s="4"/>
+    </row>
+    <row r="181" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -13115,8 +14204,12 @@
       <c r="BL181" s="4"/>
       <c r="BM181" s="4"/>
       <c r="BN181" s="4"/>
-    </row>
-    <row r="182" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO181" s="4"/>
+      <c r="BP181" s="4"/>
+      <c r="BQ181" s="4"/>
+      <c r="BR181" s="4"/>
+    </row>
+    <row r="182" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -13181,8 +14274,12 @@
       <c r="BL182" s="4"/>
       <c r="BM182" s="4"/>
       <c r="BN182" s="4"/>
-    </row>
-    <row r="183" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO182" s="4"/>
+      <c r="BP182" s="4"/>
+      <c r="BQ182" s="4"/>
+      <c r="BR182" s="4"/>
+    </row>
+    <row r="183" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -13247,8 +14344,12 @@
       <c r="BL183" s="4"/>
       <c r="BM183" s="4"/>
       <c r="BN183" s="4"/>
-    </row>
-    <row r="184" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO183" s="4"/>
+      <c r="BP183" s="4"/>
+      <c r="BQ183" s="4"/>
+      <c r="BR183" s="4"/>
+    </row>
+    <row r="184" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -13313,8 +14414,12 @@
       <c r="BL184" s="4"/>
       <c r="BM184" s="4"/>
       <c r="BN184" s="4"/>
-    </row>
-    <row r="185" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO184" s="4"/>
+      <c r="BP184" s="4"/>
+      <c r="BQ184" s="4"/>
+      <c r="BR184" s="4"/>
+    </row>
+    <row r="185" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -13379,8 +14484,12 @@
       <c r="BL185" s="4"/>
       <c r="BM185" s="4"/>
       <c r="BN185" s="4"/>
-    </row>
-    <row r="186" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO185" s="4"/>
+      <c r="BP185" s="4"/>
+      <c r="BQ185" s="4"/>
+      <c r="BR185" s="4"/>
+    </row>
+    <row r="186" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -13445,8 +14554,12 @@
       <c r="BL186" s="4"/>
       <c r="BM186" s="4"/>
       <c r="BN186" s="4"/>
-    </row>
-    <row r="187" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO186" s="4"/>
+      <c r="BP186" s="4"/>
+      <c r="BQ186" s="4"/>
+      <c r="BR186" s="4"/>
+    </row>
+    <row r="187" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -13511,8 +14624,12 @@
       <c r="BL187" s="4"/>
       <c r="BM187" s="4"/>
       <c r="BN187" s="4"/>
-    </row>
-    <row r="188" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO187" s="4"/>
+      <c r="BP187" s="4"/>
+      <c r="BQ187" s="4"/>
+      <c r="BR187" s="4"/>
+    </row>
+    <row r="188" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -13577,8 +14694,12 @@
       <c r="BL188" s="4"/>
       <c r="BM188" s="4"/>
       <c r="BN188" s="4"/>
-    </row>
-    <row r="189" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO188" s="4"/>
+      <c r="BP188" s="4"/>
+      <c r="BQ188" s="4"/>
+      <c r="BR188" s="4"/>
+    </row>
+    <row r="189" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -13643,8 +14764,12 @@
       <c r="BL189" s="4"/>
       <c r="BM189" s="4"/>
       <c r="BN189" s="4"/>
-    </row>
-    <row r="190" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO189" s="4"/>
+      <c r="BP189" s="4"/>
+      <c r="BQ189" s="4"/>
+      <c r="BR189" s="4"/>
+    </row>
+    <row r="190" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -13709,8 +14834,12 @@
       <c r="BL190" s="4"/>
       <c r="BM190" s="4"/>
       <c r="BN190" s="4"/>
-    </row>
-    <row r="191" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO190" s="4"/>
+      <c r="BP190" s="4"/>
+      <c r="BQ190" s="4"/>
+      <c r="BR190" s="4"/>
+    </row>
+    <row r="191" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -13775,8 +14904,12 @@
       <c r="BL191" s="4"/>
       <c r="BM191" s="4"/>
       <c r="BN191" s="4"/>
-    </row>
-    <row r="192" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO191" s="4"/>
+      <c r="BP191" s="4"/>
+      <c r="BQ191" s="4"/>
+      <c r="BR191" s="4"/>
+    </row>
+    <row r="192" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -13841,8 +14974,12 @@
       <c r="BL192" s="4"/>
       <c r="BM192" s="4"/>
       <c r="BN192" s="4"/>
-    </row>
-    <row r="193" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO192" s="4"/>
+      <c r="BP192" s="4"/>
+      <c r="BQ192" s="4"/>
+      <c r="BR192" s="4"/>
+    </row>
+    <row r="193" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -13907,8 +15044,12 @@
       <c r="BL193" s="4"/>
       <c r="BM193" s="4"/>
       <c r="BN193" s="4"/>
-    </row>
-    <row r="194" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO193" s="4"/>
+      <c r="BP193" s="4"/>
+      <c r="BQ193" s="4"/>
+      <c r="BR193" s="4"/>
+    </row>
+    <row r="194" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -13973,8 +15114,12 @@
       <c r="BL194" s="4"/>
       <c r="BM194" s="4"/>
       <c r="BN194" s="4"/>
-    </row>
-    <row r="195" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO194" s="4"/>
+      <c r="BP194" s="4"/>
+      <c r="BQ194" s="4"/>
+      <c r="BR194" s="4"/>
+    </row>
+    <row r="195" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -14039,8 +15184,12 @@
       <c r="BL195" s="4"/>
       <c r="BM195" s="4"/>
       <c r="BN195" s="4"/>
-    </row>
-    <row r="196" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO195" s="4"/>
+      <c r="BP195" s="4"/>
+      <c r="BQ195" s="4"/>
+      <c r="BR195" s="4"/>
+    </row>
+    <row r="196" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -14105,8 +15254,12 @@
       <c r="BL196" s="4"/>
       <c r="BM196" s="4"/>
       <c r="BN196" s="4"/>
-    </row>
-    <row r="197" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO196" s="4"/>
+      <c r="BP196" s="4"/>
+      <c r="BQ196" s="4"/>
+      <c r="BR196" s="4"/>
+    </row>
+    <row r="197" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -14171,8 +15324,12 @@
       <c r="BL197" s="4"/>
       <c r="BM197" s="4"/>
       <c r="BN197" s="4"/>
-    </row>
-    <row r="198" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO197" s="4"/>
+      <c r="BP197" s="4"/>
+      <c r="BQ197" s="4"/>
+      <c r="BR197" s="4"/>
+    </row>
+    <row r="198" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -14237,8 +15394,12 @@
       <c r="BL198" s="4"/>
       <c r="BM198" s="4"/>
       <c r="BN198" s="4"/>
-    </row>
-    <row r="199" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO198" s="4"/>
+      <c r="BP198" s="4"/>
+      <c r="BQ198" s="4"/>
+      <c r="BR198" s="4"/>
+    </row>
+    <row r="199" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -14303,8 +15464,12 @@
       <c r="BL199" s="4"/>
       <c r="BM199" s="4"/>
       <c r="BN199" s="4"/>
-    </row>
-    <row r="200" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO199" s="4"/>
+      <c r="BP199" s="4"/>
+      <c r="BQ199" s="4"/>
+      <c r="BR199" s="4"/>
+    </row>
+    <row r="200" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -14369,8 +15534,12 @@
       <c r="BL200" s="4"/>
       <c r="BM200" s="4"/>
       <c r="BN200" s="4"/>
-    </row>
-    <row r="201" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO200" s="4"/>
+      <c r="BP200" s="4"/>
+      <c r="BQ200" s="4"/>
+      <c r="BR200" s="4"/>
+    </row>
+    <row r="201" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -14435,8 +15604,12 @@
       <c r="BL201" s="4"/>
       <c r="BM201" s="4"/>
       <c r="BN201" s="4"/>
-    </row>
-    <row r="202" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO201" s="4"/>
+      <c r="BP201" s="4"/>
+      <c r="BQ201" s="4"/>
+      <c r="BR201" s="4"/>
+    </row>
+    <row r="202" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -14501,8 +15674,12 @@
       <c r="BL202" s="4"/>
       <c r="BM202" s="4"/>
       <c r="BN202" s="4"/>
-    </row>
-    <row r="203" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO202" s="4"/>
+      <c r="BP202" s="4"/>
+      <c r="BQ202" s="4"/>
+      <c r="BR202" s="4"/>
+    </row>
+    <row r="203" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -14567,8 +15744,12 @@
       <c r="BL203" s="4"/>
       <c r="BM203" s="4"/>
       <c r="BN203" s="4"/>
-    </row>
-    <row r="204" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO203" s="4"/>
+      <c r="BP203" s="4"/>
+      <c r="BQ203" s="4"/>
+      <c r="BR203" s="4"/>
+    </row>
+    <row r="204" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -14633,8 +15814,12 @@
       <c r="BL204" s="4"/>
       <c r="BM204" s="4"/>
       <c r="BN204" s="4"/>
-    </row>
-    <row r="205" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO204" s="4"/>
+      <c r="BP204" s="4"/>
+      <c r="BQ204" s="4"/>
+      <c r="BR204" s="4"/>
+    </row>
+    <row r="205" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -14699,8 +15884,12 @@
       <c r="BL205" s="4"/>
       <c r="BM205" s="4"/>
       <c r="BN205" s="4"/>
-    </row>
-    <row r="206" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO205" s="4"/>
+      <c r="BP205" s="4"/>
+      <c r="BQ205" s="4"/>
+      <c r="BR205" s="4"/>
+    </row>
+    <row r="206" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -14765,8 +15954,12 @@
       <c r="BL206" s="4"/>
       <c r="BM206" s="4"/>
       <c r="BN206" s="4"/>
-    </row>
-    <row r="207" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO206" s="4"/>
+      <c r="BP206" s="4"/>
+      <c r="BQ206" s="4"/>
+      <c r="BR206" s="4"/>
+    </row>
+    <row r="207" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -14831,8 +16024,12 @@
       <c r="BL207" s="4"/>
       <c r="BM207" s="4"/>
       <c r="BN207" s="4"/>
-    </row>
-    <row r="208" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO207" s="4"/>
+      <c r="BP207" s="4"/>
+      <c r="BQ207" s="4"/>
+      <c r="BR207" s="4"/>
+    </row>
+    <row r="208" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -14897,8 +16094,12 @@
       <c r="BL208" s="4"/>
       <c r="BM208" s="4"/>
       <c r="BN208" s="4"/>
-    </row>
-    <row r="209" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO208" s="4"/>
+      <c r="BP208" s="4"/>
+      <c r="BQ208" s="4"/>
+      <c r="BR208" s="4"/>
+    </row>
+    <row r="209" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -14963,8 +16164,12 @@
       <c r="BL209" s="4"/>
       <c r="BM209" s="4"/>
       <c r="BN209" s="4"/>
-    </row>
-    <row r="210" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO209" s="4"/>
+      <c r="BP209" s="4"/>
+      <c r="BQ209" s="4"/>
+      <c r="BR209" s="4"/>
+    </row>
+    <row r="210" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -15029,8 +16234,12 @@
       <c r="BL210" s="4"/>
       <c r="BM210" s="4"/>
       <c r="BN210" s="4"/>
-    </row>
-    <row r="211" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO210" s="4"/>
+      <c r="BP210" s="4"/>
+      <c r="BQ210" s="4"/>
+      <c r="BR210" s="4"/>
+    </row>
+    <row r="211" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -15095,8 +16304,12 @@
       <c r="BL211" s="4"/>
       <c r="BM211" s="4"/>
       <c r="BN211" s="4"/>
-    </row>
-    <row r="212" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO211" s="4"/>
+      <c r="BP211" s="4"/>
+      <c r="BQ211" s="4"/>
+      <c r="BR211" s="4"/>
+    </row>
+    <row r="212" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -15161,8 +16374,12 @@
       <c r="BL212" s="4"/>
       <c r="BM212" s="4"/>
       <c r="BN212" s="4"/>
-    </row>
-    <row r="213" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO212" s="4"/>
+      <c r="BP212" s="4"/>
+      <c r="BQ212" s="4"/>
+      <c r="BR212" s="4"/>
+    </row>
+    <row r="213" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -15227,8 +16444,12 @@
       <c r="BL213" s="4"/>
       <c r="BM213" s="4"/>
       <c r="BN213" s="4"/>
-    </row>
-    <row r="214" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO213" s="4"/>
+      <c r="BP213" s="4"/>
+      <c r="BQ213" s="4"/>
+      <c r="BR213" s="4"/>
+    </row>
+    <row r="214" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -15293,8 +16514,12 @@
       <c r="BL214" s="4"/>
       <c r="BM214" s="4"/>
       <c r="BN214" s="4"/>
-    </row>
-    <row r="215" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO214" s="4"/>
+      <c r="BP214" s="4"/>
+      <c r="BQ214" s="4"/>
+      <c r="BR214" s="4"/>
+    </row>
+    <row r="215" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -15359,8 +16584,12 @@
       <c r="BL215" s="4"/>
       <c r="BM215" s="4"/>
       <c r="BN215" s="4"/>
-    </row>
-    <row r="216" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO215" s="4"/>
+      <c r="BP215" s="4"/>
+      <c r="BQ215" s="4"/>
+      <c r="BR215" s="4"/>
+    </row>
+    <row r="216" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -15425,8 +16654,12 @@
       <c r="BL216" s="4"/>
       <c r="BM216" s="4"/>
       <c r="BN216" s="4"/>
-    </row>
-    <row r="217" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO216" s="4"/>
+      <c r="BP216" s="4"/>
+      <c r="BQ216" s="4"/>
+      <c r="BR216" s="4"/>
+    </row>
+    <row r="217" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -15491,8 +16724,12 @@
       <c r="BL217" s="4"/>
       <c r="BM217" s="4"/>
       <c r="BN217" s="4"/>
-    </row>
-    <row r="218" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO217" s="4"/>
+      <c r="BP217" s="4"/>
+      <c r="BQ217" s="4"/>
+      <c r="BR217" s="4"/>
+    </row>
+    <row r="218" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -15557,8 +16794,12 @@
       <c r="BL218" s="4"/>
       <c r="BM218" s="4"/>
       <c r="BN218" s="4"/>
-    </row>
-    <row r="219" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO218" s="4"/>
+      <c r="BP218" s="4"/>
+      <c r="BQ218" s="4"/>
+      <c r="BR218" s="4"/>
+    </row>
+    <row r="219" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -15623,8 +16864,12 @@
       <c r="BL219" s="4"/>
       <c r="BM219" s="4"/>
       <c r="BN219" s="4"/>
-    </row>
-    <row r="220" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO219" s="4"/>
+      <c r="BP219" s="4"/>
+      <c r="BQ219" s="4"/>
+      <c r="BR219" s="4"/>
+    </row>
+    <row r="220" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -15689,8 +16934,12 @@
       <c r="BL220" s="4"/>
       <c r="BM220" s="4"/>
       <c r="BN220" s="4"/>
-    </row>
-    <row r="221" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO220" s="4"/>
+      <c r="BP220" s="4"/>
+      <c r="BQ220" s="4"/>
+      <c r="BR220" s="4"/>
+    </row>
+    <row r="221" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -15755,8 +17004,12 @@
       <c r="BL221" s="4"/>
       <c r="BM221" s="4"/>
       <c r="BN221" s="4"/>
-    </row>
-    <row r="222" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO221" s="4"/>
+      <c r="BP221" s="4"/>
+      <c r="BQ221" s="4"/>
+      <c r="BR221" s="4"/>
+    </row>
+    <row r="222" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -15821,8 +17074,12 @@
       <c r="BL222" s="4"/>
       <c r="BM222" s="4"/>
       <c r="BN222" s="4"/>
-    </row>
-    <row r="223" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO222" s="4"/>
+      <c r="BP222" s="4"/>
+      <c r="BQ222" s="4"/>
+      <c r="BR222" s="4"/>
+    </row>
+    <row r="223" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -15887,8 +17144,12 @@
       <c r="BL223" s="4"/>
       <c r="BM223" s="4"/>
       <c r="BN223" s="4"/>
-    </row>
-    <row r="224" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO223" s="4"/>
+      <c r="BP223" s="4"/>
+      <c r="BQ223" s="4"/>
+      <c r="BR223" s="4"/>
+    </row>
+    <row r="224" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -15953,8 +17214,12 @@
       <c r="BL224" s="4"/>
       <c r="BM224" s="4"/>
       <c r="BN224" s="4"/>
-    </row>
-    <row r="225" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO224" s="4"/>
+      <c r="BP224" s="4"/>
+      <c r="BQ224" s="4"/>
+      <c r="BR224" s="4"/>
+    </row>
+    <row r="225" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -16019,8 +17284,12 @@
       <c r="BL225" s="4"/>
       <c r="BM225" s="4"/>
       <c r="BN225" s="4"/>
-    </row>
-    <row r="226" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO225" s="4"/>
+      <c r="BP225" s="4"/>
+      <c r="BQ225" s="4"/>
+      <c r="BR225" s="4"/>
+    </row>
+    <row r="226" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -16085,8 +17354,12 @@
       <c r="BL226" s="4"/>
       <c r="BM226" s="4"/>
       <c r="BN226" s="4"/>
-    </row>
-    <row r="227" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO226" s="4"/>
+      <c r="BP226" s="4"/>
+      <c r="BQ226" s="4"/>
+      <c r="BR226" s="4"/>
+    </row>
+    <row r="227" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -16151,8 +17424,12 @@
       <c r="BL227" s="4"/>
       <c r="BM227" s="4"/>
       <c r="BN227" s="4"/>
-    </row>
-    <row r="228" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO227" s="4"/>
+      <c r="BP227" s="4"/>
+      <c r="BQ227" s="4"/>
+      <c r="BR227" s="4"/>
+    </row>
+    <row r="228" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -16217,8 +17494,12 @@
       <c r="BL228" s="4"/>
       <c r="BM228" s="4"/>
       <c r="BN228" s="4"/>
-    </row>
-    <row r="229" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO228" s="4"/>
+      <c r="BP228" s="4"/>
+      <c r="BQ228" s="4"/>
+      <c r="BR228" s="4"/>
+    </row>
+    <row r="229" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -16283,8 +17564,12 @@
       <c r="BL229" s="4"/>
       <c r="BM229" s="4"/>
       <c r="BN229" s="4"/>
-    </row>
-    <row r="230" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO229" s="4"/>
+      <c r="BP229" s="4"/>
+      <c r="BQ229" s="4"/>
+      <c r="BR229" s="4"/>
+    </row>
+    <row r="230" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -16349,8 +17634,12 @@
       <c r="BL230" s="4"/>
       <c r="BM230" s="4"/>
       <c r="BN230" s="4"/>
-    </row>
-    <row r="231" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO230" s="4"/>
+      <c r="BP230" s="4"/>
+      <c r="BQ230" s="4"/>
+      <c r="BR230" s="4"/>
+    </row>
+    <row r="231" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -16415,8 +17704,12 @@
       <c r="BL231" s="4"/>
       <c r="BM231" s="4"/>
       <c r="BN231" s="4"/>
-    </row>
-    <row r="232" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO231" s="4"/>
+      <c r="BP231" s="4"/>
+      <c r="BQ231" s="4"/>
+      <c r="BR231" s="4"/>
+    </row>
+    <row r="232" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -16481,8 +17774,12 @@
       <c r="BL232" s="4"/>
       <c r="BM232" s="4"/>
       <c r="BN232" s="4"/>
-    </row>
-    <row r="233" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO232" s="4"/>
+      <c r="BP232" s="4"/>
+      <c r="BQ232" s="4"/>
+      <c r="BR232" s="4"/>
+    </row>
+    <row r="233" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -16547,8 +17844,12 @@
       <c r="BL233" s="4"/>
       <c r="BM233" s="4"/>
       <c r="BN233" s="4"/>
-    </row>
-    <row r="234" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO233" s="4"/>
+      <c r="BP233" s="4"/>
+      <c r="BQ233" s="4"/>
+      <c r="BR233" s="4"/>
+    </row>
+    <row r="234" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -16613,8 +17914,12 @@
       <c r="BL234" s="4"/>
       <c r="BM234" s="4"/>
       <c r="BN234" s="4"/>
-    </row>
-    <row r="235" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO234" s="4"/>
+      <c r="BP234" s="4"/>
+      <c r="BQ234" s="4"/>
+      <c r="BR234" s="4"/>
+    </row>
+    <row r="235" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -16679,8 +17984,12 @@
       <c r="BL235" s="4"/>
       <c r="BM235" s="4"/>
       <c r="BN235" s="4"/>
-    </row>
-    <row r="236" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO235" s="4"/>
+      <c r="BP235" s="4"/>
+      <c r="BQ235" s="4"/>
+      <c r="BR235" s="4"/>
+    </row>
+    <row r="236" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -16745,8 +18054,12 @@
       <c r="BL236" s="4"/>
       <c r="BM236" s="4"/>
       <c r="BN236" s="4"/>
-    </row>
-    <row r="237" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO236" s="4"/>
+      <c r="BP236" s="4"/>
+      <c r="BQ236" s="4"/>
+      <c r="BR236" s="4"/>
+    </row>
+    <row r="237" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -16811,8 +18124,12 @@
       <c r="BL237" s="4"/>
       <c r="BM237" s="4"/>
       <c r="BN237" s="4"/>
-    </row>
-    <row r="238" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO237" s="4"/>
+      <c r="BP237" s="4"/>
+      <c r="BQ237" s="4"/>
+      <c r="BR237" s="4"/>
+    </row>
+    <row r="238" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -16877,8 +18194,12 @@
       <c r="BL238" s="4"/>
       <c r="BM238" s="4"/>
       <c r="BN238" s="4"/>
-    </row>
-    <row r="239" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO238" s="4"/>
+      <c r="BP238" s="4"/>
+      <c r="BQ238" s="4"/>
+      <c r="BR238" s="4"/>
+    </row>
+    <row r="239" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -16943,8 +18264,12 @@
       <c r="BL239" s="4"/>
       <c r="BM239" s="4"/>
       <c r="BN239" s="4"/>
-    </row>
-    <row r="240" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO239" s="4"/>
+      <c r="BP239" s="4"/>
+      <c r="BQ239" s="4"/>
+      <c r="BR239" s="4"/>
+    </row>
+    <row r="240" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -17009,8 +18334,12 @@
       <c r="BL240" s="4"/>
       <c r="BM240" s="4"/>
       <c r="BN240" s="4"/>
-    </row>
-    <row r="241" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO240" s="4"/>
+      <c r="BP240" s="4"/>
+      <c r="BQ240" s="4"/>
+      <c r="BR240" s="4"/>
+    </row>
+    <row r="241" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -17075,8 +18404,12 @@
       <c r="BL241" s="4"/>
       <c r="BM241" s="4"/>
       <c r="BN241" s="4"/>
-    </row>
-    <row r="242" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO241" s="4"/>
+      <c r="BP241" s="4"/>
+      <c r="BQ241" s="4"/>
+      <c r="BR241" s="4"/>
+    </row>
+    <row r="242" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -17141,8 +18474,12 @@
       <c r="BL242" s="4"/>
       <c r="BM242" s="4"/>
       <c r="BN242" s="4"/>
-    </row>
-    <row r="243" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO242" s="4"/>
+      <c r="BP242" s="4"/>
+      <c r="BQ242" s="4"/>
+      <c r="BR242" s="4"/>
+    </row>
+    <row r="243" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -17207,8 +18544,12 @@
       <c r="BL243" s="4"/>
       <c r="BM243" s="4"/>
       <c r="BN243" s="4"/>
-    </row>
-    <row r="244" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO243" s="4"/>
+      <c r="BP243" s="4"/>
+      <c r="BQ243" s="4"/>
+      <c r="BR243" s="4"/>
+    </row>
+    <row r="244" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -17273,8 +18614,12 @@
       <c r="BL244" s="4"/>
       <c r="BM244" s="4"/>
       <c r="BN244" s="4"/>
-    </row>
-    <row r="245" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO244" s="4"/>
+      <c r="BP244" s="4"/>
+      <c r="BQ244" s="4"/>
+      <c r="BR244" s="4"/>
+    </row>
+    <row r="245" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -17339,8 +18684,12 @@
       <c r="BL245" s="4"/>
       <c r="BM245" s="4"/>
       <c r="BN245" s="4"/>
-    </row>
-    <row r="246" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO245" s="4"/>
+      <c r="BP245" s="4"/>
+      <c r="BQ245" s="4"/>
+      <c r="BR245" s="4"/>
+    </row>
+    <row r="246" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -17405,8 +18754,12 @@
       <c r="BL246" s="4"/>
       <c r="BM246" s="4"/>
       <c r="BN246" s="4"/>
-    </row>
-    <row r="247" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO246" s="4"/>
+      <c r="BP246" s="4"/>
+      <c r="BQ246" s="4"/>
+      <c r="BR246" s="4"/>
+    </row>
+    <row r="247" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -17471,8 +18824,12 @@
       <c r="BL247" s="4"/>
       <c r="BM247" s="4"/>
       <c r="BN247" s="4"/>
-    </row>
-    <row r="248" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO247" s="4"/>
+      <c r="BP247" s="4"/>
+      <c r="BQ247" s="4"/>
+      <c r="BR247" s="4"/>
+    </row>
+    <row r="248" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -17537,8 +18894,12 @@
       <c r="BL248" s="4"/>
       <c r="BM248" s="4"/>
       <c r="BN248" s="4"/>
-    </row>
-    <row r="249" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO248" s="4"/>
+      <c r="BP248" s="4"/>
+      <c r="BQ248" s="4"/>
+      <c r="BR248" s="4"/>
+    </row>
+    <row r="249" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -17603,8 +18964,12 @@
       <c r="BL249" s="4"/>
       <c r="BM249" s="4"/>
       <c r="BN249" s="4"/>
-    </row>
-    <row r="250" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO249" s="4"/>
+      <c r="BP249" s="4"/>
+      <c r="BQ249" s="4"/>
+      <c r="BR249" s="4"/>
+    </row>
+    <row r="250" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -17669,8 +19034,12 @@
       <c r="BL250" s="4"/>
       <c r="BM250" s="4"/>
       <c r="BN250" s="4"/>
-    </row>
-    <row r="251" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO250" s="4"/>
+      <c r="BP250" s="4"/>
+      <c r="BQ250" s="4"/>
+      <c r="BR250" s="4"/>
+    </row>
+    <row r="251" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -17735,8 +19104,12 @@
       <c r="BL251" s="4"/>
       <c r="BM251" s="4"/>
       <c r="BN251" s="4"/>
-    </row>
-    <row r="252" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO251" s="4"/>
+      <c r="BP251" s="4"/>
+      <c r="BQ251" s="4"/>
+      <c r="BR251" s="4"/>
+    </row>
+    <row r="252" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -17801,8 +19174,12 @@
       <c r="BL252" s="4"/>
       <c r="BM252" s="4"/>
       <c r="BN252" s="4"/>
-    </row>
-    <row r="253" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO252" s="4"/>
+      <c r="BP252" s="4"/>
+      <c r="BQ252" s="4"/>
+      <c r="BR252" s="4"/>
+    </row>
+    <row r="253" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -17867,8 +19244,12 @@
       <c r="BL253" s="4"/>
       <c r="BM253" s="4"/>
       <c r="BN253" s="4"/>
-    </row>
-    <row r="254" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO253" s="4"/>
+      <c r="BP253" s="4"/>
+      <c r="BQ253" s="4"/>
+      <c r="BR253" s="4"/>
+    </row>
+    <row r="254" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -17933,8 +19314,12 @@
       <c r="BL254" s="4"/>
       <c r="BM254" s="4"/>
       <c r="BN254" s="4"/>
-    </row>
-    <row r="255" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO254" s="4"/>
+      <c r="BP254" s="4"/>
+      <c r="BQ254" s="4"/>
+      <c r="BR254" s="4"/>
+    </row>
+    <row r="255" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -17999,8 +19384,12 @@
       <c r="BL255" s="4"/>
       <c r="BM255" s="4"/>
       <c r="BN255" s="4"/>
-    </row>
-    <row r="256" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO255" s="4"/>
+      <c r="BP255" s="4"/>
+      <c r="BQ255" s="4"/>
+      <c r="BR255" s="4"/>
+    </row>
+    <row r="256" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -18065,8 +19454,12 @@
       <c r="BL256" s="4"/>
       <c r="BM256" s="4"/>
       <c r="BN256" s="4"/>
-    </row>
-    <row r="257" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO256" s="4"/>
+      <c r="BP256" s="4"/>
+      <c r="BQ256" s="4"/>
+      <c r="BR256" s="4"/>
+    </row>
+    <row r="257" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -18131,8 +19524,12 @@
       <c r="BL257" s="4"/>
       <c r="BM257" s="4"/>
       <c r="BN257" s="4"/>
-    </row>
-    <row r="258" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO257" s="4"/>
+      <c r="BP257" s="4"/>
+      <c r="BQ257" s="4"/>
+      <c r="BR257" s="4"/>
+    </row>
+    <row r="258" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -18197,8 +19594,12 @@
       <c r="BL258" s="4"/>
       <c r="BM258" s="4"/>
       <c r="BN258" s="4"/>
-    </row>
-    <row r="259" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO258" s="4"/>
+      <c r="BP258" s="4"/>
+      <c r="BQ258" s="4"/>
+      <c r="BR258" s="4"/>
+    </row>
+    <row r="259" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -18263,8 +19664,12 @@
       <c r="BL259" s="4"/>
       <c r="BM259" s="4"/>
       <c r="BN259" s="4"/>
-    </row>
-    <row r="260" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO259" s="4"/>
+      <c r="BP259" s="4"/>
+      <c r="BQ259" s="4"/>
+      <c r="BR259" s="4"/>
+    </row>
+    <row r="260" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -18329,8 +19734,12 @@
       <c r="BL260" s="4"/>
       <c r="BM260" s="4"/>
       <c r="BN260" s="4"/>
-    </row>
-    <row r="261" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO260" s="4"/>
+      <c r="BP260" s="4"/>
+      <c r="BQ260" s="4"/>
+      <c r="BR260" s="4"/>
+    </row>
+    <row r="261" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -18395,8 +19804,12 @@
       <c r="BL261" s="4"/>
       <c r="BM261" s="4"/>
       <c r="BN261" s="4"/>
-    </row>
-    <row r="262" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO261" s="4"/>
+      <c r="BP261" s="4"/>
+      <c r="BQ261" s="4"/>
+      <c r="BR261" s="4"/>
+    </row>
+    <row r="262" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -18461,8 +19874,12 @@
       <c r="BL262" s="4"/>
       <c r="BM262" s="4"/>
       <c r="BN262" s="4"/>
-    </row>
-    <row r="263" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO262" s="4"/>
+      <c r="BP262" s="4"/>
+      <c r="BQ262" s="4"/>
+      <c r="BR262" s="4"/>
+    </row>
+    <row r="263" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -18527,8 +19944,12 @@
       <c r="BL263" s="4"/>
       <c r="BM263" s="4"/>
       <c r="BN263" s="4"/>
-    </row>
-    <row r="264" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO263" s="4"/>
+      <c r="BP263" s="4"/>
+      <c r="BQ263" s="4"/>
+      <c r="BR263" s="4"/>
+    </row>
+    <row r="264" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -18593,8 +20014,12 @@
       <c r="BL264" s="4"/>
       <c r="BM264" s="4"/>
       <c r="BN264" s="4"/>
-    </row>
-    <row r="265" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO264" s="4"/>
+      <c r="BP264" s="4"/>
+      <c r="BQ264" s="4"/>
+      <c r="BR264" s="4"/>
+    </row>
+    <row r="265" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -18659,8 +20084,12 @@
       <c r="BL265" s="4"/>
       <c r="BM265" s="4"/>
       <c r="BN265" s="4"/>
-    </row>
-    <row r="266" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO265" s="4"/>
+      <c r="BP265" s="4"/>
+      <c r="BQ265" s="4"/>
+      <c r="BR265" s="4"/>
+    </row>
+    <row r="266" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -18725,8 +20154,12 @@
       <c r="BL266" s="4"/>
       <c r="BM266" s="4"/>
       <c r="BN266" s="4"/>
-    </row>
-    <row r="267" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO266" s="4"/>
+      <c r="BP266" s="4"/>
+      <c r="BQ266" s="4"/>
+      <c r="BR266" s="4"/>
+    </row>
+    <row r="267" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -18791,8 +20224,12 @@
       <c r="BL267" s="4"/>
       <c r="BM267" s="4"/>
       <c r="BN267" s="4"/>
-    </row>
-    <row r="268" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO267" s="4"/>
+      <c r="BP267" s="4"/>
+      <c r="BQ267" s="4"/>
+      <c r="BR267" s="4"/>
+    </row>
+    <row r="268" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -18857,8 +20294,12 @@
       <c r="BL268" s="4"/>
       <c r="BM268" s="4"/>
       <c r="BN268" s="4"/>
-    </row>
-    <row r="269" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO268" s="4"/>
+      <c r="BP268" s="4"/>
+      <c r="BQ268" s="4"/>
+      <c r="BR268" s="4"/>
+    </row>
+    <row r="269" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -18923,8 +20364,12 @@
       <c r="BL269" s="4"/>
       <c r="BM269" s="4"/>
       <c r="BN269" s="4"/>
-    </row>
-    <row r="270" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO269" s="4"/>
+      <c r="BP269" s="4"/>
+      <c r="BQ269" s="4"/>
+      <c r="BR269" s="4"/>
+    </row>
+    <row r="270" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -18989,8 +20434,12 @@
       <c r="BL270" s="4"/>
       <c r="BM270" s="4"/>
       <c r="BN270" s="4"/>
-    </row>
-    <row r="271" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO270" s="4"/>
+      <c r="BP270" s="4"/>
+      <c r="BQ270" s="4"/>
+      <c r="BR270" s="4"/>
+    </row>
+    <row r="271" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -19055,8 +20504,12 @@
       <c r="BL271" s="4"/>
       <c r="BM271" s="4"/>
       <c r="BN271" s="4"/>
-    </row>
-    <row r="272" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO271" s="4"/>
+      <c r="BP271" s="4"/>
+      <c r="BQ271" s="4"/>
+      <c r="BR271" s="4"/>
+    </row>
+    <row r="272" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
@@ -19121,8 +20574,12 @@
       <c r="BL272" s="4"/>
       <c r="BM272" s="4"/>
       <c r="BN272" s="4"/>
-    </row>
-    <row r="273" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO272" s="4"/>
+      <c r="BP272" s="4"/>
+      <c r="BQ272" s="4"/>
+      <c r="BR272" s="4"/>
+    </row>
+    <row r="273" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -19187,8 +20644,12 @@
       <c r="BL273" s="4"/>
       <c r="BM273" s="4"/>
       <c r="BN273" s="4"/>
-    </row>
-    <row r="274" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO273" s="4"/>
+      <c r="BP273" s="4"/>
+      <c r="BQ273" s="4"/>
+      <c r="BR273" s="4"/>
+    </row>
+    <row r="274" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
@@ -19253,8 +20714,12 @@
       <c r="BL274" s="4"/>
       <c r="BM274" s="4"/>
       <c r="BN274" s="4"/>
-    </row>
-    <row r="275" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO274" s="4"/>
+      <c r="BP274" s="4"/>
+      <c r="BQ274" s="4"/>
+      <c r="BR274" s="4"/>
+    </row>
+    <row r="275" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -19319,8 +20784,12 @@
       <c r="BL275" s="4"/>
       <c r="BM275" s="4"/>
       <c r="BN275" s="4"/>
-    </row>
-    <row r="276" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO275" s="4"/>
+      <c r="BP275" s="4"/>
+      <c r="BQ275" s="4"/>
+      <c r="BR275" s="4"/>
+    </row>
+    <row r="276" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
@@ -19385,8 +20854,12 @@
       <c r="BL276" s="4"/>
       <c r="BM276" s="4"/>
       <c r="BN276" s="4"/>
-    </row>
-    <row r="277" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO276" s="4"/>
+      <c r="BP276" s="4"/>
+      <c r="BQ276" s="4"/>
+      <c r="BR276" s="4"/>
+    </row>
+    <row r="277" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -19451,8 +20924,12 @@
       <c r="BL277" s="4"/>
       <c r="BM277" s="4"/>
       <c r="BN277" s="4"/>
-    </row>
-    <row r="278" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO277" s="4"/>
+      <c r="BP277" s="4"/>
+      <c r="BQ277" s="4"/>
+      <c r="BR277" s="4"/>
+    </row>
+    <row r="278" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -19517,8 +20994,12 @@
       <c r="BL278" s="4"/>
       <c r="BM278" s="4"/>
       <c r="BN278" s="4"/>
-    </row>
-    <row r="279" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO278" s="4"/>
+      <c r="BP278" s="4"/>
+      <c r="BQ278" s="4"/>
+      <c r="BR278" s="4"/>
+    </row>
+    <row r="279" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -19583,8 +21064,12 @@
       <c r="BL279" s="4"/>
       <c r="BM279" s="4"/>
       <c r="BN279" s="4"/>
-    </row>
-    <row r="280" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO279" s="4"/>
+      <c r="BP279" s="4"/>
+      <c r="BQ279" s="4"/>
+      <c r="BR279" s="4"/>
+    </row>
+    <row r="280" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -19649,8 +21134,12 @@
       <c r="BL280" s="4"/>
       <c r="BM280" s="4"/>
       <c r="BN280" s="4"/>
-    </row>
-    <row r="281" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO280" s="4"/>
+      <c r="BP280" s="4"/>
+      <c r="BQ280" s="4"/>
+      <c r="BR280" s="4"/>
+    </row>
+    <row r="281" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -19715,8 +21204,12 @@
       <c r="BL281" s="4"/>
       <c r="BM281" s="4"/>
       <c r="BN281" s="4"/>
-    </row>
-    <row r="282" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO281" s="4"/>
+      <c r="BP281" s="4"/>
+      <c r="BQ281" s="4"/>
+      <c r="BR281" s="4"/>
+    </row>
+    <row r="282" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
@@ -19781,8 +21274,12 @@
       <c r="BL282" s="4"/>
       <c r="BM282" s="4"/>
       <c r="BN282" s="4"/>
-    </row>
-    <row r="283" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO282" s="4"/>
+      <c r="BP282" s="4"/>
+      <c r="BQ282" s="4"/>
+      <c r="BR282" s="4"/>
+    </row>
+    <row r="283" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -19847,8 +21344,12 @@
       <c r="BL283" s="4"/>
       <c r="BM283" s="4"/>
       <c r="BN283" s="4"/>
-    </row>
-    <row r="284" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO283" s="4"/>
+      <c r="BP283" s="4"/>
+      <c r="BQ283" s="4"/>
+      <c r="BR283" s="4"/>
+    </row>
+    <row r="284" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
@@ -19913,8 +21414,12 @@
       <c r="BL284" s="4"/>
       <c r="BM284" s="4"/>
       <c r="BN284" s="4"/>
-    </row>
-    <row r="285" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO284" s="4"/>
+      <c r="BP284" s="4"/>
+      <c r="BQ284" s="4"/>
+      <c r="BR284" s="4"/>
+    </row>
+    <row r="285" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -19979,8 +21484,12 @@
       <c r="BL285" s="4"/>
       <c r="BM285" s="4"/>
       <c r="BN285" s="4"/>
-    </row>
-    <row r="286" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO285" s="4"/>
+      <c r="BP285" s="4"/>
+      <c r="BQ285" s="4"/>
+      <c r="BR285" s="4"/>
+    </row>
+    <row r="286" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
@@ -20045,8 +21554,12 @@
       <c r="BL286" s="4"/>
       <c r="BM286" s="4"/>
       <c r="BN286" s="4"/>
-    </row>
-    <row r="287" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO286" s="4"/>
+      <c r="BP286" s="4"/>
+      <c r="BQ286" s="4"/>
+      <c r="BR286" s="4"/>
+    </row>
+    <row r="287" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -20111,8 +21624,12 @@
       <c r="BL287" s="4"/>
       <c r="BM287" s="4"/>
       <c r="BN287" s="4"/>
-    </row>
-    <row r="288" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO287" s="4"/>
+      <c r="BP287" s="4"/>
+      <c r="BQ287" s="4"/>
+      <c r="BR287" s="4"/>
+    </row>
+    <row r="288" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
@@ -20177,8 +21694,12 @@
       <c r="BL288" s="4"/>
       <c r="BM288" s="4"/>
       <c r="BN288" s="4"/>
-    </row>
-    <row r="289" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO288" s="4"/>
+      <c r="BP288" s="4"/>
+      <c r="BQ288" s="4"/>
+      <c r="BR288" s="4"/>
+    </row>
+    <row r="289" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -20243,8 +21764,12 @@
       <c r="BL289" s="4"/>
       <c r="BM289" s="4"/>
       <c r="BN289" s="4"/>
-    </row>
-    <row r="290" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO289" s="4"/>
+      <c r="BP289" s="4"/>
+      <c r="BQ289" s="4"/>
+      <c r="BR289" s="4"/>
+    </row>
+    <row r="290" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
@@ -20309,8 +21834,12 @@
       <c r="BL290" s="4"/>
       <c r="BM290" s="4"/>
       <c r="BN290" s="4"/>
-    </row>
-    <row r="291" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO290" s="4"/>
+      <c r="BP290" s="4"/>
+      <c r="BQ290" s="4"/>
+      <c r="BR290" s="4"/>
+    </row>
+    <row r="291" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -20375,8 +21904,12 @@
       <c r="BL291" s="4"/>
       <c r="BM291" s="4"/>
       <c r="BN291" s="4"/>
-    </row>
-    <row r="292" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO291" s="4"/>
+      <c r="BP291" s="4"/>
+      <c r="BQ291" s="4"/>
+      <c r="BR291" s="4"/>
+    </row>
+    <row r="292" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -20441,8 +21974,12 @@
       <c r="BL292" s="4"/>
       <c r="BM292" s="4"/>
       <c r="BN292" s="4"/>
-    </row>
-    <row r="293" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO292" s="4"/>
+      <c r="BP292" s="4"/>
+      <c r="BQ292" s="4"/>
+      <c r="BR292" s="4"/>
+    </row>
+    <row r="293" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -20507,8 +22044,12 @@
       <c r="BL293" s="4"/>
       <c r="BM293" s="4"/>
       <c r="BN293" s="4"/>
-    </row>
-    <row r="294" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO293" s="4"/>
+      <c r="BP293" s="4"/>
+      <c r="BQ293" s="4"/>
+      <c r="BR293" s="4"/>
+    </row>
+    <row r="294" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
@@ -20573,8 +22114,12 @@
       <c r="BL294" s="4"/>
       <c r="BM294" s="4"/>
       <c r="BN294" s="4"/>
-    </row>
-    <row r="295" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO294" s="4"/>
+      <c r="BP294" s="4"/>
+      <c r="BQ294" s="4"/>
+      <c r="BR294" s="4"/>
+    </row>
+    <row r="295" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -20639,8 +22184,12 @@
       <c r="BL295" s="4"/>
       <c r="BM295" s="4"/>
       <c r="BN295" s="4"/>
-    </row>
-    <row r="296" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO295" s="4"/>
+      <c r="BP295" s="4"/>
+      <c r="BQ295" s="4"/>
+      <c r="BR295" s="4"/>
+    </row>
+    <row r="296" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
@@ -20705,8 +22254,12 @@
       <c r="BL296" s="4"/>
       <c r="BM296" s="4"/>
       <c r="BN296" s="4"/>
-    </row>
-    <row r="297" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO296" s="4"/>
+      <c r="BP296" s="4"/>
+      <c r="BQ296" s="4"/>
+      <c r="BR296" s="4"/>
+    </row>
+    <row r="297" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -20771,8 +22324,12 @@
       <c r="BL297" s="4"/>
       <c r="BM297" s="4"/>
       <c r="BN297" s="4"/>
-    </row>
-    <row r="298" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO297" s="4"/>
+      <c r="BP297" s="4"/>
+      <c r="BQ297" s="4"/>
+      <c r="BR297" s="4"/>
+    </row>
+    <row r="298" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
@@ -20837,8 +22394,12 @@
       <c r="BL298" s="4"/>
       <c r="BM298" s="4"/>
       <c r="BN298" s="4"/>
-    </row>
-    <row r="299" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO298" s="4"/>
+      <c r="BP298" s="4"/>
+      <c r="BQ298" s="4"/>
+      <c r="BR298" s="4"/>
+    </row>
+    <row r="299" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -20903,8 +22464,12 @@
       <c r="BL299" s="4"/>
       <c r="BM299" s="4"/>
       <c r="BN299" s="4"/>
-    </row>
-    <row r="300" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO299" s="4"/>
+      <c r="BP299" s="4"/>
+      <c r="BQ299" s="4"/>
+      <c r="BR299" s="4"/>
+    </row>
+    <row r="300" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
@@ -20969,8 +22534,12 @@
       <c r="BL300" s="4"/>
       <c r="BM300" s="4"/>
       <c r="BN300" s="4"/>
-    </row>
-    <row r="301" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO300" s="4"/>
+      <c r="BP300" s="4"/>
+      <c r="BQ300" s="4"/>
+      <c r="BR300" s="4"/>
+    </row>
+    <row r="301" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -21035,8 +22604,12 @@
       <c r="BL301" s="4"/>
       <c r="BM301" s="4"/>
       <c r="BN301" s="4"/>
-    </row>
-    <row r="302" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO301" s="4"/>
+      <c r="BP301" s="4"/>
+      <c r="BQ301" s="4"/>
+      <c r="BR301" s="4"/>
+    </row>
+    <row r="302" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
@@ -21101,8 +22674,12 @@
       <c r="BL302" s="4"/>
       <c r="BM302" s="4"/>
       <c r="BN302" s="4"/>
-    </row>
-    <row r="303" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO302" s="4"/>
+      <c r="BP302" s="4"/>
+      <c r="BQ302" s="4"/>
+      <c r="BR302" s="4"/>
+    </row>
+    <row r="303" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -21167,8 +22744,12 @@
       <c r="BL303" s="4"/>
       <c r="BM303" s="4"/>
       <c r="BN303" s="4"/>
-    </row>
-    <row r="304" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO303" s="4"/>
+      <c r="BP303" s="4"/>
+      <c r="BQ303" s="4"/>
+      <c r="BR303" s="4"/>
+    </row>
+    <row r="304" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
@@ -21233,8 +22814,12 @@
       <c r="BL304" s="4"/>
       <c r="BM304" s="4"/>
       <c r="BN304" s="4"/>
-    </row>
-    <row r="305" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO304" s="4"/>
+      <c r="BP304" s="4"/>
+      <c r="BQ304" s="4"/>
+      <c r="BR304" s="4"/>
+    </row>
+    <row r="305" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -21299,8 +22884,12 @@
       <c r="BL305" s="4"/>
       <c r="BM305" s="4"/>
       <c r="BN305" s="4"/>
-    </row>
-    <row r="306" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO305" s="4"/>
+      <c r="BP305" s="4"/>
+      <c r="BQ305" s="4"/>
+      <c r="BR305" s="4"/>
+    </row>
+    <row r="306" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
@@ -21365,8 +22954,12 @@
       <c r="BL306" s="4"/>
       <c r="BM306" s="4"/>
       <c r="BN306" s="4"/>
-    </row>
-    <row r="307" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO306" s="4"/>
+      <c r="BP306" s="4"/>
+      <c r="BQ306" s="4"/>
+      <c r="BR306" s="4"/>
+    </row>
+    <row r="307" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -21431,8 +23024,12 @@
       <c r="BL307" s="4"/>
       <c r="BM307" s="4"/>
       <c r="BN307" s="4"/>
-    </row>
-    <row r="308" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO307" s="4"/>
+      <c r="BP307" s="4"/>
+      <c r="BQ307" s="4"/>
+      <c r="BR307" s="4"/>
+    </row>
+    <row r="308" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
@@ -21497,8 +23094,12 @@
       <c r="BL308" s="4"/>
       <c r="BM308" s="4"/>
       <c r="BN308" s="4"/>
-    </row>
-    <row r="309" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO308" s="4"/>
+      <c r="BP308" s="4"/>
+      <c r="BQ308" s="4"/>
+      <c r="BR308" s="4"/>
+    </row>
+    <row r="309" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -21563,8 +23164,12 @@
       <c r="BL309" s="4"/>
       <c r="BM309" s="4"/>
       <c r="BN309" s="4"/>
-    </row>
-    <row r="310" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO309" s="4"/>
+      <c r="BP309" s="4"/>
+      <c r="BQ309" s="4"/>
+      <c r="BR309" s="4"/>
+    </row>
+    <row r="310" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
@@ -21629,8 +23234,12 @@
       <c r="BL310" s="4"/>
       <c r="BM310" s="4"/>
       <c r="BN310" s="4"/>
-    </row>
-    <row r="311" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO310" s="4"/>
+      <c r="BP310" s="4"/>
+      <c r="BQ310" s="4"/>
+      <c r="BR310" s="4"/>
+    </row>
+    <row r="311" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -21695,8 +23304,12 @@
       <c r="BL311" s="4"/>
       <c r="BM311" s="4"/>
       <c r="BN311" s="4"/>
-    </row>
-    <row r="312" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO311" s="4"/>
+      <c r="BP311" s="4"/>
+      <c r="BQ311" s="4"/>
+      <c r="BR311" s="4"/>
+    </row>
+    <row r="312" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
@@ -21761,8 +23374,12 @@
       <c r="BL312" s="4"/>
       <c r="BM312" s="4"/>
       <c r="BN312" s="4"/>
-    </row>
-    <row r="313" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO312" s="4"/>
+      <c r="BP312" s="4"/>
+      <c r="BQ312" s="4"/>
+      <c r="BR312" s="4"/>
+    </row>
+    <row r="313" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -21827,8 +23444,12 @@
       <c r="BL313" s="4"/>
       <c r="BM313" s="4"/>
       <c r="BN313" s="4"/>
-    </row>
-    <row r="314" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO313" s="4"/>
+      <c r="BP313" s="4"/>
+      <c r="BQ313" s="4"/>
+      <c r="BR313" s="4"/>
+    </row>
+    <row r="314" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
@@ -21893,8 +23514,12 @@
       <c r="BL314" s="4"/>
       <c r="BM314" s="4"/>
       <c r="BN314" s="4"/>
-    </row>
-    <row r="315" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO314" s="4"/>
+      <c r="BP314" s="4"/>
+      <c r="BQ314" s="4"/>
+      <c r="BR314" s="4"/>
+    </row>
+    <row r="315" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -21959,8 +23584,12 @@
       <c r="BL315" s="4"/>
       <c r="BM315" s="4"/>
       <c r="BN315" s="4"/>
-    </row>
-    <row r="316" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO315" s="4"/>
+      <c r="BP315" s="4"/>
+      <c r="BQ315" s="4"/>
+      <c r="BR315" s="4"/>
+    </row>
+    <row r="316" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -22025,8 +23654,12 @@
       <c r="BL316" s="4"/>
       <c r="BM316" s="4"/>
       <c r="BN316" s="4"/>
-    </row>
-    <row r="317" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO316" s="4"/>
+      <c r="BP316" s="4"/>
+      <c r="BQ316" s="4"/>
+      <c r="BR316" s="4"/>
+    </row>
+    <row r="317" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -22091,8 +23724,12 @@
       <c r="BL317" s="4"/>
       <c r="BM317" s="4"/>
       <c r="BN317" s="4"/>
-    </row>
-    <row r="318" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO317" s="4"/>
+      <c r="BP317" s="4"/>
+      <c r="BQ317" s="4"/>
+      <c r="BR317" s="4"/>
+    </row>
+    <row r="318" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -22157,8 +23794,12 @@
       <c r="BL318" s="4"/>
       <c r="BM318" s="4"/>
       <c r="BN318" s="4"/>
-    </row>
-    <row r="319" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO318" s="4"/>
+      <c r="BP318" s="4"/>
+      <c r="BQ318" s="4"/>
+      <c r="BR318" s="4"/>
+    </row>
+    <row r="319" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -22223,8 +23864,12 @@
       <c r="BL319" s="4"/>
       <c r="BM319" s="4"/>
       <c r="BN319" s="4"/>
-    </row>
-    <row r="320" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO319" s="4"/>
+      <c r="BP319" s="4"/>
+      <c r="BQ319" s="4"/>
+      <c r="BR319" s="4"/>
+    </row>
+    <row r="320" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -22289,8 +23934,12 @@
       <c r="BL320" s="4"/>
       <c r="BM320" s="4"/>
       <c r="BN320" s="4"/>
-    </row>
-    <row r="321" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO320" s="4"/>
+      <c r="BP320" s="4"/>
+      <c r="BQ320" s="4"/>
+      <c r="BR320" s="4"/>
+    </row>
+    <row r="321" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -22355,8 +24004,12 @@
       <c r="BL321" s="4"/>
       <c r="BM321" s="4"/>
       <c r="BN321" s="4"/>
-    </row>
-    <row r="322" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO321" s="4"/>
+      <c r="BP321" s="4"/>
+      <c r="BQ321" s="4"/>
+      <c r="BR321" s="4"/>
+    </row>
+    <row r="322" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
@@ -22421,8 +24074,12 @@
       <c r="BL322" s="4"/>
       <c r="BM322" s="4"/>
       <c r="BN322" s="4"/>
-    </row>
-    <row r="323" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO322" s="4"/>
+      <c r="BP322" s="4"/>
+      <c r="BQ322" s="4"/>
+      <c r="BR322" s="4"/>
+    </row>
+    <row r="323" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -22487,8 +24144,12 @@
       <c r="BL323" s="4"/>
       <c r="BM323" s="4"/>
       <c r="BN323" s="4"/>
-    </row>
-    <row r="324" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO323" s="4"/>
+      <c r="BP323" s="4"/>
+      <c r="BQ323" s="4"/>
+      <c r="BR323" s="4"/>
+    </row>
+    <row r="324" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
@@ -22553,8 +24214,12 @@
       <c r="BL324" s="4"/>
       <c r="BM324" s="4"/>
       <c r="BN324" s="4"/>
-    </row>
-    <row r="325" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO324" s="4"/>
+      <c r="BP324" s="4"/>
+      <c r="BQ324" s="4"/>
+      <c r="BR324" s="4"/>
+    </row>
+    <row r="325" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -22619,8 +24284,12 @@
       <c r="BL325" s="4"/>
       <c r="BM325" s="4"/>
       <c r="BN325" s="4"/>
-    </row>
-    <row r="326" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO325" s="4"/>
+      <c r="BP325" s="4"/>
+      <c r="BQ325" s="4"/>
+      <c r="BR325" s="4"/>
+    </row>
+    <row r="326" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -22685,8 +24354,12 @@
       <c r="BL326" s="4"/>
       <c r="BM326" s="4"/>
       <c r="BN326" s="4"/>
-    </row>
-    <row r="327" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO326" s="4"/>
+      <c r="BP326" s="4"/>
+      <c r="BQ326" s="4"/>
+      <c r="BR326" s="4"/>
+    </row>
+    <row r="327" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -22751,8 +24424,12 @@
       <c r="BL327" s="4"/>
       <c r="BM327" s="4"/>
       <c r="BN327" s="4"/>
-    </row>
-    <row r="328" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO327" s="4"/>
+      <c r="BP327" s="4"/>
+      <c r="BQ327" s="4"/>
+      <c r="BR327" s="4"/>
+    </row>
+    <row r="328" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -22817,8 +24494,12 @@
       <c r="BL328" s="4"/>
       <c r="BM328" s="4"/>
       <c r="BN328" s="4"/>
-    </row>
-    <row r="329" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO328" s="4"/>
+      <c r="BP328" s="4"/>
+      <c r="BQ328" s="4"/>
+      <c r="BR328" s="4"/>
+    </row>
+    <row r="329" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -22883,8 +24564,12 @@
       <c r="BL329" s="4"/>
       <c r="BM329" s="4"/>
       <c r="BN329" s="4"/>
-    </row>
-    <row r="330" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO329" s="4"/>
+      <c r="BP329" s="4"/>
+      <c r="BQ329" s="4"/>
+      <c r="BR329" s="4"/>
+    </row>
+    <row r="330" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -22949,8 +24634,12 @@
       <c r="BL330" s="4"/>
       <c r="BM330" s="4"/>
       <c r="BN330" s="4"/>
-    </row>
-    <row r="331" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO330" s="4"/>
+      <c r="BP330" s="4"/>
+      <c r="BQ330" s="4"/>
+      <c r="BR330" s="4"/>
+    </row>
+    <row r="331" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -23015,8 +24704,12 @@
       <c r="BL331" s="4"/>
       <c r="BM331" s="4"/>
       <c r="BN331" s="4"/>
-    </row>
-    <row r="332" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO331" s="4"/>
+      <c r="BP331" s="4"/>
+      <c r="BQ331" s="4"/>
+      <c r="BR331" s="4"/>
+    </row>
+    <row r="332" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -23081,8 +24774,12 @@
       <c r="BL332" s="4"/>
       <c r="BM332" s="4"/>
       <c r="BN332" s="4"/>
-    </row>
-    <row r="333" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO332" s="4"/>
+      <c r="BP332" s="4"/>
+      <c r="BQ332" s="4"/>
+      <c r="BR332" s="4"/>
+    </row>
+    <row r="333" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -23147,8 +24844,12 @@
       <c r="BL333" s="4"/>
       <c r="BM333" s="4"/>
       <c r="BN333" s="4"/>
-    </row>
-    <row r="334" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO333" s="4"/>
+      <c r="BP333" s="4"/>
+      <c r="BQ333" s="4"/>
+      <c r="BR333" s="4"/>
+    </row>
+    <row r="334" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -23213,8 +24914,12 @@
       <c r="BL334" s="4"/>
       <c r="BM334" s="4"/>
       <c r="BN334" s="4"/>
-    </row>
-    <row r="335" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO334" s="4"/>
+      <c r="BP334" s="4"/>
+      <c r="BQ334" s="4"/>
+      <c r="BR334" s="4"/>
+    </row>
+    <row r="335" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -23279,8 +24984,12 @@
       <c r="BL335" s="4"/>
       <c r="BM335" s="4"/>
       <c r="BN335" s="4"/>
-    </row>
-    <row r="336" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO335" s="4"/>
+      <c r="BP335" s="4"/>
+      <c r="BQ335" s="4"/>
+      <c r="BR335" s="4"/>
+    </row>
+    <row r="336" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -23345,8 +25054,12 @@
       <c r="BL336" s="4"/>
       <c r="BM336" s="4"/>
       <c r="BN336" s="4"/>
-    </row>
-    <row r="337" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO336" s="4"/>
+      <c r="BP336" s="4"/>
+      <c r="BQ336" s="4"/>
+      <c r="BR336" s="4"/>
+    </row>
+    <row r="337" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -23411,8 +25124,12 @@
       <c r="BL337" s="4"/>
       <c r="BM337" s="4"/>
       <c r="BN337" s="4"/>
-    </row>
-    <row r="338" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO337" s="4"/>
+      <c r="BP337" s="4"/>
+      <c r="BQ337" s="4"/>
+      <c r="BR337" s="4"/>
+    </row>
+    <row r="338" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
@@ -23477,8 +25194,12 @@
       <c r="BL338" s="4"/>
       <c r="BM338" s="4"/>
       <c r="BN338" s="4"/>
-    </row>
-    <row r="339" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO338" s="4"/>
+      <c r="BP338" s="4"/>
+      <c r="BQ338" s="4"/>
+      <c r="BR338" s="4"/>
+    </row>
+    <row r="339" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -23543,8 +25264,12 @@
       <c r="BL339" s="4"/>
       <c r="BM339" s="4"/>
       <c r="BN339" s="4"/>
-    </row>
-    <row r="340" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO339" s="4"/>
+      <c r="BP339" s="4"/>
+      <c r="BQ339" s="4"/>
+      <c r="BR339" s="4"/>
+    </row>
+    <row r="340" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
@@ -23609,8 +25334,12 @@
       <c r="BL340" s="4"/>
       <c r="BM340" s="4"/>
       <c r="BN340" s="4"/>
-    </row>
-    <row r="341" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO340" s="4"/>
+      <c r="BP340" s="4"/>
+      <c r="BQ340" s="4"/>
+      <c r="BR340" s="4"/>
+    </row>
+    <row r="341" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -23675,8 +25404,12 @@
       <c r="BL341" s="4"/>
       <c r="BM341" s="4"/>
       <c r="BN341" s="4"/>
-    </row>
-    <row r="342" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO341" s="4"/>
+      <c r="BP341" s="4"/>
+      <c r="BQ341" s="4"/>
+      <c r="BR341" s="4"/>
+    </row>
+    <row r="342" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
@@ -23741,8 +25474,12 @@
       <c r="BL342" s="4"/>
       <c r="BM342" s="4"/>
       <c r="BN342" s="4"/>
-    </row>
-    <row r="343" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO342" s="4"/>
+      <c r="BP342" s="4"/>
+      <c r="BQ342" s="4"/>
+      <c r="BR342" s="4"/>
+    </row>
+    <row r="343" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -23807,8 +25544,12 @@
       <c r="BL343" s="4"/>
       <c r="BM343" s="4"/>
       <c r="BN343" s="4"/>
-    </row>
-    <row r="344" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO343" s="4"/>
+      <c r="BP343" s="4"/>
+      <c r="BQ343" s="4"/>
+      <c r="BR343" s="4"/>
+    </row>
+    <row r="344" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
@@ -23873,8 +25614,12 @@
       <c r="BL344" s="4"/>
       <c r="BM344" s="4"/>
       <c r="BN344" s="4"/>
-    </row>
-    <row r="345" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO344" s="4"/>
+      <c r="BP344" s="4"/>
+      <c r="BQ344" s="4"/>
+      <c r="BR344" s="4"/>
+    </row>
+    <row r="345" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -23939,8 +25684,12 @@
       <c r="BL345" s="4"/>
       <c r="BM345" s="4"/>
       <c r="BN345" s="4"/>
-    </row>
-    <row r="346" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO345" s="4"/>
+      <c r="BP345" s="4"/>
+      <c r="BQ345" s="4"/>
+      <c r="BR345" s="4"/>
+    </row>
+    <row r="346" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
@@ -24005,8 +25754,12 @@
       <c r="BL346" s="4"/>
       <c r="BM346" s="4"/>
       <c r="BN346" s="4"/>
-    </row>
-    <row r="347" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO346" s="4"/>
+      <c r="BP346" s="4"/>
+      <c r="BQ346" s="4"/>
+      <c r="BR346" s="4"/>
+    </row>
+    <row r="347" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -24071,8 +25824,12 @@
       <c r="BL347" s="4"/>
       <c r="BM347" s="4"/>
       <c r="BN347" s="4"/>
-    </row>
-    <row r="348" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO347" s="4"/>
+      <c r="BP347" s="4"/>
+      <c r="BQ347" s="4"/>
+      <c r="BR347" s="4"/>
+    </row>
+    <row r="348" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
@@ -24137,8 +25894,12 @@
       <c r="BL348" s="4"/>
       <c r="BM348" s="4"/>
       <c r="BN348" s="4"/>
-    </row>
-    <row r="349" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO348" s="4"/>
+      <c r="BP348" s="4"/>
+      <c r="BQ348" s="4"/>
+      <c r="BR348" s="4"/>
+    </row>
+    <row r="349" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -24203,8 +25964,12 @@
       <c r="BL349" s="4"/>
       <c r="BM349" s="4"/>
       <c r="BN349" s="4"/>
-    </row>
-    <row r="350" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO349" s="4"/>
+      <c r="BP349" s="4"/>
+      <c r="BQ349" s="4"/>
+      <c r="BR349" s="4"/>
+    </row>
+    <row r="350" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
@@ -24269,8 +26034,12 @@
       <c r="BL350" s="4"/>
       <c r="BM350" s="4"/>
       <c r="BN350" s="4"/>
-    </row>
-    <row r="351" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO350" s="4"/>
+      <c r="BP350" s="4"/>
+      <c r="BQ350" s="4"/>
+      <c r="BR350" s="4"/>
+    </row>
+    <row r="351" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -24335,8 +26104,12 @@
       <c r="BL351" s="4"/>
       <c r="BM351" s="4"/>
       <c r="BN351" s="4"/>
-    </row>
-    <row r="352" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO351" s="4"/>
+      <c r="BP351" s="4"/>
+      <c r="BQ351" s="4"/>
+      <c r="BR351" s="4"/>
+    </row>
+    <row r="352" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
@@ -24401,8 +26174,12 @@
       <c r="BL352" s="4"/>
       <c r="BM352" s="4"/>
       <c r="BN352" s="4"/>
-    </row>
-    <row r="353" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO352" s="4"/>
+      <c r="BP352" s="4"/>
+      <c r="BQ352" s="4"/>
+      <c r="BR352" s="4"/>
+    </row>
+    <row r="353" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -24467,8 +26244,12 @@
       <c r="BL353" s="4"/>
       <c r="BM353" s="4"/>
       <c r="BN353" s="4"/>
-    </row>
-    <row r="354" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO353" s="4"/>
+      <c r="BP353" s="4"/>
+      <c r="BQ353" s="4"/>
+      <c r="BR353" s="4"/>
+    </row>
+    <row r="354" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
@@ -24533,8 +26314,12 @@
       <c r="BL354" s="4"/>
       <c r="BM354" s="4"/>
       <c r="BN354" s="4"/>
-    </row>
-    <row r="355" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO354" s="4"/>
+      <c r="BP354" s="4"/>
+      <c r="BQ354" s="4"/>
+      <c r="BR354" s="4"/>
+    </row>
+    <row r="355" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -24599,8 +26384,12 @@
       <c r="BL355" s="4"/>
       <c r="BM355" s="4"/>
       <c r="BN355" s="4"/>
-    </row>
-    <row r="356" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO355" s="4"/>
+      <c r="BP355" s="4"/>
+      <c r="BQ355" s="4"/>
+      <c r="BR355" s="4"/>
+    </row>
+    <row r="356" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
@@ -24665,8 +26454,12 @@
       <c r="BL356" s="4"/>
       <c r="BM356" s="4"/>
       <c r="BN356" s="4"/>
-    </row>
-    <row r="357" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO356" s="4"/>
+      <c r="BP356" s="4"/>
+      <c r="BQ356" s="4"/>
+      <c r="BR356" s="4"/>
+    </row>
+    <row r="357" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -24731,8 +26524,12 @@
       <c r="BL357" s="4"/>
       <c r="BM357" s="4"/>
       <c r="BN357" s="4"/>
-    </row>
-    <row r="358" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO357" s="4"/>
+      <c r="BP357" s="4"/>
+      <c r="BQ357" s="4"/>
+      <c r="BR357" s="4"/>
+    </row>
+    <row r="358" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
@@ -24797,8 +26594,12 @@
       <c r="BL358" s="4"/>
       <c r="BM358" s="4"/>
       <c r="BN358" s="4"/>
-    </row>
-    <row r="359" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO358" s="4"/>
+      <c r="BP358" s="4"/>
+      <c r="BQ358" s="4"/>
+      <c r="BR358" s="4"/>
+    </row>
+    <row r="359" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -24863,8 +26664,12 @@
       <c r="BL359" s="4"/>
       <c r="BM359" s="4"/>
       <c r="BN359" s="4"/>
-    </row>
-    <row r="360" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO359" s="4"/>
+      <c r="BP359" s="4"/>
+      <c r="BQ359" s="4"/>
+      <c r="BR359" s="4"/>
+    </row>
+    <row r="360" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
@@ -24929,8 +26734,12 @@
       <c r="BL360" s="4"/>
       <c r="BM360" s="4"/>
       <c r="BN360" s="4"/>
-    </row>
-    <row r="361" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO360" s="4"/>
+      <c r="BP360" s="4"/>
+      <c r="BQ360" s="4"/>
+      <c r="BR360" s="4"/>
+    </row>
+    <row r="361" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -24995,8 +26804,12 @@
       <c r="BL361" s="4"/>
       <c r="BM361" s="4"/>
       <c r="BN361" s="4"/>
-    </row>
-    <row r="362" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO361" s="4"/>
+      <c r="BP361" s="4"/>
+      <c r="BQ361" s="4"/>
+      <c r="BR361" s="4"/>
+    </row>
+    <row r="362" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
@@ -25061,8 +26874,12 @@
       <c r="BL362" s="4"/>
       <c r="BM362" s="4"/>
       <c r="BN362" s="4"/>
-    </row>
-    <row r="363" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO362" s="4"/>
+      <c r="BP362" s="4"/>
+      <c r="BQ362" s="4"/>
+      <c r="BR362" s="4"/>
+    </row>
+    <row r="363" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -25127,8 +26944,12 @@
       <c r="BL363" s="4"/>
       <c r="BM363" s="4"/>
       <c r="BN363" s="4"/>
-    </row>
-    <row r="364" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO363" s="4"/>
+      <c r="BP363" s="4"/>
+      <c r="BQ363" s="4"/>
+      <c r="BR363" s="4"/>
+    </row>
+    <row r="364" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
@@ -25193,8 +27014,12 @@
       <c r="BL364" s="4"/>
       <c r="BM364" s="4"/>
       <c r="BN364" s="4"/>
-    </row>
-    <row r="365" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO364" s="4"/>
+      <c r="BP364" s="4"/>
+      <c r="BQ364" s="4"/>
+      <c r="BR364" s="4"/>
+    </row>
+    <row r="365" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -25259,8 +27084,12 @@
       <c r="BL365" s="4"/>
       <c r="BM365" s="4"/>
       <c r="BN365" s="4"/>
-    </row>
-    <row r="366" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO365" s="4"/>
+      <c r="BP365" s="4"/>
+      <c r="BQ365" s="4"/>
+      <c r="BR365" s="4"/>
+    </row>
+    <row r="366" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
@@ -25325,8 +27154,12 @@
       <c r="BL366" s="4"/>
       <c r="BM366" s="4"/>
       <c r="BN366" s="4"/>
-    </row>
-    <row r="367" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO366" s="4"/>
+      <c r="BP366" s="4"/>
+      <c r="BQ366" s="4"/>
+      <c r="BR366" s="4"/>
+    </row>
+    <row r="367" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -25391,8 +27224,12 @@
       <c r="BL367" s="4"/>
       <c r="BM367" s="4"/>
       <c r="BN367" s="4"/>
-    </row>
-    <row r="368" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO367" s="4"/>
+      <c r="BP367" s="4"/>
+      <c r="BQ367" s="4"/>
+      <c r="BR367" s="4"/>
+    </row>
+    <row r="368" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
@@ -25457,8 +27294,12 @@
       <c r="BL368" s="4"/>
       <c r="BM368" s="4"/>
       <c r="BN368" s="4"/>
-    </row>
-    <row r="369" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO368" s="4"/>
+      <c r="BP368" s="4"/>
+      <c r="BQ368" s="4"/>
+      <c r="BR368" s="4"/>
+    </row>
+    <row r="369" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -25523,8 +27364,12 @@
       <c r="BL369" s="4"/>
       <c r="BM369" s="4"/>
       <c r="BN369" s="4"/>
-    </row>
-    <row r="370" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO369" s="4"/>
+      <c r="BP369" s="4"/>
+      <c r="BQ369" s="4"/>
+      <c r="BR369" s="4"/>
+    </row>
+    <row r="370" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
@@ -25589,8 +27434,12 @@
       <c r="BL370" s="4"/>
       <c r="BM370" s="4"/>
       <c r="BN370" s="4"/>
-    </row>
-    <row r="371" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO370" s="4"/>
+      <c r="BP370" s="4"/>
+      <c r="BQ370" s="4"/>
+      <c r="BR370" s="4"/>
+    </row>
+    <row r="371" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -25655,8 +27504,12 @@
       <c r="BL371" s="4"/>
       <c r="BM371" s="4"/>
       <c r="BN371" s="4"/>
-    </row>
-    <row r="372" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO371" s="4"/>
+      <c r="BP371" s="4"/>
+      <c r="BQ371" s="4"/>
+      <c r="BR371" s="4"/>
+    </row>
+    <row r="372" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
@@ -25721,8 +27574,12 @@
       <c r="BL372" s="4"/>
       <c r="BM372" s="4"/>
       <c r="BN372" s="4"/>
-    </row>
-    <row r="373" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO372" s="4"/>
+      <c r="BP372" s="4"/>
+      <c r="BQ372" s="4"/>
+      <c r="BR372" s="4"/>
+    </row>
+    <row r="373" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -25787,8 +27644,12 @@
       <c r="BL373" s="4"/>
       <c r="BM373" s="4"/>
       <c r="BN373" s="4"/>
-    </row>
-    <row r="374" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO373" s="4"/>
+      <c r="BP373" s="4"/>
+      <c r="BQ373" s="4"/>
+      <c r="BR373" s="4"/>
+    </row>
+    <row r="374" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
@@ -25853,8 +27714,12 @@
       <c r="BL374" s="4"/>
       <c r="BM374" s="4"/>
       <c r="BN374" s="4"/>
-    </row>
-    <row r="375" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO374" s="4"/>
+      <c r="BP374" s="4"/>
+      <c r="BQ374" s="4"/>
+      <c r="BR374" s="4"/>
+    </row>
+    <row r="375" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -25919,8 +27784,12 @@
       <c r="BL375" s="4"/>
       <c r="BM375" s="4"/>
       <c r="BN375" s="4"/>
-    </row>
-    <row r="376" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO375" s="4"/>
+      <c r="BP375" s="4"/>
+      <c r="BQ375" s="4"/>
+      <c r="BR375" s="4"/>
+    </row>
+    <row r="376" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
@@ -25985,8 +27854,12 @@
       <c r="BL376" s="4"/>
       <c r="BM376" s="4"/>
       <c r="BN376" s="4"/>
-    </row>
-    <row r="377" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO376" s="4"/>
+      <c r="BP376" s="4"/>
+      <c r="BQ376" s="4"/>
+      <c r="BR376" s="4"/>
+    </row>
+    <row r="377" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -26051,8 +27924,12 @@
       <c r="BL377" s="4"/>
       <c r="BM377" s="4"/>
       <c r="BN377" s="4"/>
-    </row>
-    <row r="378" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO377" s="4"/>
+      <c r="BP377" s="4"/>
+      <c r="BQ377" s="4"/>
+      <c r="BR377" s="4"/>
+    </row>
+    <row r="378" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
@@ -26117,8 +27994,12 @@
       <c r="BL378" s="4"/>
       <c r="BM378" s="4"/>
       <c r="BN378" s="4"/>
-    </row>
-    <row r="379" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO378" s="4"/>
+      <c r="BP378" s="4"/>
+      <c r="BQ378" s="4"/>
+      <c r="BR378" s="4"/>
+    </row>
+    <row r="379" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -26183,8 +28064,12 @@
       <c r="BL379" s="4"/>
       <c r="BM379" s="4"/>
       <c r="BN379" s="4"/>
-    </row>
-    <row r="380" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO379" s="4"/>
+      <c r="BP379" s="4"/>
+      <c r="BQ379" s="4"/>
+      <c r="BR379" s="4"/>
+    </row>
+    <row r="380" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
@@ -26249,8 +28134,12 @@
       <c r="BL380" s="4"/>
       <c r="BM380" s="4"/>
       <c r="BN380" s="4"/>
-    </row>
-    <row r="381" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO380" s="4"/>
+      <c r="BP380" s="4"/>
+      <c r="BQ380" s="4"/>
+      <c r="BR380" s="4"/>
+    </row>
+    <row r="381" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -26315,8 +28204,12 @@
       <c r="BL381" s="4"/>
       <c r="BM381" s="4"/>
       <c r="BN381" s="4"/>
-    </row>
-    <row r="382" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO381" s="4"/>
+      <c r="BP381" s="4"/>
+      <c r="BQ381" s="4"/>
+      <c r="BR381" s="4"/>
+    </row>
+    <row r="382" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
@@ -26381,8 +28274,12 @@
       <c r="BL382" s="4"/>
       <c r="BM382" s="4"/>
       <c r="BN382" s="4"/>
-    </row>
-    <row r="383" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO382" s="4"/>
+      <c r="BP382" s="4"/>
+      <c r="BQ382" s="4"/>
+      <c r="BR382" s="4"/>
+    </row>
+    <row r="383" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -26447,8 +28344,12 @@
       <c r="BL383" s="4"/>
       <c r="BM383" s="4"/>
       <c r="BN383" s="4"/>
-    </row>
-    <row r="384" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO383" s="4"/>
+      <c r="BP383" s="4"/>
+      <c r="BQ383" s="4"/>
+      <c r="BR383" s="4"/>
+    </row>
+    <row r="384" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
@@ -26513,8 +28414,12 @@
       <c r="BL384" s="4"/>
       <c r="BM384" s="4"/>
       <c r="BN384" s="4"/>
-    </row>
-    <row r="385" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO384" s="4"/>
+      <c r="BP384" s="4"/>
+      <c r="BQ384" s="4"/>
+      <c r="BR384" s="4"/>
+    </row>
+    <row r="385" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -26579,8 +28484,12 @@
       <c r="BL385" s="4"/>
       <c r="BM385" s="4"/>
       <c r="BN385" s="4"/>
-    </row>
-    <row r="386" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO385" s="4"/>
+      <c r="BP385" s="4"/>
+      <c r="BQ385" s="4"/>
+      <c r="BR385" s="4"/>
+    </row>
+    <row r="386" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
@@ -26645,8 +28554,12 @@
       <c r="BL386" s="4"/>
       <c r="BM386" s="4"/>
       <c r="BN386" s="4"/>
-    </row>
-    <row r="387" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO386" s="4"/>
+      <c r="BP386" s="4"/>
+      <c r="BQ386" s="4"/>
+      <c r="BR386" s="4"/>
+    </row>
+    <row r="387" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -26711,8 +28624,12 @@
       <c r="BL387" s="4"/>
       <c r="BM387" s="4"/>
       <c r="BN387" s="4"/>
-    </row>
-    <row r="388" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO387" s="4"/>
+      <c r="BP387" s="4"/>
+      <c r="BQ387" s="4"/>
+      <c r="BR387" s="4"/>
+    </row>
+    <row r="388" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
@@ -26777,8 +28694,12 @@
       <c r="BL388" s="4"/>
       <c r="BM388" s="4"/>
       <c r="BN388" s="4"/>
-    </row>
-    <row r="389" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO388" s="4"/>
+      <c r="BP388" s="4"/>
+      <c r="BQ388" s="4"/>
+      <c r="BR388" s="4"/>
+    </row>
+    <row r="389" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -26843,8 +28764,12 @@
       <c r="BL389" s="4"/>
       <c r="BM389" s="4"/>
       <c r="BN389" s="4"/>
-    </row>
-    <row r="390" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO389" s="4"/>
+      <c r="BP389" s="4"/>
+      <c r="BQ389" s="4"/>
+      <c r="BR389" s="4"/>
+    </row>
+    <row r="390" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -26909,8 +28834,12 @@
       <c r="BL390" s="4"/>
       <c r="BM390" s="4"/>
       <c r="BN390" s="4"/>
-    </row>
-    <row r="391" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO390" s="4"/>
+      <c r="BP390" s="4"/>
+      <c r="BQ390" s="4"/>
+      <c r="BR390" s="4"/>
+    </row>
+    <row r="391" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -26975,8 +28904,12 @@
       <c r="BL391" s="4"/>
       <c r="BM391" s="4"/>
       <c r="BN391" s="4"/>
-    </row>
-    <row r="392" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO391" s="4"/>
+      <c r="BP391" s="4"/>
+      <c r="BQ391" s="4"/>
+      <c r="BR391" s="4"/>
+    </row>
+    <row r="392" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
@@ -27041,8 +28974,12 @@
       <c r="BL392" s="4"/>
       <c r="BM392" s="4"/>
       <c r="BN392" s="4"/>
-    </row>
-    <row r="393" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO392" s="4"/>
+      <c r="BP392" s="4"/>
+      <c r="BQ392" s="4"/>
+      <c r="BR392" s="4"/>
+    </row>
+    <row r="393" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -27107,8 +29044,12 @@
       <c r="BL393" s="4"/>
       <c r="BM393" s="4"/>
       <c r="BN393" s="4"/>
-    </row>
-    <row r="394" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO393" s="4"/>
+      <c r="BP393" s="4"/>
+      <c r="BQ393" s="4"/>
+      <c r="BR393" s="4"/>
+    </row>
+    <row r="394" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
@@ -27173,8 +29114,12 @@
       <c r="BL394" s="4"/>
       <c r="BM394" s="4"/>
       <c r="BN394" s="4"/>
-    </row>
-    <row r="395" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO394" s="4"/>
+      <c r="BP394" s="4"/>
+      <c r="BQ394" s="4"/>
+      <c r="BR394" s="4"/>
+    </row>
+    <row r="395" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -27239,8 +29184,12 @@
       <c r="BL395" s="4"/>
       <c r="BM395" s="4"/>
       <c r="BN395" s="4"/>
-    </row>
-    <row r="396" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO395" s="4"/>
+      <c r="BP395" s="4"/>
+      <c r="BQ395" s="4"/>
+      <c r="BR395" s="4"/>
+    </row>
+    <row r="396" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
@@ -27305,8 +29254,12 @@
       <c r="BL396" s="4"/>
       <c r="BM396" s="4"/>
       <c r="BN396" s="4"/>
-    </row>
-    <row r="397" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO396" s="4"/>
+      <c r="BP396" s="4"/>
+      <c r="BQ396" s="4"/>
+      <c r="BR396" s="4"/>
+    </row>
+    <row r="397" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -27371,8 +29324,12 @@
       <c r="BL397" s="4"/>
       <c r="BM397" s="4"/>
       <c r="BN397" s="4"/>
-    </row>
-    <row r="398" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO397" s="4"/>
+      <c r="BP397" s="4"/>
+      <c r="BQ397" s="4"/>
+      <c r="BR397" s="4"/>
+    </row>
+    <row r="398" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
@@ -27437,8 +29394,12 @@
       <c r="BL398" s="4"/>
       <c r="BM398" s="4"/>
       <c r="BN398" s="4"/>
-    </row>
-    <row r="399" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO398" s="4"/>
+      <c r="BP398" s="4"/>
+      <c r="BQ398" s="4"/>
+      <c r="BR398" s="4"/>
+    </row>
+    <row r="399" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -27503,8 +29464,12 @@
       <c r="BL399" s="4"/>
       <c r="BM399" s="4"/>
       <c r="BN399" s="4"/>
-    </row>
-    <row r="400" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO399" s="4"/>
+      <c r="BP399" s="4"/>
+      <c r="BQ399" s="4"/>
+      <c r="BR399" s="4"/>
+    </row>
+    <row r="400" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
@@ -27569,8 +29534,12 @@
       <c r="BL400" s="4"/>
       <c r="BM400" s="4"/>
       <c r="BN400" s="4"/>
-    </row>
-    <row r="401" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO400" s="4"/>
+      <c r="BP400" s="4"/>
+      <c r="BQ400" s="4"/>
+      <c r="BR400" s="4"/>
+    </row>
+    <row r="401" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -27635,8 +29604,12 @@
       <c r="BL401" s="4"/>
       <c r="BM401" s="4"/>
       <c r="BN401" s="4"/>
-    </row>
-    <row r="402" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO401" s="4"/>
+      <c r="BP401" s="4"/>
+      <c r="BQ401" s="4"/>
+      <c r="BR401" s="4"/>
+    </row>
+    <row r="402" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
@@ -27701,8 +29674,12 @@
       <c r="BL402" s="4"/>
       <c r="BM402" s="4"/>
       <c r="BN402" s="4"/>
-    </row>
-    <row r="403" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO402" s="4"/>
+      <c r="BP402" s="4"/>
+      <c r="BQ402" s="4"/>
+      <c r="BR402" s="4"/>
+    </row>
+    <row r="403" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -27767,8 +29744,12 @@
       <c r="BL403" s="4"/>
       <c r="BM403" s="4"/>
       <c r="BN403" s="4"/>
-    </row>
-    <row r="404" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO403" s="4"/>
+      <c r="BP403" s="4"/>
+      <c r="BQ403" s="4"/>
+      <c r="BR403" s="4"/>
+    </row>
+    <row r="404" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
@@ -27833,8 +29814,12 @@
       <c r="BL404" s="4"/>
       <c r="BM404" s="4"/>
       <c r="BN404" s="4"/>
-    </row>
-    <row r="405" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO404" s="4"/>
+      <c r="BP404" s="4"/>
+      <c r="BQ404" s="4"/>
+      <c r="BR404" s="4"/>
+    </row>
+    <row r="405" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -27899,8 +29884,12 @@
       <c r="BL405" s="4"/>
       <c r="BM405" s="4"/>
       <c r="BN405" s="4"/>
-    </row>
-    <row r="406" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO405" s="4"/>
+      <c r="BP405" s="4"/>
+      <c r="BQ405" s="4"/>
+      <c r="BR405" s="4"/>
+    </row>
+    <row r="406" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
@@ -27965,8 +29954,12 @@
       <c r="BL406" s="4"/>
       <c r="BM406" s="4"/>
       <c r="BN406" s="4"/>
-    </row>
-    <row r="407" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO406" s="4"/>
+      <c r="BP406" s="4"/>
+      <c r="BQ406" s="4"/>
+      <c r="BR406" s="4"/>
+    </row>
+    <row r="407" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -28031,8 +30024,12 @@
       <c r="BL407" s="4"/>
       <c r="BM407" s="4"/>
       <c r="BN407" s="4"/>
-    </row>
-    <row r="408" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO407" s="4"/>
+      <c r="BP407" s="4"/>
+      <c r="BQ407" s="4"/>
+      <c r="BR407" s="4"/>
+    </row>
+    <row r="408" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
@@ -28097,8 +30094,12 @@
       <c r="BL408" s="4"/>
       <c r="BM408" s="4"/>
       <c r="BN408" s="4"/>
-    </row>
-    <row r="409" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO408" s="4"/>
+      <c r="BP408" s="4"/>
+      <c r="BQ408" s="4"/>
+      <c r="BR408" s="4"/>
+    </row>
+    <row r="409" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -28163,8 +30164,12 @@
       <c r="BL409" s="4"/>
       <c r="BM409" s="4"/>
       <c r="BN409" s="4"/>
-    </row>
-    <row r="410" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO409" s="4"/>
+      <c r="BP409" s="4"/>
+      <c r="BQ409" s="4"/>
+      <c r="BR409" s="4"/>
+    </row>
+    <row r="410" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
@@ -28229,8 +30234,12 @@
       <c r="BL410" s="4"/>
       <c r="BM410" s="4"/>
       <c r="BN410" s="4"/>
-    </row>
-    <row r="411" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO410" s="4"/>
+      <c r="BP410" s="4"/>
+      <c r="BQ410" s="4"/>
+      <c r="BR410" s="4"/>
+    </row>
+    <row r="411" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -28295,8 +30304,12 @@
       <c r="BL411" s="4"/>
       <c r="BM411" s="4"/>
       <c r="BN411" s="4"/>
-    </row>
-    <row r="412" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO411" s="4"/>
+      <c r="BP411" s="4"/>
+      <c r="BQ411" s="4"/>
+      <c r="BR411" s="4"/>
+    </row>
+    <row r="412" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
@@ -28361,8 +30374,12 @@
       <c r="BL412" s="4"/>
       <c r="BM412" s="4"/>
       <c r="BN412" s="4"/>
-    </row>
-    <row r="413" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO412" s="4"/>
+      <c r="BP412" s="4"/>
+      <c r="BQ412" s="4"/>
+      <c r="BR412" s="4"/>
+    </row>
+    <row r="413" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -28427,8 +30444,12 @@
       <c r="BL413" s="4"/>
       <c r="BM413" s="4"/>
       <c r="BN413" s="4"/>
-    </row>
-    <row r="414" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO413" s="4"/>
+      <c r="BP413" s="4"/>
+      <c r="BQ413" s="4"/>
+      <c r="BR413" s="4"/>
+    </row>
+    <row r="414" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
@@ -28493,8 +30514,12 @@
       <c r="BL414" s="4"/>
       <c r="BM414" s="4"/>
       <c r="BN414" s="4"/>
-    </row>
-    <row r="415" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO414" s="4"/>
+      <c r="BP414" s="4"/>
+      <c r="BQ414" s="4"/>
+      <c r="BR414" s="4"/>
+    </row>
+    <row r="415" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -28559,8 +30584,12 @@
       <c r="BL415" s="4"/>
       <c r="BM415" s="4"/>
       <c r="BN415" s="4"/>
-    </row>
-    <row r="416" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO415" s="4"/>
+      <c r="BP415" s="4"/>
+      <c r="BQ415" s="4"/>
+      <c r="BR415" s="4"/>
+    </row>
+    <row r="416" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
@@ -28625,8 +30654,12 @@
       <c r="BL416" s="4"/>
       <c r="BM416" s="4"/>
       <c r="BN416" s="4"/>
-    </row>
-    <row r="417" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO416" s="4"/>
+      <c r="BP416" s="4"/>
+      <c r="BQ416" s="4"/>
+      <c r="BR416" s="4"/>
+    </row>
+    <row r="417" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -28691,8 +30724,12 @@
       <c r="BL417" s="4"/>
       <c r="BM417" s="4"/>
       <c r="BN417" s="4"/>
-    </row>
-    <row r="418" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO417" s="4"/>
+      <c r="BP417" s="4"/>
+      <c r="BQ417" s="4"/>
+      <c r="BR417" s="4"/>
+    </row>
+    <row r="418" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
@@ -28757,8 +30794,12 @@
       <c r="BL418" s="4"/>
       <c r="BM418" s="4"/>
       <c r="BN418" s="4"/>
-    </row>
-    <row r="419" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO418" s="4"/>
+      <c r="BP418" s="4"/>
+      <c r="BQ418" s="4"/>
+      <c r="BR418" s="4"/>
+    </row>
+    <row r="419" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -28823,8 +30864,12 @@
       <c r="BL419" s="4"/>
       <c r="BM419" s="4"/>
       <c r="BN419" s="4"/>
-    </row>
-    <row r="420" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO419" s="4"/>
+      <c r="BP419" s="4"/>
+      <c r="BQ419" s="4"/>
+      <c r="BR419" s="4"/>
+    </row>
+    <row r="420" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
@@ -28889,8 +30934,12 @@
       <c r="BL420" s="4"/>
       <c r="BM420" s="4"/>
       <c r="BN420" s="4"/>
-    </row>
-    <row r="421" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO420" s="4"/>
+      <c r="BP420" s="4"/>
+      <c r="BQ420" s="4"/>
+      <c r="BR420" s="4"/>
+    </row>
+    <row r="421" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -28955,8 +31004,12 @@
       <c r="BL421" s="4"/>
       <c r="BM421" s="4"/>
       <c r="BN421" s="4"/>
-    </row>
-    <row r="422" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO421" s="4"/>
+      <c r="BP421" s="4"/>
+      <c r="BQ421" s="4"/>
+      <c r="BR421" s="4"/>
+    </row>
+    <row r="422" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
@@ -29021,8 +31074,12 @@
       <c r="BL422" s="4"/>
       <c r="BM422" s="4"/>
       <c r="BN422" s="4"/>
-    </row>
-    <row r="423" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO422" s="4"/>
+      <c r="BP422" s="4"/>
+      <c r="BQ422" s="4"/>
+      <c r="BR422" s="4"/>
+    </row>
+    <row r="423" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -29087,8 +31144,12 @@
       <c r="BL423" s="4"/>
       <c r="BM423" s="4"/>
       <c r="BN423" s="4"/>
-    </row>
-    <row r="424" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO423" s="4"/>
+      <c r="BP423" s="4"/>
+      <c r="BQ423" s="4"/>
+      <c r="BR423" s="4"/>
+    </row>
+    <row r="424" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
@@ -29153,8 +31214,12 @@
       <c r="BL424" s="4"/>
       <c r="BM424" s="4"/>
       <c r="BN424" s="4"/>
-    </row>
-    <row r="425" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO424" s="4"/>
+      <c r="BP424" s="4"/>
+      <c r="BQ424" s="4"/>
+      <c r="BR424" s="4"/>
+    </row>
+    <row r="425" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -29219,8 +31284,12 @@
       <c r="BL425" s="4"/>
       <c r="BM425" s="4"/>
       <c r="BN425" s="4"/>
-    </row>
-    <row r="426" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO425" s="4"/>
+      <c r="BP425" s="4"/>
+      <c r="BQ425" s="4"/>
+      <c r="BR425" s="4"/>
+    </row>
+    <row r="426" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
@@ -29285,8 +31354,12 @@
       <c r="BL426" s="4"/>
       <c r="BM426" s="4"/>
       <c r="BN426" s="4"/>
-    </row>
-    <row r="427" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO426" s="4"/>
+      <c r="BP426" s="4"/>
+      <c r="BQ426" s="4"/>
+      <c r="BR426" s="4"/>
+    </row>
+    <row r="427" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -29351,8 +31424,12 @@
       <c r="BL427" s="4"/>
       <c r="BM427" s="4"/>
       <c r="BN427" s="4"/>
-    </row>
-    <row r="428" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO427" s="4"/>
+      <c r="BP427" s="4"/>
+      <c r="BQ427" s="4"/>
+      <c r="BR427" s="4"/>
+    </row>
+    <row r="428" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
@@ -29417,8 +31494,12 @@
       <c r="BL428" s="4"/>
       <c r="BM428" s="4"/>
       <c r="BN428" s="4"/>
-    </row>
-    <row r="429" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO428" s="4"/>
+      <c r="BP428" s="4"/>
+      <c r="BQ428" s="4"/>
+      <c r="BR428" s="4"/>
+    </row>
+    <row r="429" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -29483,8 +31564,12 @@
       <c r="BL429" s="4"/>
       <c r="BM429" s="4"/>
       <c r="BN429" s="4"/>
-    </row>
-    <row r="430" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO429" s="4"/>
+      <c r="BP429" s="4"/>
+      <c r="BQ429" s="4"/>
+      <c r="BR429" s="4"/>
+    </row>
+    <row r="430" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
@@ -29549,8 +31634,12 @@
       <c r="BL430" s="4"/>
       <c r="BM430" s="4"/>
       <c r="BN430" s="4"/>
-    </row>
-    <row r="431" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO430" s="4"/>
+      <c r="BP430" s="4"/>
+      <c r="BQ430" s="4"/>
+      <c r="BR430" s="4"/>
+    </row>
+    <row r="431" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -29615,8 +31704,12 @@
       <c r="BL431" s="4"/>
       <c r="BM431" s="4"/>
       <c r="BN431" s="4"/>
-    </row>
-    <row r="432" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO431" s="4"/>
+      <c r="BP431" s="4"/>
+      <c r="BQ431" s="4"/>
+      <c r="BR431" s="4"/>
+    </row>
+    <row r="432" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
@@ -29681,8 +31774,12 @@
       <c r="BL432" s="4"/>
       <c r="BM432" s="4"/>
       <c r="BN432" s="4"/>
-    </row>
-    <row r="433" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO432" s="4"/>
+      <c r="BP432" s="4"/>
+      <c r="BQ432" s="4"/>
+      <c r="BR432" s="4"/>
+    </row>
+    <row r="433" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -29747,8 +31844,12 @@
       <c r="BL433" s="4"/>
       <c r="BM433" s="4"/>
       <c r="BN433" s="4"/>
-    </row>
-    <row r="434" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO433" s="4"/>
+      <c r="BP433" s="4"/>
+      <c r="BQ433" s="4"/>
+      <c r="BR433" s="4"/>
+    </row>
+    <row r="434" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
@@ -29813,8 +31914,12 @@
       <c r="BL434" s="4"/>
       <c r="BM434" s="4"/>
       <c r="BN434" s="4"/>
-    </row>
-    <row r="435" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO434" s="4"/>
+      <c r="BP434" s="4"/>
+      <c r="BQ434" s="4"/>
+      <c r="BR434" s="4"/>
+    </row>
+    <row r="435" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -29879,8 +31984,12 @@
       <c r="BL435" s="4"/>
       <c r="BM435" s="4"/>
       <c r="BN435" s="4"/>
-    </row>
-    <row r="436" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO435" s="4"/>
+      <c r="BP435" s="4"/>
+      <c r="BQ435" s="4"/>
+      <c r="BR435" s="4"/>
+    </row>
+    <row r="436" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
@@ -29945,8 +32054,12 @@
       <c r="BL436" s="4"/>
       <c r="BM436" s="4"/>
       <c r="BN436" s="4"/>
-    </row>
-    <row r="437" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO436" s="4"/>
+      <c r="BP436" s="4"/>
+      <c r="BQ436" s="4"/>
+      <c r="BR436" s="4"/>
+    </row>
+    <row r="437" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -30011,8 +32124,12 @@
       <c r="BL437" s="4"/>
       <c r="BM437" s="4"/>
       <c r="BN437" s="4"/>
-    </row>
-    <row r="438" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO437" s="4"/>
+      <c r="BP437" s="4"/>
+      <c r="BQ437" s="4"/>
+      <c r="BR437" s="4"/>
+    </row>
+    <row r="438" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
@@ -30077,8 +32194,12 @@
       <c r="BL438" s="4"/>
       <c r="BM438" s="4"/>
       <c r="BN438" s="4"/>
-    </row>
-    <row r="439" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO438" s="4"/>
+      <c r="BP438" s="4"/>
+      <c r="BQ438" s="4"/>
+      <c r="BR438" s="4"/>
+    </row>
+    <row r="439" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -30143,8 +32264,12 @@
       <c r="BL439" s="4"/>
       <c r="BM439" s="4"/>
       <c r="BN439" s="4"/>
-    </row>
-    <row r="440" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO439" s="4"/>
+      <c r="BP439" s="4"/>
+      <c r="BQ439" s="4"/>
+      <c r="BR439" s="4"/>
+    </row>
+    <row r="440" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
@@ -30209,8 +32334,12 @@
       <c r="BL440" s="4"/>
       <c r="BM440" s="4"/>
       <c r="BN440" s="4"/>
-    </row>
-    <row r="441" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO440" s="4"/>
+      <c r="BP440" s="4"/>
+      <c r="BQ440" s="4"/>
+      <c r="BR440" s="4"/>
+    </row>
+    <row r="441" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -30275,8 +32404,12 @@
       <c r="BL441" s="4"/>
       <c r="BM441" s="4"/>
       <c r="BN441" s="4"/>
-    </row>
-    <row r="442" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO441" s="4"/>
+      <c r="BP441" s="4"/>
+      <c r="BQ441" s="4"/>
+      <c r="BR441" s="4"/>
+    </row>
+    <row r="442" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
@@ -30341,8 +32474,12 @@
       <c r="BL442" s="4"/>
       <c r="BM442" s="4"/>
       <c r="BN442" s="4"/>
-    </row>
-    <row r="443" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO442" s="4"/>
+      <c r="BP442" s="4"/>
+      <c r="BQ442" s="4"/>
+      <c r="BR442" s="4"/>
+    </row>
+    <row r="443" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -30407,8 +32544,12 @@
       <c r="BL443" s="4"/>
       <c r="BM443" s="4"/>
       <c r="BN443" s="4"/>
-    </row>
-    <row r="444" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO443" s="4"/>
+      <c r="BP443" s="4"/>
+      <c r="BQ443" s="4"/>
+      <c r="BR443" s="4"/>
+    </row>
+    <row r="444" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
@@ -30473,8 +32614,12 @@
       <c r="BL444" s="4"/>
       <c r="BM444" s="4"/>
       <c r="BN444" s="4"/>
-    </row>
-    <row r="445" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO444" s="4"/>
+      <c r="BP444" s="4"/>
+      <c r="BQ444" s="4"/>
+      <c r="BR444" s="4"/>
+    </row>
+    <row r="445" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -30539,8 +32684,12 @@
       <c r="BL445" s="4"/>
       <c r="BM445" s="4"/>
       <c r="BN445" s="4"/>
-    </row>
-    <row r="446" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO445" s="4"/>
+      <c r="BP445" s="4"/>
+      <c r="BQ445" s="4"/>
+      <c r="BR445" s="4"/>
+    </row>
+    <row r="446" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
@@ -30605,8 +32754,12 @@
       <c r="BL446" s="4"/>
       <c r="BM446" s="4"/>
       <c r="BN446" s="4"/>
-    </row>
-    <row r="447" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO446" s="4"/>
+      <c r="BP446" s="4"/>
+      <c r="BQ446" s="4"/>
+      <c r="BR446" s="4"/>
+    </row>
+    <row r="447" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -30671,8 +32824,12 @@
       <c r="BL447" s="4"/>
       <c r="BM447" s="4"/>
       <c r="BN447" s="4"/>
-    </row>
-    <row r="448" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO447" s="4"/>
+      <c r="BP447" s="4"/>
+      <c r="BQ447" s="4"/>
+      <c r="BR447" s="4"/>
+    </row>
+    <row r="448" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
@@ -30737,8 +32894,12 @@
       <c r="BL448" s="4"/>
       <c r="BM448" s="4"/>
       <c r="BN448" s="4"/>
-    </row>
-    <row r="449" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO448" s="4"/>
+      <c r="BP448" s="4"/>
+      <c r="BQ448" s="4"/>
+      <c r="BR448" s="4"/>
+    </row>
+    <row r="449" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -30803,8 +32964,12 @@
       <c r="BL449" s="4"/>
       <c r="BM449" s="4"/>
       <c r="BN449" s="4"/>
-    </row>
-    <row r="450" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO449" s="4"/>
+      <c r="BP449" s="4"/>
+      <c r="BQ449" s="4"/>
+      <c r="BR449" s="4"/>
+    </row>
+    <row r="450" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
@@ -30869,8 +33034,12 @@
       <c r="BL450" s="4"/>
       <c r="BM450" s="4"/>
       <c r="BN450" s="4"/>
-    </row>
-    <row r="451" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO450" s="4"/>
+      <c r="BP450" s="4"/>
+      <c r="BQ450" s="4"/>
+      <c r="BR450" s="4"/>
+    </row>
+    <row r="451" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -30935,8 +33104,12 @@
       <c r="BL451" s="4"/>
       <c r="BM451" s="4"/>
       <c r="BN451" s="4"/>
-    </row>
-    <row r="452" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO451" s="4"/>
+      <c r="BP451" s="4"/>
+      <c r="BQ451" s="4"/>
+      <c r="BR451" s="4"/>
+    </row>
+    <row r="452" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
@@ -31001,8 +33174,12 @@
       <c r="BL452" s="4"/>
       <c r="BM452" s="4"/>
       <c r="BN452" s="4"/>
-    </row>
-    <row r="453" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO452" s="4"/>
+      <c r="BP452" s="4"/>
+      <c r="BQ452" s="4"/>
+      <c r="BR452" s="4"/>
+    </row>
+    <row r="453" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -31067,8 +33244,12 @@
       <c r="BL453" s="4"/>
       <c r="BM453" s="4"/>
       <c r="BN453" s="4"/>
-    </row>
-    <row r="454" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO453" s="4"/>
+      <c r="BP453" s="4"/>
+      <c r="BQ453" s="4"/>
+      <c r="BR453" s="4"/>
+    </row>
+    <row r="454" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
@@ -31133,8 +33314,12 @@
       <c r="BL454" s="4"/>
       <c r="BM454" s="4"/>
       <c r="BN454" s="4"/>
-    </row>
-    <row r="455" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO454" s="4"/>
+      <c r="BP454" s="4"/>
+      <c r="BQ454" s="4"/>
+      <c r="BR454" s="4"/>
+    </row>
+    <row r="455" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -31199,8 +33384,12 @@
       <c r="BL455" s="4"/>
       <c r="BM455" s="4"/>
       <c r="BN455" s="4"/>
-    </row>
-    <row r="456" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO455" s="4"/>
+      <c r="BP455" s="4"/>
+      <c r="BQ455" s="4"/>
+      <c r="BR455" s="4"/>
+    </row>
+    <row r="456" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
@@ -31265,8 +33454,12 @@
       <c r="BL456" s="4"/>
       <c r="BM456" s="4"/>
       <c r="BN456" s="4"/>
-    </row>
-    <row r="457" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO456" s="4"/>
+      <c r="BP456" s="4"/>
+      <c r="BQ456" s="4"/>
+      <c r="BR456" s="4"/>
+    </row>
+    <row r="457" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -31331,8 +33524,12 @@
       <c r="BL457" s="4"/>
       <c r="BM457" s="4"/>
       <c r="BN457" s="4"/>
-    </row>
-    <row r="458" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO457" s="4"/>
+      <c r="BP457" s="4"/>
+      <c r="BQ457" s="4"/>
+      <c r="BR457" s="4"/>
+    </row>
+    <row r="458" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
@@ -31397,8 +33594,12 @@
       <c r="BL458" s="4"/>
       <c r="BM458" s="4"/>
       <c r="BN458" s="4"/>
-    </row>
-    <row r="459" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO458" s="4"/>
+      <c r="BP458" s="4"/>
+      <c r="BQ458" s="4"/>
+      <c r="BR458" s="4"/>
+    </row>
+    <row r="459" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -31463,8 +33664,12 @@
       <c r="BL459" s="4"/>
       <c r="BM459" s="4"/>
       <c r="BN459" s="4"/>
-    </row>
-    <row r="460" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO459" s="4"/>
+      <c r="BP459" s="4"/>
+      <c r="BQ459" s="4"/>
+      <c r="BR459" s="4"/>
+    </row>
+    <row r="460" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
@@ -31529,8 +33734,12 @@
       <c r="BL460" s="4"/>
       <c r="BM460" s="4"/>
       <c r="BN460" s="4"/>
-    </row>
-    <row r="461" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO460" s="4"/>
+      <c r="BP460" s="4"/>
+      <c r="BQ460" s="4"/>
+      <c r="BR460" s="4"/>
+    </row>
+    <row r="461" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -31595,8 +33804,12 @@
       <c r="BL461" s="4"/>
       <c r="BM461" s="4"/>
       <c r="BN461" s="4"/>
-    </row>
-    <row r="462" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO461" s="4"/>
+      <c r="BP461" s="4"/>
+      <c r="BQ461" s="4"/>
+      <c r="BR461" s="4"/>
+    </row>
+    <row r="462" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
@@ -31661,8 +33874,12 @@
       <c r="BL462" s="4"/>
       <c r="BM462" s="4"/>
       <c r="BN462" s="4"/>
-    </row>
-    <row r="463" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO462" s="4"/>
+      <c r="BP462" s="4"/>
+      <c r="BQ462" s="4"/>
+      <c r="BR462" s="4"/>
+    </row>
+    <row r="463" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -31727,8 +33944,12 @@
       <c r="BL463" s="4"/>
       <c r="BM463" s="4"/>
       <c r="BN463" s="4"/>
-    </row>
-    <row r="464" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO463" s="4"/>
+      <c r="BP463" s="4"/>
+      <c r="BQ463" s="4"/>
+      <c r="BR463" s="4"/>
+    </row>
+    <row r="464" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -31793,8 +34014,12 @@
       <c r="BL464" s="4"/>
       <c r="BM464" s="4"/>
       <c r="BN464" s="4"/>
-    </row>
-    <row r="465" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO464" s="4"/>
+      <c r="BP464" s="4"/>
+      <c r="BQ464" s="4"/>
+      <c r="BR464" s="4"/>
+    </row>
+    <row r="465" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -31859,8 +34084,12 @@
       <c r="BL465" s="4"/>
       <c r="BM465" s="4"/>
       <c r="BN465" s="4"/>
-    </row>
-    <row r="466" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO465" s="4"/>
+      <c r="BP465" s="4"/>
+      <c r="BQ465" s="4"/>
+      <c r="BR465" s="4"/>
+    </row>
+    <row r="466" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
@@ -31925,8 +34154,12 @@
       <c r="BL466" s="4"/>
       <c r="BM466" s="4"/>
       <c r="BN466" s="4"/>
-    </row>
-    <row r="467" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO466" s="4"/>
+      <c r="BP466" s="4"/>
+      <c r="BQ466" s="4"/>
+      <c r="BR466" s="4"/>
+    </row>
+    <row r="467" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -31991,8 +34224,12 @@
       <c r="BL467" s="4"/>
       <c r="BM467" s="4"/>
       <c r="BN467" s="4"/>
-    </row>
-    <row r="468" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO467" s="4"/>
+      <c r="BP467" s="4"/>
+      <c r="BQ467" s="4"/>
+      <c r="BR467" s="4"/>
+    </row>
+    <row r="468" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
@@ -32057,8 +34294,12 @@
       <c r="BL468" s="4"/>
       <c r="BM468" s="4"/>
       <c r="BN468" s="4"/>
-    </row>
-    <row r="469" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO468" s="4"/>
+      <c r="BP468" s="4"/>
+      <c r="BQ468" s="4"/>
+      <c r="BR468" s="4"/>
+    </row>
+    <row r="469" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -32123,8 +34364,12 @@
       <c r="BL469" s="4"/>
       <c r="BM469" s="4"/>
       <c r="BN469" s="4"/>
-    </row>
-    <row r="470" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO469" s="4"/>
+      <c r="BP469" s="4"/>
+      <c r="BQ469" s="4"/>
+      <c r="BR469" s="4"/>
+    </row>
+    <row r="470" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
@@ -32189,8 +34434,12 @@
       <c r="BL470" s="4"/>
       <c r="BM470" s="4"/>
       <c r="BN470" s="4"/>
-    </row>
-    <row r="471" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO470" s="4"/>
+      <c r="BP470" s="4"/>
+      <c r="BQ470" s="4"/>
+      <c r="BR470" s="4"/>
+    </row>
+    <row r="471" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -32255,8 +34504,12 @@
       <c r="BL471" s="4"/>
       <c r="BM471" s="4"/>
       <c r="BN471" s="4"/>
-    </row>
-    <row r="472" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO471" s="4"/>
+      <c r="BP471" s="4"/>
+      <c r="BQ471" s="4"/>
+      <c r="BR471" s="4"/>
+    </row>
+    <row r="472" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
@@ -32321,8 +34574,12 @@
       <c r="BL472" s="4"/>
       <c r="BM472" s="4"/>
       <c r="BN472" s="4"/>
-    </row>
-    <row r="473" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO472" s="4"/>
+      <c r="BP472" s="4"/>
+      <c r="BQ472" s="4"/>
+      <c r="BR472" s="4"/>
+    </row>
+    <row r="473" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -32387,8 +34644,12 @@
       <c r="BL473" s="4"/>
       <c r="BM473" s="4"/>
       <c r="BN473" s="4"/>
-    </row>
-    <row r="474" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO473" s="4"/>
+      <c r="BP473" s="4"/>
+      <c r="BQ473" s="4"/>
+      <c r="BR473" s="4"/>
+    </row>
+    <row r="474" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
@@ -32453,8 +34714,12 @@
       <c r="BL474" s="4"/>
       <c r="BM474" s="4"/>
       <c r="BN474" s="4"/>
-    </row>
-    <row r="475" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO474" s="4"/>
+      <c r="BP474" s="4"/>
+      <c r="BQ474" s="4"/>
+      <c r="BR474" s="4"/>
+    </row>
+    <row r="475" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -32519,8 +34784,12 @@
       <c r="BL475" s="4"/>
       <c r="BM475" s="4"/>
       <c r="BN475" s="4"/>
-    </row>
-    <row r="476" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO475" s="4"/>
+      <c r="BP475" s="4"/>
+      <c r="BQ475" s="4"/>
+      <c r="BR475" s="4"/>
+    </row>
+    <row r="476" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
@@ -32585,8 +34854,12 @@
       <c r="BL476" s="4"/>
       <c r="BM476" s="4"/>
       <c r="BN476" s="4"/>
-    </row>
-    <row r="477" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO476" s="4"/>
+      <c r="BP476" s="4"/>
+      <c r="BQ476" s="4"/>
+      <c r="BR476" s="4"/>
+    </row>
+    <row r="477" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -32651,8 +34924,12 @@
       <c r="BL477" s="4"/>
       <c r="BM477" s="4"/>
       <c r="BN477" s="4"/>
-    </row>
-    <row r="478" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO477" s="4"/>
+      <c r="BP477" s="4"/>
+      <c r="BQ477" s="4"/>
+      <c r="BR477" s="4"/>
+    </row>
+    <row r="478" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
@@ -32717,8 +34994,12 @@
       <c r="BL478" s="4"/>
       <c r="BM478" s="4"/>
       <c r="BN478" s="4"/>
-    </row>
-    <row r="479" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO478" s="4"/>
+      <c r="BP478" s="4"/>
+      <c r="BQ478" s="4"/>
+      <c r="BR478" s="4"/>
+    </row>
+    <row r="479" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -32783,8 +35064,12 @@
       <c r="BL479" s="4"/>
       <c r="BM479" s="4"/>
       <c r="BN479" s="4"/>
-    </row>
-    <row r="480" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO479" s="4"/>
+      <c r="BP479" s="4"/>
+      <c r="BQ479" s="4"/>
+      <c r="BR479" s="4"/>
+    </row>
+    <row r="480" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
@@ -32849,8 +35134,12 @@
       <c r="BL480" s="4"/>
       <c r="BM480" s="4"/>
       <c r="BN480" s="4"/>
-    </row>
-    <row r="481" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO480" s="4"/>
+      <c r="BP480" s="4"/>
+      <c r="BQ480" s="4"/>
+      <c r="BR480" s="4"/>
+    </row>
+    <row r="481" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
@@ -32915,8 +35204,12 @@
       <c r="BL481" s="4"/>
       <c r="BM481" s="4"/>
       <c r="BN481" s="4"/>
-    </row>
-    <row r="482" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO481" s="4"/>
+      <c r="BP481" s="4"/>
+      <c r="BQ481" s="4"/>
+      <c r="BR481" s="4"/>
+    </row>
+    <row r="482" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
@@ -32981,8 +35274,12 @@
       <c r="BL482" s="4"/>
       <c r="BM482" s="4"/>
       <c r="BN482" s="4"/>
-    </row>
-    <row r="483" spans="3:66" x14ac:dyDescent="0.2">
+      <c r="BO482" s="4"/>
+      <c r="BP482" s="4"/>
+      <c r="BQ482" s="4"/>
+      <c r="BR482" s="4"/>
+    </row>
+    <row r="483" spans="3:70" x14ac:dyDescent="0.2">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
@@ -33047,6 +35344,150 @@
       <c r="BL483" s="4"/>
       <c r="BM483" s="4"/>
       <c r="BN483" s="4"/>
+      <c r="BO483" s="4"/>
+      <c r="BP483" s="4"/>
+      <c r="BQ483" s="4"/>
+      <c r="BR483" s="4"/>
+    </row>
+    <row r="484" spans="3:70" x14ac:dyDescent="0.2">
+      <c r="C484" s="4"/>
+      <c r="D484" s="4"/>
+      <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
+      <c r="H484" s="4"/>
+      <c r="I484" s="4"/>
+      <c r="J484" s="4"/>
+      <c r="K484" s="4"/>
+      <c r="L484" s="4"/>
+      <c r="M484" s="4"/>
+      <c r="N484" s="4"/>
+      <c r="O484" s="4"/>
+      <c r="P484" s="4"/>
+      <c r="Q484" s="4"/>
+      <c r="R484" s="4"/>
+      <c r="S484" s="4"/>
+      <c r="T484" s="4"/>
+      <c r="U484" s="4"/>
+      <c r="V484" s="4"/>
+      <c r="W484" s="4"/>
+      <c r="X484" s="4"/>
+      <c r="Y484" s="4"/>
+      <c r="Z484" s="4"/>
+      <c r="AA484" s="4"/>
+      <c r="AB484" s="4"/>
+      <c r="AC484" s="4"/>
+      <c r="AD484" s="4"/>
+      <c r="AE484" s="4"/>
+      <c r="AF484" s="4"/>
+      <c r="AG484" s="4"/>
+      <c r="AH484" s="4"/>
+      <c r="AI484" s="4"/>
+      <c r="AJ484" s="4"/>
+      <c r="AK484" s="4"/>
+      <c r="AL484" s="4"/>
+      <c r="AM484" s="4"/>
+      <c r="AN484" s="4"/>
+      <c r="AO484" s="4"/>
+      <c r="AP484" s="4"/>
+      <c r="AQ484" s="4"/>
+      <c r="AR484" s="4"/>
+      <c r="AS484" s="4"/>
+      <c r="AT484" s="4"/>
+      <c r="AU484" s="4"/>
+      <c r="AV484" s="4"/>
+      <c r="AW484" s="4"/>
+      <c r="AX484" s="4"/>
+      <c r="AY484" s="4"/>
+      <c r="AZ484" s="4"/>
+      <c r="BA484" s="4"/>
+      <c r="BB484" s="4"/>
+      <c r="BC484" s="4"/>
+      <c r="BD484" s="4"/>
+      <c r="BE484" s="4"/>
+      <c r="BF484" s="4"/>
+      <c r="BG484" s="4"/>
+      <c r="BH484" s="4"/>
+      <c r="BI484" s="4"/>
+      <c r="BJ484" s="4"/>
+      <c r="BK484" s="4"/>
+      <c r="BL484" s="4"/>
+      <c r="BM484" s="4"/>
+      <c r="BN484" s="4"/>
+      <c r="BO484" s="4"/>
+      <c r="BP484" s="4"/>
+      <c r="BQ484" s="4"/>
+      <c r="BR484" s="4"/>
+    </row>
+    <row r="485" spans="3:70" x14ac:dyDescent="0.2">
+      <c r="C485" s="4"/>
+      <c r="D485" s="4"/>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
+      <c r="H485" s="4"/>
+      <c r="I485" s="4"/>
+      <c r="J485" s="4"/>
+      <c r="K485" s="4"/>
+      <c r="L485" s="4"/>
+      <c r="M485" s="4"/>
+      <c r="N485" s="4"/>
+      <c r="O485" s="4"/>
+      <c r="P485" s="4"/>
+      <c r="Q485" s="4"/>
+      <c r="R485" s="4"/>
+      <c r="S485" s="4"/>
+      <c r="T485" s="4"/>
+      <c r="U485" s="4"/>
+      <c r="V485" s="4"/>
+      <c r="W485" s="4"/>
+      <c r="X485" s="4"/>
+      <c r="Y485" s="4"/>
+      <c r="Z485" s="4"/>
+      <c r="AA485" s="4"/>
+      <c r="AB485" s="4"/>
+      <c r="AC485" s="4"/>
+      <c r="AD485" s="4"/>
+      <c r="AE485" s="4"/>
+      <c r="AF485" s="4"/>
+      <c r="AG485" s="4"/>
+      <c r="AH485" s="4"/>
+      <c r="AI485" s="4"/>
+      <c r="AJ485" s="4"/>
+      <c r="AK485" s="4"/>
+      <c r="AL485" s="4"/>
+      <c r="AM485" s="4"/>
+      <c r="AN485" s="4"/>
+      <c r="AO485" s="4"/>
+      <c r="AP485" s="4"/>
+      <c r="AQ485" s="4"/>
+      <c r="AR485" s="4"/>
+      <c r="AS485" s="4"/>
+      <c r="AT485" s="4"/>
+      <c r="AU485" s="4"/>
+      <c r="AV485" s="4"/>
+      <c r="AW485" s="4"/>
+      <c r="AX485" s="4"/>
+      <c r="AY485" s="4"/>
+      <c r="AZ485" s="4"/>
+      <c r="BA485" s="4"/>
+      <c r="BB485" s="4"/>
+      <c r="BC485" s="4"/>
+      <c r="BD485" s="4"/>
+      <c r="BE485" s="4"/>
+      <c r="BF485" s="4"/>
+      <c r="BG485" s="4"/>
+      <c r="BH485" s="4"/>
+      <c r="BI485" s="4"/>
+      <c r="BJ485" s="4"/>
+      <c r="BK485" s="4"/>
+      <c r="BL485" s="4"/>
+      <c r="BM485" s="4"/>
+      <c r="BN485" s="4"/>
+      <c r="BO485" s="4"/>
+      <c r="BP485" s="4"/>
+      <c r="BQ485" s="4"/>
+      <c r="BR485" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
